--- a/tables/habitat/AllTables.xlsx
+++ b/tables/habitat/AllTables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\00101765\AED Dropbox\AED_Coorong_db\7_hchb\Ruppia\CDM-manual\tables\habitat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCA83542-1A2A-41B0-9350-53E658F28E71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56255996-80DE-4A08-A81E-8F5A49785430}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="27230" yWindow="3590" windowWidth="22560" windowHeight="16880" tabRatio="799" firstSheet="2" activeTab="8" xr2:uid="{C6B6A4F7-8E11-4364-B90C-81D0188035FA}"/>
+    <workbookView xWindow="15015" yWindow="7425" windowWidth="23040" windowHeight="11550" tabRatio="870" firstSheet="4" activeTab="11" xr2:uid="{C6B6A4F7-8E11-4364-B90C-81D0188035FA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1_NPMR" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,10 @@
     <sheet name="Sheet7_threshold0" sheetId="7" r:id="rId7"/>
     <sheet name="Sheet8_threshold2" sheetId="8" r:id="rId8"/>
     <sheet name="Sheet9_validversion" sheetId="9" r:id="rId9"/>
+    <sheet name="Sheet10_appx_HSI" sheetId="10" r:id="rId10"/>
+    <sheet name="Sheet11_valid_hist" sheetId="12" r:id="rId11"/>
+    <sheet name="Sheet12_valid_hchb" sheetId="11" r:id="rId12"/>
+    <sheet name="Sheet13_fishtolerance" sheetId="13" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="314">
   <si>
     <t>Field data</t>
   </si>
@@ -159,9 +163,6 @@
     <t>Turions once formed will lose viability to high salinities (more vulnerable than seeds) during summer dormancy period. Experiments showed that after 60 days of treatment in salinities of 135 – 180 g/L, only 5 – 10% turions sprouted when transferred back to salinities below 120 g/L. Turions only sprouted in 0 g/L (which is unlikely to occur in Ruppia habitat in the lagoon) after salinity treatment at 165 g/L.</t>
   </si>
   <si>
-    <t>A new function to be added to our current model</t>
-  </si>
-  <si>
     <t>R. tuberosa seeds with sediment germinated in salinities of 0 to 85g/L with 14-64% germination, but no germination occurred above 85g/L. R. tuberosa seeds without sediment germinated in 0 - 90g/L.
 In salinity below 40g/L a germination probability of &gt;50% would be expected for seeds of R. tuberosa, but at salinities between 40 and 90 g/L germination would be&lt;50%</t>
   </si>
@@ -173,12 +174,6 @@
   </si>
   <si>
     <t>D: Water depth (m)</t>
-  </si>
-  <si>
-    <t>Ye et al 2014 cited in Collier et al. 2017 Table 3 indicated optimal is &gt;0.2 m AHD – assumed it was referred to water depth?</t>
-  </si>
-  <si>
-    <t>Ye et al 2014 cited in Collier et al. 2017</t>
   </si>
   <si>
     <t>A primary factor driving the distribution and abundance of Ruppia in the southern Coorong. The highest abundance of R. tuberosa found at salinities from 19 to 70 g/L and declined sharply
@@ -190,13 +185,6 @@
 conditions explained 73% of variation (Kim et al. 2015)</t>
   </si>
   <si>
-    <t>A primary factor driving the Ruppia distribution in the southern Coorong. Water depth needs to be sufficient to cover plants during growth. R. tuberosa shoots abundances were
-highest between 0.2 and 0.6 m in Coorong.</t>
-  </si>
-  <si>
-    <t>There is a great deal of confusion around water depth and water level (m AHD) in the literature. Thresholds here were mainly based on Kim et al. 2015 which is the latest published journal article where ‘water depth’ referred to depth instead of water level.</t>
-  </si>
-  <si>
     <t>L: Light (%SI)</t>
   </si>
   <si>
@@ -211,15 +199,7 @@
     <t>T: Temperature (°C)</t>
   </si>
   <si>
-    <t>The optimum temperature for photosynthesis of Ruppia sp. is approximately 20 – 23°C. At temperatures that are ≥30°C biomass declines, and if sustained, there may be no reproductive output. Lower threshold source is unclear</t>
-  </si>
-  <si>
     <t>The optimum is not specifically for R. tuberosa.</t>
-  </si>
-  <si>
-    <t>Surface mats formed
-by the filamentous algae shade submerged plants and entangle flowers/fruits, causing them to break away from stems before they mature. 
-It was suggested that to maintain and improve the condition and resilience of the Ruppia community, algal mat formation should be reduced to less than 100 g/DW per m2. Upper   thresholds derived from analysis of HCHB survey data  (Figure 5.9)</t>
   </si>
   <si>
     <t>Lewis et al. 2022</t>
@@ -247,39 +227,14 @@
 conditions explained 76% of variation but only 27% of the seed abundance variance was explained (Kim et al. 2015).</t>
   </si>
   <si>
-    <t>Assumed to be the same as adult growth</t>
-  </si>
-  <si>
-    <t>The highest density of flowering has been observed in water depths from 0.1 to 0.4 m and seed density of mature plants declines at depths greater than 0.4 m. Upper thresholds based on Fig.4 in Kim et al. 2015.</t>
-  </si>
-  <si>
     <t>Upper threshold for seed production is 0.8m (&gt;0.8m unsuitable) but only 27% of the seed abundance variance was explained (together with salinity), therefore thresholds for flowering was adopted here</t>
   </si>
   <si>
-    <t>Surface mats formed
-by the filamentous algae shade submerged plants and entangle flowers/fruits, causing them to break away from stems before they mature. 
-It was suggested that to maintain and improve the condition and resilience of the Ruppia community, algal mat formation should be reduced to less than 100 g/DW per m2. Upper thresholds derived from analysis of HCHB survey data (Figure 5.9)</t>
-  </si>
-  <si>
     <t>Turion formation (Sep 1 – Dec 31)</t>
-  </si>
-  <si>
-    <t>Thresholds were determined considering several sources:
-1) The highest turion densities in the Coorong have been observed at salinity between ~124 g/L and 160 g/L and are most likely to occur where salinities are over 70 g/L. This study was conducted during a year with extremely high salinities in the Coorong;
-2) Analysis of 2020 – 2021 HCHB survey data indicates high turion abundance between ~70 – 120 g/L but can occur in salinity at as low as ~40g/L (Figure 5.6);
-3) Upper threshold based on Fig.5 in Asanopoulos &amp; Waycott 2020</t>
   </si>
   <si>
     <t>1) The model relating turion density to physicochemical
 conditions explained 43% of variation in turion density.</t>
-  </si>
-  <si>
-    <t>Water depth had a detectable effect on turion density, with highest densities in 0.1–0.4 m water depths. Desiccation during the reproductive window (spring/summer) prevents turion production, reducing the regeneration of the population in subsequent growing seasons.
-Upper and lower threshold based on Fig.6 in Kim et al. 2015.</t>
-  </si>
-  <si>
-    <t>The model relating turion density to physicochemical
-conditions explained 43% of variation in turion density</t>
   </si>
   <si>
     <t>0.1-40 optimal&lt;br&gt;
@@ -294,11 +249,6 @@
 &gt;125 unsuitable</t>
   </si>
   <si>
-    <t>&lt;=0.01 unsuitable&lt;br&gt;
-0.01-0.2 suboptimal&lt;br&gt;
-&gt;0.2 optimal</t>
-  </si>
-  <si>
     <t>&lt;10 unsuitable&lt;br&gt;
 10-19 suboptimal&lt;br&gt;
 19-124 optimal&lt;br&gt;
@@ -306,13 +256,6 @@
 &gt;230 unsuitable</t>
   </si>
   <si>
-    <t>&lt;0.1 unsuitable&lt;br&gt;
-0.1-0.2 suboptimal&lt;br&gt;
-0.2-0.6 optimal&lt;br&gt;
-0.6-0.9 suboptimal&lt;br&gt;
-&gt;0.9 unsuitable&lt;br&gt;</t>
-  </si>
-  <si>
     <t>&lt;=5 unsuitable&lt;br&gt;
 5-36 suboptimal&lt;br&gt;
 &gt;=36 optimal</t>
@@ -321,11 +264,6 @@
     <t>&lt;=100 optimal&lt;br&gt;
 100-184 suboptimal&lt;br&gt;
 &gt;184 unsuitable</t>
-  </si>
-  <si>
-    <t>20-23 optimal&lt;br&gt;
-23-30 suboptimal&lt;br&gt;
-&gt;30 unsuitable</t>
   </si>
   <si>
     <t>&lt;0.1 unsuitable&lt;br&gt;
@@ -339,12 +277,6 @@
 70-160 optimal&lt;br&gt;
 160-230 suboptimal&lt;br&gt;
 &gt;230 unsuitable</t>
-  </si>
-  <si>
-    <t>&lt;0.1 unsuitable&lt;br&gt;
-0.1-0.4 optimal&lt;br&gt;
-0.4-0.6 suboptimal&lt;br&gt;
-&gt;0.6 unsuitable</t>
   </si>
   <si>
     <t>Kim et al. 2015;&lt;br&gt;
@@ -517,9 +449,6 @@
     <t>R^2^</t>
   </si>
   <si>
-    <t>A: Algal biomass&lt;br&gt; (g DW/m^2^)</t>
-  </si>
-  <si>
     <t>Adult growth</t>
   </si>
   <si>
@@ -636,11 +565,6 @@
 &gt;230 unsuitable</t>
   </si>
   <si>
-    <t>&lt;0.1unsuitable&lt;br&gt;
-0.1-0.2 suboptimal&lt;br&gt;
-&gt;0.2 optimal</t>
-  </si>
-  <si>
     <t>&lt;0.01 unsuitable&lt;br&gt;
 0.01-0.1 suboptimal&lt;br&gt;
 0.1-0.4 optimal&lt;br&gt;
@@ -648,11 +572,6 @@
 &gt;1 unsuitable</t>
   </si>
   <si>
-    <t>&lt;0 unsuitable&lt;br&gt;
-0-0.1 suboptimal&lt;br&gt;
-&gt;0.1 optimal</t>
-  </si>
-  <si>
     <t>&lt;4 unsuitable&lt;br&gt;
 4-10 suboptimal&lt;br&gt;
 10-20 optimal&lt;br&gt;
@@ -680,131 +599,811 @@
 &gt;85 unsuitable</t>
   </si>
   <si>
-    <t>&lt;0.1 unsuitable&lt;br&gt;
-0.1-0.2 suboptimal&lt;br&gt;
-0.2-0.6 optimal&lt;br&gt;
-0.6-0.9 suboptimal&lt;br&gt;
+    <t>Validation version</t>
+  </si>
+  <si>
+    <t>Environmental thresholds</t>
+  </si>
+  <si>
+    <t>Life-stage time windows</t>
+  </si>
+  <si>
+    <t>Life-stage integration</t>
+  </si>
+  <si>
+    <t>Model output timeframe</t>
+  </si>
+  <si>
+    <t>Buffer radius (m)</t>
+  </si>
+  <si>
+    <t>HSI averaging within buffer</t>
+  </si>
+  <si>
+    <t>Gen 0</t>
+  </si>
+  <si>
+    <t>default</t>
+  </si>
+  <si>
+    <t>arithmetic</t>
+  </si>
+  <si>
+    <t>600 or 100</t>
+  </si>
+  <si>
+    <t>tailored</t>
+  </si>
+  <si>
+    <t>Gen II</t>
+  </si>
+  <si>
+    <t>HCHB&lt;br&gt;(Sep 2020 – Apr 2021)</t>
+  </si>
+  <si>
+    <t>spatial&lt;br&gt; (area-weighted)</t>
+  </si>
+  <si>
+    <t>Permanent dry: unsuitable&lt;br&gt;
+&lt;15 days wet (&gt;95% of time): unsuitable&lt;br&gt; 15-42 days wet (&gt;95% of time): suboptimal\*&lt;br&gt;
+&gt;42 days wet (&gt;95% of time): optimal\*&lt;br&gt;
+Permanently wet: optimal</t>
+  </si>
+  <si>
+    <t>\-</t>
+  </si>
+  <si>
+    <t>Hydro- dynamic model</t>
+  </si>
+  <si>
+    <r>
+      <t>Environmental condition ($</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>i$</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>Habitat Suitability Index ($\Phi$)</t>
+  </si>
+  <si>
+    <t>Generation II:&lt;br&gt;
+&lt;135 optimal&lt;br&gt;
+135 – 165 suboptimal&lt;br&gt;
+&gt;=165 unsuitable</t>
+  </si>
+  <si>
+    <t>Life-stage ($j$)</t>
+  </si>
+  <si>
+    <t>&lt;img src="images/lagoon_habitat/HSI_viability_salinity.png"&gt;</t>
+  </si>
+  <si>
+    <t>$\Phi^{via}_{S}$= 
+  \begin{cases}
+    0, S\ge 165\\ 1-\frac{S-135}{165-135}, 135 \le S \lt 165 \\
+    1, S \lt 135
+  \end{cases}</t>
+  </si>
+  <si>
+    <t>A: Algal biomass (g DW m-2)</t>
+  </si>
+  <si>
+    <t>Seed germination (Apr 1 – Jun 30)</t>
+  </si>
+  <si>
+    <t>&lt;img src="images/lagoon_habitat/HSI_germination_salinity.png"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="images/lagoon_habitat/HSI_turion_salinity.png"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="images/lagoon_habitat/HSI_turion_depth.png"&gt;</t>
+  </si>
+  <si>
+    <t>&lt; 10 % of time wet: unsuitable&lt;br&gt;
+&gt;= 10 % of time wet: suitable&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>A new function in Gen II model</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Water depth needs to be sufficient to cover plants during growth. </t>
+  </si>
+  <si>
+    <t>f(S): Salinity (g/L)</t>
+  </si>
+  <si>
+    <t>f(WL): Water depth (m)</t>
+  </si>
+  <si>
+    <t>f(l): Light (%SI)</t>
+  </si>
+  <si>
+    <t>f(T): Temperature (°C)</t>
+  </si>
+  <si>
+    <t>f(FA): Algal biomass&lt;br&gt; (g DW/m^2^)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shoot abundances were observed to be
+highest at water depths between 0.2 and 0.6 m in Coorong. However this depth preference is likely the result of trade-off between light requirement (thresholds included in f(l)) for photosynthesis and preventing desiccation. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Highest densities of turions were observed in 0.1–0.4 m water depths. However this depth preference is likely the result of trade-off between light requirement (thresholds included in f(l)) for photosynthesis and preventing desiccation. </t>
+  </si>
+  <si>
+    <t>R. tuberosa flowers need to reach the water surface for pollination. The highest density of flowering has been observed in water depths from 0.1 to 0.4 m and seed density of mature plants declines at depths greater than 0.4 m. Upper thresholds based on Fig.4 in Kim et al. 2015.</t>
+  </si>
+  <si>
+    <t>&lt;0.01 unsuitable&lt;br&gt;
+0.01-0.1 suboptimal&lt;br&gt;
+0.1-0.4 optimal&lt;br&gt;
+0.4-0.9 suboptimal&lt;br&gt;
 &gt;0.9 unsuitable</t>
   </si>
   <si>
+    <t>Desiccation during the reproductive window (spring/summer) prevents turion production, reducing the regeneration of the population in subsequent growing seasons.</t>
+  </si>
+  <si>
+    <t>Surface mats formed
+by the filamentous algae shade submerged plants and entangle flowers/fruits, causing them to break away from stems before they mature. 
+It was suggested that to maintain and improve the condition and resilience of the Ruppia community, algal mat formation should be reduced to less than 100 g/DW per m2. Upper thresholds derived from analysis of HCHB survey data (Figure 8.9)</t>
+  </si>
+  <si>
+    <t>Thresholds were determined considering several sources:
+1) The highest turion densities in the Coorong have been observed at salinity between ~124 g/L and 160 g/L and are most likely to occur where salinities are over 70 g/L. This study was conducted during a year with extremely high salinities in the Coorong;
+2) Analysis of 2020 – 2021 HCHB survey data indicates high turion abundance between ~70 – 120 g/L but can occur in salinity at as low as ~40g/L (Figure 8.6);
+3) Upper threshold based on Fig.5 in Asanopoulos &amp; Waycott 2020</t>
+  </si>
+  <si>
+    <t>Surface mats formed
+by the filamentous algae shade submerged plants and entangle flowers/fruits, causing them to break away from stems before they mature. 
+It was suggested that to maintain and improve the condition and resilience of the Ruppia community, algal mat formation should be reduced to less than 100 g/DW per m2. Upper thresholds derived from analysis of HCHB survey data  (Figure 8.9)</t>
+  </si>
+  <si>
     <t>&lt;4 unsuitable&lt;br&gt;
+4-10 suboptimal&lt;br&gt;
+10-23 optimal&lt;br&gt;
+23-30 suboptimal&lt;br&gt;
+&gt;30 unsuitable</t>
+  </si>
+  <si>
+    <t>The optimum temperature for photosynthesis of Ruppia sp. is approximately 20 – 23°C. At temperatures that are ≥30°C biomass declines, and if sustained, there may be no reproductive output. Lower threshold is unclear</t>
+  </si>
+  <si>
+    <t>&lt; 10 % of time wet: unsuitable&lt;br&gt;
+&gt;= 10 % of time wet: suitable</t>
+  </si>
+  <si>
+    <t>Flower count</t>
+  </si>
+  <si>
+    <t>Survey period</t>
+  </si>
+  <si>
+    <t>Model output</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Survey data </t>
+  </si>
+  <si>
+    <t>Model integration period</t>
+  </si>
+  <si>
+    <t>9-12/2020</t>
+  </si>
+  <si>
+    <t>12/2021</t>
+  </si>
+  <si>
+    <t>HSI sexual</t>
+  </si>
+  <si>
+    <t>1-10/2020</t>
+  </si>
+  <si>
+    <t>1-9/2020</t>
+  </si>
+  <si>
+    <t>1-9/2021</t>
+  </si>
+  <si>
+    <t>1-12/2021</t>
+  </si>
+  <si>
+    <t>Seed count</t>
+  </si>
+  <si>
+    <t>3-4/2021</t>
+  </si>
+  <si>
+    <t>1-12/2020</t>
+  </si>
+  <si>
+    <t>Turion count</t>
+  </si>
+  <si>
+    <t>HSI asexual</t>
+  </si>
+  <si>
+    <t>HSI seed germination + turion viability + turion sprouting + adult growth</t>
+  </si>
+  <si>
+    <t>HSI flowering</t>
+  </si>
+  <si>
+    <t>1/2017, 1/2018, 1/2019</t>
+  </si>
+  <si>
+    <t>11/2016</t>
+  </si>
+  <si>
+    <t>1-12/2016</t>
+  </si>
+  <si>
+    <t>1/2016, 1/2017, 1/2019</t>
+  </si>
+  <si>
+    <t>HSI turion formation</t>
+  </si>
+  <si>
+    <t>8-12/2015, 8-12/2016, 8-12/2017</t>
+  </si>
+  <si>
+    <t>8-12/2016, 8-12/2017, 8-12/2018</t>
+  </si>
+  <si>
+    <t>1/2018, 1/2019</t>
+  </si>
+  <si>
+    <t>Shoot count (green and brown)</t>
+  </si>
+  <si>
+    <t>HSI sexual and asexual combined</t>
+  </si>
+  <si>
+    <t>4-12/2017, 4-12/2018</t>
+  </si>
+  <si>
+    <t>Gen 0&lt;br&gt; (Table 8.6)</t>
+  </si>
+  <si>
+    <t>Gen II&lt;br&gt; (Table 8.8)</t>
+  </si>
+  <si>
+    <t>Gen 0&lt;br&gt; (Table 8.5)</t>
+  </si>
+  <si>
+    <t>Gen II&lt;br&gt; (Table 8.7)</t>
+  </si>
+  <si>
+    <t>Gen 0&lt;br&gt; (Eq.8.5 - 8.6)</t>
+  </si>
+  <si>
+    <t>Gen II&lt;br&gt; (Eq.8.7 - 8.8)*</t>
+  </si>
+  <si>
+    <t>Gen II&lt;br&gt; (Eq.8.7 - 8.8)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HCHB&lt;br&gt;(Sep 2020 – Dec 2021);&lt;br&gt; MDBA (2018 - 2019) </t>
+  </si>
+  <si>
+    <t>Historical&lt;br&gt;(2016 - 2019)</t>
+  </si>
+  <si>
+    <t>7/2018</t>
+  </si>
+  <si>
+    <t>1-6/2018</t>
+  </si>
+  <si>
+    <t>1/2019</t>
+  </si>
+  <si>
+    <t>1-12/2018</t>
+  </si>
+  <si>
+    <t>HCHB_longterm</t>
+  </si>
+  <si>
+    <t>Shoot count (HCHB)</t>
+  </si>
+  <si>
+    <t>Flower count (HCHB)</t>
+  </si>
+  <si>
+    <t>Seed count (HCHB)</t>
+  </si>
+  <si>
+    <t>Turion count (HCHB)</t>
+  </si>
+  <si>
+    <t>Shoot count (MDBA)</t>
+  </si>
+  <si>
+    <t>Seed count (MDBA)</t>
+  </si>
+  <si>
+    <t>Turion count (MDBA)</t>
+  </si>
+  <si>
+    <t>Common name</t>
+  </si>
+  <si>
+    <t>Mulloway</t>
+  </si>
+  <si>
+    <t>Tamar goby</t>
+  </si>
+  <si>
+    <t>Black bream</t>
+  </si>
+  <si>
+    <t>Greenback flounder</t>
+  </si>
+  <si>
+    <t>Yelloweye mullet</t>
+  </si>
+  <si>
+    <t>82.4*</t>
+  </si>
+  <si>
+    <t>Congolli</t>
+  </si>
+  <si>
+    <t>Smallmouth hardyhead</t>
+  </si>
+  <si>
+    <t>$LC^{14}_{50}$</t>
+  </si>
+  <si>
+    <t>$LC^{23}_{50}$</t>
+  </si>
+  <si>
+    <t>$LC^{14}_{10}$</t>
+  </si>
+  <si>
+    <t>$LC^{23}_{10}$</t>
+  </si>
+  <si>
+    <t>Historical&lt;br&gt;(Appendix)</t>
+  </si>
+  <si>
+    <t>HCHB_v1&lt;br&gt;(Appendix)</t>
+  </si>
+  <si>
+    <t>HCHB_v2&lt;br&gt;(Appendix)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kim et al. 2013; </t>
+  </si>
+  <si>
+    <t>Assumed to be the same as adult growth</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>Water depth needs to be sufficient to cover plants during growth.</t>
+  </si>
+  <si>
+    <t>Collier et al. 2017</t>
+  </si>
+  <si>
+    <t>The optimum temperature for photosynthesis of Ruppia sp. is approximately 20 – 23°C. At temperatures that are ≥30°C biomass declines, and if sustained, there may be no reproductive output. Lower threshold source is unclear</t>
+  </si>
+  <si>
+    <t>Santamarı́a &amp;
+Hootsmans 1998 cited in Collier et al. 2017.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The optimum is not specifically for R. tuberosa. </t>
+  </si>
+  <si>
+    <t>Collier et al. 2017 
+cited in Asanopoulos &amp; Waycott 2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A primary factor driving the Ruppia distribution in the southern Coorong. Water depth needs to be sufficient to cover plants during growth. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">R. tuberosa shoots abundances were observed to be
+highest at water depths between 0.2 and 0.6 m in Coorong. However this depth preference is likely the result of trade-off between light requirement (thresholds included in $\Phi^{adt}_{L}$) for photosynthesis and preventing desiccation. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Surface mats formed by the filamentous algae shade submerged plants and entangle flowers/fruits, causing them to break away from stems before they mature. 
+It was suggested that to maintain and improve the condition and resilience of the Ruppia community, algal mat formation should be reduced to less than 100 g/DW per m2. </t>
+  </si>
+  <si>
+    <t>Flower abundance was highest at salinities between ~47 and 62 g/L and flower abundance was lowest at &gt;70 g/L and &lt;47 g/L.
+The highest seed density was maintained at salinities of
+26–62 g/L. 
+Upper and lower thresholds were based on Collier et al. 2017 and Fig.5 in Asanopoulos &amp; Waycott 2020. Original source unclear</t>
+  </si>
+  <si>
+    <t>Thresholds were determined considering several sources: 
+1) The highest turion densities in the Coorong have been observed at salinity between ~124 g/L and 160 g/L and are most likely to occur where salinities are over 70 g/L. This study was conducted during a year with extremely high salinities in the Coorong;
+2) Analysis of 2020 – 2021 HCHB survey data indicate high turion abundance between ~70 – 120 g/L but can occur in salinity at as low as ~40g/L;
+3) Upper threshold based on Fig.5 in Asanopoulos &amp; Waycott 2020</t>
+  </si>
+  <si>
+    <t>Highest densities of turions were observed in 0.1–0.4 m water depths. However this depth preference is likely the result of trade-off between light requirement (thresholds included in $\Phi^{tur}_{L}$)) for photosynthesis and preventing desiccation</t>
+  </si>
+  <si>
+    <t>&lt;img src="images/lagoon_habitat/HSI_adult_temp.png"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="images/lagoon_habitat/HSI_germination_temp.png"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="images/lagoon_habitat/HSI_turion_temp.png"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="images/lagoon_habitat/HSI_turion_light.png"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="images/lagoon_habitat/HSI_adult_salinity.png"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="images/lagoon_habitat/HSI_adult_light.png"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="images/lagoon_habitat/HSI_adult_algae.png"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="images/lagoon_habitat/HSI_flower_salinity.png"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="images/lagoon_habitat/HSI_flower_depth.png"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="images/lagoon_habitat/HSI_flower_temp.png"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="images/lagoon_habitat/HSI_flower_light.png"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="images/lagoon_habitat/HSI_flower_algae.png"&gt;</t>
+  </si>
+  <si>
+    <t>$\Phi^{germ}_{S}$= 
+  \begin{cases}
+    0, S\le 0.1 or S\gt 85\\ 1-\frac{S-40}{85-40}, 40 \le S \le 85 \\
+    1, 0.1\lt S \lt 40
+  \end{cases}</t>
+  </si>
+  <si>
+    <t>$\Phi^{germ}_{T}$= 
+  \begin{cases}
+    0, T\le 4 or T\gt 30\\ \frac{T-4}{10-4}, 4 \lt T \le 10\\1-\frac{T-23}{30-23}, 23 \lt T \le 30 \\
+    1,10\lt T \lt 23
+  \end{cases}</t>
+  </si>
+  <si>
+    <t>$\Phi^{adt}_{T}$= 
+  \begin{cases}
+    0, T\le 4 or T\gt 30\\ \frac{T-4}{10-4}, 4 \lt T \le 10\\1-\frac{T-23}{30-23}, 23 \lt T \le 30 \\
+    1,10\lt T \lt 23
+  \end{cases}</t>
+  </si>
+  <si>
+    <t>$\Phi^{spr}_{T}$= 
+  \begin{cases}
+    0, T\le 4 or T\gt 30\\ \frac{T-4}{10-4}, 4 \lt T \le 10\\1-\frac{T-23}{30-23}, 23 \lt T \le 30 \\
+    1,10\lt T \lt 23
+  \end{cases}</t>
+  </si>
+  <si>
+    <t>$\Phi^{flw}_{T}$= 
+  \begin{cases}
+    0, T\le 4 or T\gt 30\\ \frac{T-4}{10-4}, 4 \lt T \le 10\\1-\frac{T-23}{30-23}, 23 \lt T \le 30 \\
+    1,10\lt T \lt 23
+  \end{cases}</t>
+  </si>
+  <si>
+    <t>$\Phi^{tur}_{T}$= 
+  \begin{cases}
+    0, T\le 4 or T\gt 30\\ \frac{T-4}{10-4}, 4 \lt T \le 10\\1-\frac{T-23}{30-23}, 23 \lt T \le 30 \\
+    1,10\lt T \lt 23
+  \end{cases}</t>
+  </si>
+  <si>
+    <t>$\Phi^{spr}_{S}$= 
+  \begin{cases}
+    0, S\le 0.1 or S\gt 125\\ \frac{S-0.1}{20-0.1}, 0.1 \lt S \le 20\\1-\frac{S-75}{125-75}, 75 \lt S \le 125 \\
+    1,20\lt S \lt 75
+  \end{cases}</t>
+  </si>
+  <si>
+    <t>$\Phi^{spr}_{L}$= 
+  \begin{cases}
+    0, L\lt 5\\ \frac{L-5}{36-5}, 5 \le L \lt 36 \\
+    1,L \gt 36
+  \end{cases}</t>
+  </si>
+  <si>
+    <t>$\Phi^{adt}_{L}$= 
+  \begin{cases}
+    0, L\lt 5\\ \frac{L-5}{36-5}, 5 \le L \lt 36 \\
+    1,L \gt 36
+  \end{cases}</t>
+  </si>
+  <si>
+    <t>$\Phi^{flw}_{L}$= 
+  \begin{cases}
+    0, L\lt 5\\ \frac{L-5}{36-5}, 5 \le L \lt 36 \\
+    1,L \gt 36
+  \end{cases}</t>
+  </si>
+  <si>
+    <t>$\Phi^{adt}_{S}$= 
+  \begin{cases}
+    0, S\lt 10 or S\gt 230\\ \frac{S-10}{19-10}, 10 \le S \lt 19\\1-\frac{S-124}{230-124}, 124 \lt S \le 230\\
+    1,19\le S \le 124
+  \end{cases}</t>
+  </si>
+  <si>
+    <t>$\Phi^{flw}_{S}$= 
+  \begin{cases}
+    0, S\lt 47 or S\gt 100\\ \frac{S-12}{47-12}, 12 \le S \lt 47\\1-\frac{S-62}{100-62}, 62 \lt S \le 100\\
+    1,47\le S \le 62
+  \end{cases}</t>
+  </si>
+  <si>
+    <t>$\Phi^{tur}_{S}$= 
+  \begin{cases}
+    0, S\lt 40 or S\gt 230\\ \frac{S-40}{70-40}, 40 \le S \lt 70\\1-\frac{S-160}{230-160}, 160 \lt S \le 230\\
+    1,70\le S \le 160
+  \end{cases}</t>
+  </si>
+  <si>
+    <t>$\Phi^{adt}_{A}$= 
+  \begin{cases}
+    0, A\gt 368\\ 1-\frac{A-100}{368-100}, 100 \lt A \le 368 \\
+    1, A \le 100
+  \end{cases}</t>
+  </si>
+  <si>
+    <t>$\Phi^{flw}_{A}$= 
+  \begin{cases}
+    0, A\gt 184\\ 1-\frac{A-100}{184-100}, 100 \lt A \le 184 \\
+    1, A \le 100
+  \end{cases}</t>
+  </si>
+  <si>
+    <t>$\Phi^{tur}_{L}$= 
+  \begin{cases}
+    0, L\lt 5\\ \frac{L-5}{36-5}, 5 \le L \lt 36 \\
+    1,L \gt 36
+  \end{cases}</t>
+  </si>
+  <si>
+    <t>Generation 0:&lt;br&gt;
+&lt;10 unsuitable&lt;br&gt;
+10-30 suboptimal&lt;br&gt;
+30-60 optimal&lt;br&gt;
+60-85 suboptimal&lt;br&gt;
+&gt;85 unsuitable&lt;br&gt;
+Generation II:&lt;br&gt;
+&lt;=0.1 unsuitable&lt;br&gt;
+0.1-40 optimal&lt;br&gt;
+40-85 suboptimal&lt;br&gt;
+&gt;85 unsuitable</t>
+  </si>
+  <si>
+    <t>Generation 0:&lt;br&gt;
+Permanent dry: unsuitable
+&lt;15 days wet (&gt;95% of time): unsuitable &lt;br&gt;
+15-42 days wet (&gt;95% of time): suboptimal*&lt;br&gt;
+&gt;42 days wet (&gt;95% of time): optimal*&lt;br&gt;
+Permanently wet: optimal</t>
+  </si>
+  <si>
+    <t>Generation 0: &lt;br&gt;
+&lt;4 unsuitable&lt;br&gt;
+4-10 suboptimal&lt;br&gt;
+10-20 optimal&lt;br&gt;
+20-30 suboptimal&lt;br&gt;
+&gt;30 unsuitable&lt;br&gt;
+Generation II:&lt;br&gt;
+&lt;4 unsuitable&lt;br&gt;
+4-10 suboptimal&lt;br&gt;
+10-23 optimal&lt;br&gt;
+23-30 suboptimal&lt;br&gt;
+&gt;30 unsuitable</t>
+  </si>
+  <si>
+    <t>Generation 0: &lt;br&gt;
+&lt;=0.1 unsuitable&lt;br&gt;
+0.1-20 suboptimal&lt;br&gt;
+20-75 optimal&lt;br&gt;
+75-130 suboptimal&lt;br&gt;
+&gt;130 unsuitable&lt;br&gt;
+Generation II: &lt;br&gt;
+&lt;=0.1 unsuitable&lt;br&gt;
+0.1-20 suboptimal&lt;br&gt;
+20-75 optimal&lt;br&gt;
+75-125 suboptimal&lt;br&gt;
+&gt;125 unsuitable</t>
+  </si>
+  <si>
+    <t>Generation 0: &lt;br&gt;             &lt;=0.01 unsuitable&lt;br&gt;
+0.01-0.2 suboptimal&lt;br&gt;
+&gt;0.2 optimal</t>
+  </si>
+  <si>
+    <t>Generation 0: &lt;br&gt;
+&lt;=7.5 unsuitable&lt;br&gt;
+7.5-24 suboptimal&lt;br&gt;
+&gt;=24 optimal&lt;br&gt;
+Generation II: &lt;br&gt;
+&lt;=5 unsuitable&lt;br&gt;
+5-36 suboptimal&lt;br&gt;
+&gt;=36 optimal</t>
+  </si>
+  <si>
+    <t>Generation 0: &lt;br&gt;
+&lt;10 unsuitable&lt;br&gt;
+10-30 suboptimal&lt;br&gt;
+30-123 optimal&lt;br&gt;
+123-230 suboptimal&lt;br&gt;
+&gt;230 unsuitable
+Generation II:&lt;br&gt;
+&lt;10 unsuitable&lt;br&gt;
+10-19 suboptimal&lt;br&gt;
+19-124 optimal&lt;br&gt;
+124-230 suboptimal&lt;br&gt;
+&gt;230 unsuitable</t>
+  </si>
+  <si>
+    <t>Generation 0 &amp; II: &lt;br&gt;
+&lt; 10 % of time wet: unsuitable&lt;br&gt;
+&gt;= 10 % of time wet: suitable</t>
+  </si>
+  <si>
+    <t>Generation 0: &lt;br&gt;
+&lt;4 unsuitable&lt;br&gt;
+4-10 suboptimal&lt;br&gt;
+10-20 optimal&lt;br&gt;
+20-30 suboptimal&lt;br&gt;
+&gt;30 unsuitable&lt;br&gt;
+Generation II:&lt;br&gt;
+&lt;4 unsuitable&lt;br&gt;
+4-20 suboptimal&lt;br&gt;
+10-23 optimal&lt;br&gt;
+23-30 suboptimal&lt;br&gt;
+&gt;30 unsuitable</t>
+  </si>
+  <si>
+    <t>Generation 0: &lt;br&gt;
+&lt;=25 optimal&lt;br&gt;
+25-100 suboptimal&lt;br&gt;
+&gt;100 unsuitable&lt;br&gt;
+Generation II:&lt;br&gt;
+&lt;=100 optimal&lt;br&gt;
+100-368 suboptimal&lt;br&gt;
+&gt;368 unsuitable</t>
+  </si>
+  <si>
+    <t>Generation 0:&lt;br&gt;
+&lt;10 unsuitable&lt;br&gt;
+10-35 suboptimal&lt;br&gt;
+35-62 optimal&lt;br&gt;
+62-100 suboptimal&lt;br&gt;
+&gt;100 unsuitable &lt;br&gt;
+Generation II:&lt;br&gt;
+&lt;12 unsuitable&lt;br&gt;
+12-47 suboptimal&lt;br&gt;
+47-62 optimal&lt;br&gt;
+62-100 suboptimal&lt;br&gt;
+&gt;100 unsuitable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Generation 0: &lt;br&gt;
+&lt;0.01 unsuitable&lt;br&gt;
+0.01-0.1 suboptimal&lt;br&gt;
+0.1-0.4 optimal&lt;br&gt;
+0.4-1 suboptimal&lt;br&gt;
+&gt;1 unsuitable &lt;br&gt;
+Generation II:&lt;br&gt;
+&lt;0.1 unsuitable&lt;br&gt;
+0.1-0.4 optimal&lt;br&gt;
+0.4-0.9 suboptimal&lt;br&gt;
+&gt;0.9 unsuitable </t>
+  </si>
+  <si>
+    <t>Generation 0: &lt;br&gt;
+&lt;4 unsuitable&lt;br&gt;
+4-10 suboptimal&lt;br&gt;
+10-20 optimal&lt;br&gt;
+20-30 suboptimal&lt;br&gt;
+&gt;30 unsuitable&lt;br&gt;
+Generation II:&lt;br&gt;
+&lt;4 unsuitable&lt;br&gt;
 4-20 suboptimal&lt;br&gt;
 20-23 optimal&lt;br&gt;
 23-30 suboptimal&lt;br&gt;
 &gt;30 unsuitable</t>
   </si>
   <si>
-    <t>Validation version</t>
-  </si>
-  <si>
-    <t>Environmental thresholds</t>
-  </si>
-  <si>
-    <t>Life-stage time windows</t>
-  </si>
-  <si>
-    <t>Life-stage integration</t>
-  </si>
-  <si>
-    <t>Model output timeframe</t>
-  </si>
-  <si>
-    <t>Buffer radius (m)</t>
-  </si>
-  <si>
-    <t>HSI averaging within buffer</t>
-  </si>
-  <si>
-    <t>Historical</t>
-  </si>
-  <si>
-    <t>Gen 0</t>
-  </si>
-  <si>
-    <t>default</t>
-  </si>
-  <si>
-    <t>arithmetic</t>
-  </si>
-  <si>
-    <t>600 or 100</t>
-  </si>
-  <si>
-    <r>
-      <t>HCHB_v1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Avenir Light"/>
-      </rPr>
-      <t> </t>
-    </r>
-  </si>
-  <si>
-    <t>HCHB_v2</t>
-  </si>
-  <si>
-    <t>tailored</t>
-  </si>
-  <si>
-    <t>HCHB_vN</t>
-  </si>
-  <si>
-    <t>Gen II</t>
-  </si>
-  <si>
-    <t>Historical&lt;br&gt;(pre-2020)</t>
-  </si>
-  <si>
-    <t>HCHB&lt;br&gt;(Sep 2020 – Apr 2021)</t>
-  </si>
-  <si>
-    <t>HCHB&lt;br&gt;(Sep 2020 – Dec 2021)</t>
-  </si>
-  <si>
-    <t>Gen 0&lt;br&gt; (Table 5.6)</t>
-  </si>
-  <si>
-    <t>Gen II&lt;br&gt; (Table 5.8)</t>
-  </si>
-  <si>
-    <t>Gen 0&lt;br&gt; (Table 5.5)</t>
-  </si>
-  <si>
-    <t>Gen II&lt;br&gt; (Table 5.7)</t>
-  </si>
-  <si>
-    <t>spatial&lt;br&gt; (area-weighted)</t>
-  </si>
-  <si>
-    <t>Gen II&lt;br&gt; (Eq.5.7 - 5.8)*</t>
-  </si>
-  <si>
-    <t>Gen II&lt;br&gt; (Eq.5.7 - 5.8)</t>
-  </si>
-  <si>
-    <t>Gen 0&lt;br&gt; (Eq.5.5 - 5.6)</t>
-  </si>
-  <si>
-    <t>Permanent dry: unsuitable&lt;br&gt;
-&lt;15 days wet (&gt;95% of time): unsuitable&lt;br&gt; 15-42 days wet (&gt;95% of time): suboptimal\*&lt;br&gt;
-&gt;42 days wet (&gt;95% of time): optimal\*&lt;br&gt;
-Permanently wet: optimal</t>
-  </si>
-  <si>
-    <t>\-</t>
-  </si>
-  <si>
-    <t>Hydro- dynamic model</t>
+    <t>Generation 0: &lt;br&gt;
+NA&lt;br&gt;
+Generation II: &lt;br&gt;
+&lt;=5 unsuitable&lt;br&gt;
+5-36 suboptimal&lt;br&gt;
+&gt;=36 optimal</t>
+  </si>
+  <si>
+    <t>Generation 0: &lt;br&gt;
+&lt;=25 optimal&lt;br&gt;
+25-100 suboptimal&lt;br&gt;
+&gt;100 unsuitable&lt;br&gt;
+Generation II:&lt;br&gt;
+&lt;=100 optimal&lt;br&gt;
+100-184 suboptimal&lt;br&gt;
+&gt;184 unsuitable</t>
+  </si>
+  <si>
+    <t>Generation 0: &lt;br&gt;
+&lt;70 unsuitable&lt;br&gt;
+70-124 suboptimal&lt;br&gt;
+124-160 optimal&lt;br&gt;
+160-230 suboptimal&lt;br&gt;
+&gt;230 unsuitable&lt;br&gt;
+Generation II: &lt;br&gt;
+&lt;40 unsuitable&lt;br&gt;
+40-70 suboptimal&lt;br&gt;
+70-160 optimal&lt;br&gt;
+160-230 suboptimal&lt;br&gt;
+&gt;230 unsuitable</t>
+  </si>
+  <si>
+    <t>Generation 0 &amp;II: &lt;br&gt;
+&lt; 10 % of time wet: unsuitable&lt;br&gt;
+&gt;= 10 % of time wet: suitable</t>
+  </si>
+  <si>
+    <t>Brock 1982; &lt;br&gt;Kim et al. 2015;&lt;br&gt;
+Collier et al. 2017; &lt;br&gt;
+Asanopoulos &amp; Waycott 2020</t>
+  </si>
+  <si>
+    <t>Kim et al. 2015; &lt;br&gt;
+Collier et al. 2017; &lt;br&gt;
+Asanopoulos &amp; Waycott 2020</t>
+  </si>
+  <si>
+    <t>R&lt;br&gt;(Whole lagoon)</t>
+  </si>
+  <si>
+    <t>R&lt;br&gt;(South lagoon)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -813,12 +1412,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="Avenir Light"/>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8"/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -844,7 +1446,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -861,6 +1463,24 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1182,7 +1802,7 @@
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.28515625" style="2" customWidth="1"/>
     <col min="2" max="2" width="19.85546875" style="2" customWidth="1"/>
@@ -1194,7 +1814,7 @@
     <col min="13" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="17.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1202,7 +1822,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>113</v>
+        <v>96</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>2</v>
@@ -1217,12 +1837,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="45">
+    <row r="2" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="C2" s="2">
         <v>0.72199999999999998</v>
@@ -1240,12 +1860,12 @@
         <v>1.911</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="45">
+    <row r="3" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="C3" s="2">
         <v>0.25</v>
@@ -1263,12 +1883,12 @@
         <v>3.3559999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="30">
+    <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="C4" s="2">
         <v>0.95399999999999996</v>
@@ -1286,12 +1906,12 @@
         <v>0.60099999999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="45">
+    <row r="5" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="C5" s="2">
         <v>0.27500000000000002</v>
@@ -1309,12 +1929,12 @@
         <v>1.5649999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="45">
+    <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="C6" s="2">
         <v>0.26400000000000001</v>
@@ -1332,12 +1952,12 @@
         <v>2.3460000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="30">
+    <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="C7" s="2">
         <v>0.44</v>
@@ -1355,12 +1975,12 @@
         <v>2.6280000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="30">
+    <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="C8" s="2">
         <v>0.54900000000000004</v>
@@ -1378,7 +1998,1223 @@
         <v>2.6280000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15" customHeight="1"/>
+    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E455835C-91A3-4A35-A210-9F3EF1BB69F6}">
+  <dimension ref="A1:H27"/>
+  <sheetViews>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.28515625" style="7" customWidth="1"/>
+    <col min="4" max="4" width="33.5703125" style="7" customWidth="1"/>
+    <col min="5" max="5" width="25.42578125" style="7" customWidth="1"/>
+    <col min="6" max="6" width="38.42578125" style="7" customWidth="1"/>
+    <col min="7" max="7" width="20.42578125" style="7" customWidth="1"/>
+    <col min="8" max="8" width="20.7109375" style="7" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="165" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="180" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="135" x14ac:dyDescent="0.25">
+      <c r="B4" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="195" x14ac:dyDescent="0.25">
+      <c r="B5" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B6" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="B7" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="195" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="B9" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="195" x14ac:dyDescent="0.25">
+      <c r="B10" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="135" x14ac:dyDescent="0.25">
+      <c r="B11" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="B12" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="210" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="240" x14ac:dyDescent="0.25">
+      <c r="B14" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="195" x14ac:dyDescent="0.25">
+      <c r="B15" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="135" x14ac:dyDescent="0.25">
+      <c r="B16" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="150" x14ac:dyDescent="0.25">
+      <c r="B17" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="195" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="180" x14ac:dyDescent="0.25">
+      <c r="B19" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="195" x14ac:dyDescent="0.25">
+      <c r="B20" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+      <c r="B21" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="180" x14ac:dyDescent="0.25">
+      <c r="B22" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H22" s="7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="225" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="H23" s="7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="210" x14ac:dyDescent="0.25">
+      <c r="B24" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="H24" s="7" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="195" x14ac:dyDescent="0.25">
+      <c r="B25" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="H25" s="7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+      <c r="B26" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="H26" s="7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="B27" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="H27" s="7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D232B72-C545-42E2-A5A4-7FF8B24EAA0F}">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K52" sqref="K52"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="29" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.28515625" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>207</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A846CDD-0CE8-45D3-B994-29CC675F3B4C}">
+  <dimension ref="A1:I14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="65.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.42578125" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="H2" s="2">
+        <f>AVERAGE(E2:E5)</f>
+        <v>0.4</v>
+      </c>
+      <c r="I2" s="2">
+        <f>AVERAGE(F2:F5)</f>
+        <v>0.44750000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0.49</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0.31</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="E6" s="2">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0.27</v>
+      </c>
+      <c r="H6" s="2">
+        <f>AVERAGE(E6:E9)</f>
+        <v>0.11475</v>
+      </c>
+      <c r="I6" s="2">
+        <f>AVERAGE(F6:F9)</f>
+        <v>0.19925000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="E7" s="2">
+        <v>-0.13</v>
+      </c>
+      <c r="F7" s="2">
+        <v>-6.5000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="E8" s="2">
+        <v>5.5E-2</v>
+      </c>
+      <c r="F8" s="2">
+        <v>7.1999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="E10" s="2">
+        <v>-0.51</v>
+      </c>
+      <c r="F10" s="2">
+        <v>-0.34</v>
+      </c>
+      <c r="H10" s="2">
+        <f>AVERAGE(E10:E12)</f>
+        <v>-1.6666666666666673E-2</v>
+      </c>
+      <c r="I10" s="2">
+        <f>AVERAGE(F10:F12)</f>
+        <v>5.3333333333333337E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0.21</v>
+      </c>
+      <c r="F12" s="2">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E14" s="2">
+        <f>AVERAGE(E2:E12)</f>
+        <v>0.18263636363636368</v>
+      </c>
+      <c r="F14" s="2">
+        <f>AVERAGE(F2:F12)</f>
+        <v>0.24972727272727277</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFC50B59-6F7D-4370-8AE3-E40FFB441BF7}">
+  <dimension ref="A1:E8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K33" sqref="K33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="14" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B1" t="s">
+        <v>243</v>
+      </c>
+      <c r="C1" t="s">
+        <v>244</v>
+      </c>
+      <c r="D1" t="s">
+        <v>245</v>
+      </c>
+      <c r="E1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>235</v>
+      </c>
+      <c r="B2">
+        <v>64</v>
+      </c>
+      <c r="C2">
+        <v>59</v>
+      </c>
+      <c r="D2">
+        <v>60</v>
+      </c>
+      <c r="E2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>236</v>
+      </c>
+      <c r="B3">
+        <v>73</v>
+      </c>
+      <c r="C3">
+        <v>71</v>
+      </c>
+      <c r="D3">
+        <v>68</v>
+      </c>
+      <c r="E3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>237</v>
+      </c>
+      <c r="B4">
+        <v>85</v>
+      </c>
+      <c r="C4">
+        <v>88</v>
+      </c>
+      <c r="D4">
+        <v>79</v>
+      </c>
+      <c r="E4">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>238</v>
+      </c>
+      <c r="B5">
+        <v>88</v>
+      </c>
+      <c r="C5">
+        <v>79</v>
+      </c>
+      <c r="D5">
+        <v>81</v>
+      </c>
+      <c r="E5">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>239</v>
+      </c>
+      <c r="B6">
+        <v>91</v>
+      </c>
+      <c r="C6" t="s">
+        <v>240</v>
+      </c>
+      <c r="D6">
+        <v>84</v>
+      </c>
+      <c r="E6">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>241</v>
+      </c>
+      <c r="B7">
+        <v>100</v>
+      </c>
+      <c r="C7">
+        <v>94</v>
+      </c>
+      <c r="D7">
+        <v>90</v>
+      </c>
+      <c r="E7">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>242</v>
+      </c>
+      <c r="B8">
+        <v>108</v>
+      </c>
+      <c r="C8">
+        <v>108</v>
+      </c>
+      <c r="D8">
+        <v>100</v>
+      </c>
+      <c r="E8">
+        <v>97</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1393,7 +3229,7 @@
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="41" style="2" bestFit="1" customWidth="1"/>
@@ -1401,7 +3237,7 @@
     <col min="4" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
@@ -1415,12 +3251,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="105">
+    <row r="2" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>13</v>
@@ -1429,12 +3265,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="45">
+    <row r="3" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>23</v>
@@ -1443,7 +3279,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>15</v>
       </c>
@@ -1457,12 +3293,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="120">
+    <row r="5" spans="1:4" ht="120" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>19</v>
@@ -1471,26 +3307,26 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="60">
+    <row r="6" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="30">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>22</v>
@@ -1513,7 +3349,7 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="41.42578125" style="2" customWidth="1"/>
@@ -1521,7 +3357,7 @@
     <col min="4" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
@@ -1535,26 +3371,26 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="210">
+    <row r="2" spans="1:4" ht="210" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="165">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="165" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>27</v>
@@ -1563,12 +3399,12 @@
         <v>96</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="270">
+    <row r="4" spans="1:4" ht="270" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>28</v>
@@ -1584,13 +3420,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24A7A0F3-CFE1-4E54-A6CA-9E246D862933}">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+    <sheetView topLeftCell="A5" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" style="4" customWidth="1"/>
     <col min="2" max="2" width="17.28515625" style="4" customWidth="1"/>
@@ -1601,7 +3437,7 @@
     <col min="7" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="30">
+    <row r="1" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>29</v>
       </c>
@@ -1621,332 +3457,248 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="150">
+    <row r="2" spans="1:6" ht="174" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>35</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>36</v>
+        <v>167</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>37</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="F2" s="4" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="168" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="150">
-      <c r="A3" s="4" t="s">
+      <c r="E3" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="97.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C3" s="4" t="s">
+      <c r="D4" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="224.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="165" x14ac:dyDescent="0.25">
+      <c r="B6" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="B7" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="93" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="201.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="135" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="75">
-      <c r="A4" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="60">
-      <c r="B5" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="195">
-      <c r="A6" s="4" t="s">
+      <c r="D10" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="135" x14ac:dyDescent="0.25">
+      <c r="B11" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="189" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="225" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="F13" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="165">
-      <c r="B7" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="90">
-      <c r="B8" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="90">
-      <c r="B9" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="165">
-      <c r="B10" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="135">
-      <c r="A11" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="135">
-      <c r="B12" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="45">
-      <c r="B13" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="45">
+    </row>
+    <row r="14" spans="1:6" ht="135" x14ac:dyDescent="0.25">
       <c r="B14" s="4" t="s">
-        <v>52</v>
+        <v>168</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>79</v>
+        <v>182</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="165">
-      <c r="B15" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="225">
-      <c r="A16" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="E14" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" ht="135">
-      <c r="B17" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" ht="45">
-      <c r="B18" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" ht="45">
-      <c r="B19" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>186</v>
+      <c r="F14" s="4" t="s">
+        <v>173</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1954,11 +3706,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{696D8232-57F8-4E99-BDA4-B935DCE5423A}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="32.85546875" bestFit="1" customWidth="1"/>
@@ -1966,46 +3716,46 @@
     <col min="4" max="4" width="26.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="B1" t="s">
-        <v>117</v>
+        <v>99</v>
       </c>
       <c r="C1" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="D1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>119</v>
+        <v>101</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -2022,60 +3772,60 @@
       <selection activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="B1" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="C1" t="s">
-        <v>117</v>
+        <v>99</v>
       </c>
       <c r="D1" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="E1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>129</v>
+        <v>111</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>119</v>
+        <v>101</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -2088,10 +3838,10 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.28515625" style="2" customWidth="1"/>
     <col min="2" max="2" width="22.42578125" style="2" customWidth="1"/>
@@ -2102,124 +3852,124 @@
     <col min="7" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="90">
-      <c r="A2" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="75">
-      <c r="A3" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="75">
-      <c r="A4" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="75">
+    </row>
+    <row r="5" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>145</v>
+        <v>127</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="E5" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E5" s="6" t="s">
         <v>151</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="75">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>141</v>
+        <v>123</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>149</v>
+        <v>128</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>164</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="E6" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E6" s="6" t="s">
         <v>151</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>186</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -2232,158 +3982,158 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.140625" customWidth="1"/>
     <col min="2" max="2" width="25.5703125" customWidth="1"/>
-    <col min="3" max="3" width="28.28515625" customWidth="1"/>
+    <col min="3" max="3" width="32.5703125" customWidth="1"/>
     <col min="4" max="4" width="21" customWidth="1"/>
     <col min="5" max="5" width="30.42578125" customWidth="1"/>
     <col min="6" max="6" width="23.42578125" customWidth="1"/>
     <col min="7" max="7" width="26.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="B2" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="45">
-      <c r="A2" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="135">
-      <c r="A3" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>154</v>
-      </c>
       <c r="C3" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>186</v>
+        <v>150</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>180</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>186</v>
+        <v>151</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="75">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>138</v>
+        <v>120</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>186</v>
+        <v>60</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="75">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>156</v>
+        <v>61</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>180</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="75">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>156</v>
+        <v>64</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>180</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="75">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>141</v>
+        <v>123</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>156</v>
+        <v>65</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>180</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>186</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -2396,170 +4146,171 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62E1DF35-3470-4741-B035-2FAF41BF3870}">
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.140625" style="12" customWidth="1"/>
     <col min="3" max="3" width="21" customWidth="1"/>
     <col min="4" max="4" width="24.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="25.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B1" s="12" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>187</v>
+        <v>152</v>
       </c>
       <c r="D1" t="s">
-        <v>158</v>
+        <v>136</v>
       </c>
       <c r="E1" t="s">
-        <v>159</v>
+        <v>137</v>
       </c>
       <c r="F1" t="s">
-        <v>160</v>
+        <v>138</v>
       </c>
       <c r="G1" t="s">
-        <v>161</v>
+        <v>139</v>
       </c>
       <c r="H1" t="s">
-        <v>162</v>
+        <v>140</v>
       </c>
       <c r="I1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>164</v>
-      </c>
-      <c r="B2" t="s">
-        <v>174</v>
+        <v>247</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>221</v>
       </c>
       <c r="C2" t="s">
-        <v>165</v>
+        <v>142</v>
       </c>
       <c r="D2" t="s">
-        <v>177</v>
+        <v>213</v>
       </c>
       <c r="E2" t="s">
-        <v>179</v>
+        <v>215</v>
       </c>
       <c r="F2" t="s">
-        <v>184</v>
+        <v>217</v>
       </c>
       <c r="G2" t="s">
-        <v>166</v>
+        <v>143</v>
       </c>
       <c r="H2">
         <v>600</v>
       </c>
       <c r="I2" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>169</v>
-      </c>
-      <c r="B3" t="s">
-        <v>175</v>
+        <v>248</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>148</v>
       </c>
       <c r="C3" t="s">
-        <v>165</v>
+        <v>142</v>
       </c>
       <c r="D3" t="s">
-        <v>177</v>
+        <v>213</v>
       </c>
       <c r="E3" t="s">
-        <v>179</v>
+        <v>215</v>
       </c>
       <c r="F3" t="s">
-        <v>184</v>
+        <v>217</v>
       </c>
       <c r="G3" t="s">
-        <v>166</v>
+        <v>143</v>
       </c>
       <c r="H3" t="s">
-        <v>168</v>
+        <v>145</v>
       </c>
       <c r="I3" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>170</v>
-      </c>
-      <c r="B4" t="s">
-        <v>175</v>
+        <v>249</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>148</v>
       </c>
       <c r="C4" t="s">
-        <v>165</v>
+        <v>142</v>
       </c>
       <c r="D4" t="s">
-        <v>177</v>
+        <v>213</v>
       </c>
       <c r="E4" t="s">
-        <v>179</v>
+        <v>215</v>
       </c>
       <c r="F4" t="s">
-        <v>182</v>
+        <v>218</v>
       </c>
       <c r="G4" t="s">
-        <v>171</v>
+        <v>146</v>
       </c>
       <c r="H4">
         <v>100</v>
       </c>
       <c r="I4" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>172</v>
-      </c>
-      <c r="B5" t="s">
-        <v>176</v>
+        <v>226</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>220</v>
       </c>
       <c r="C5" t="s">
-        <v>173</v>
+        <v>147</v>
       </c>
       <c r="D5" t="s">
-        <v>178</v>
+        <v>214</v>
       </c>
       <c r="E5" t="s">
-        <v>180</v>
+        <v>216</v>
       </c>
       <c r="F5" t="s">
-        <v>183</v>
+        <v>219</v>
       </c>
       <c r="G5" t="s">
-        <v>171</v>
+        <v>146</v>
       </c>
       <c r="H5">
         <v>100</v>
       </c>
       <c r="I5" t="s">
-        <v>181</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/tables/habitat/AllTables.xlsx
+++ b/tables/habitat/AllTables.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\00101765\AED Dropbox\AED_Coorong_db\7_hchb\Ruppia\CDM-manual\tables\habitat\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\00101765\AED Dropbox\Sherry Zhai\Github\cdm-science\tables\habitat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56255996-80DE-4A08-A81E-8F5A49785430}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EDFBD20-E20B-4EB3-BB08-6A58BABAC420}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15015" yWindow="7425" windowWidth="23040" windowHeight="11550" tabRatio="870" firstSheet="4" activeTab="11" xr2:uid="{C6B6A4F7-8E11-4364-B90C-81D0188035FA}"/>
+    <workbookView xWindow="15015" yWindow="7425" windowWidth="23040" windowHeight="11550" tabRatio="870" firstSheet="5" activeTab="11" xr2:uid="{C6B6A4F7-8E11-4364-B90C-81D0188035FA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1_NPMR" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="315">
   <si>
     <t>Field data</t>
   </si>
@@ -1397,6 +1397,9 @@
   </si>
   <si>
     <t>R&lt;br&gt;(South lagoon)</t>
+  </si>
+  <si>
+    <t>Threshold</t>
   </si>
 </sst>
 </file>
@@ -2009,8 +2012,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E455835C-91A3-4A35-A210-9F3EF1BB69F6}">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2034,13 +2037,13 @@
         <v>153</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>151</v>
+        <v>314</v>
       </c>
       <c r="D1" s="7" t="s">
         <v>154</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="F1" s="7" t="s">
         <v>32</v>
@@ -2314,7 +2317,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="210" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="195" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>51</v>
       </c>
@@ -2767,10 +2770,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A846CDD-0CE8-45D3-B994-29CC675F3B4C}">
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2784,7 +2787,7 @@
     <col min="7" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>186</v>
       </c>
@@ -2804,7 +2807,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>227</v>
       </c>
@@ -2823,16 +2826,8 @@
       <c r="F2" s="2">
         <v>0.56000000000000005</v>
       </c>
-      <c r="H2" s="2">
-        <f>AVERAGE(E2:E5)</f>
-        <v>0.4</v>
-      </c>
-      <c r="I2" s="2">
-        <f>AVERAGE(F2:F5)</f>
-        <v>0.44750000000000001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>228</v>
       </c>
@@ -2852,7 +2847,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>230</v>
       </c>
@@ -2872,7 +2867,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>229</v>
       </c>
@@ -2892,7 +2887,7 @@
         <v>0.54</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>227</v>
       </c>
@@ -2911,16 +2906,8 @@
       <c r="F6" s="2">
         <v>0.27</v>
       </c>
-      <c r="H6" s="2">
-        <f>AVERAGE(E6:E9)</f>
-        <v>0.11475</v>
-      </c>
-      <c r="I6" s="2">
-        <f>AVERAGE(F6:F9)</f>
-        <v>0.19925000000000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>228</v>
       </c>
@@ -2940,7 +2927,7 @@
         <v>-6.5000000000000002E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>229</v>
       </c>
@@ -2960,7 +2947,7 @@
         <v>7.1999999999999995E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>230</v>
       </c>
@@ -2980,7 +2967,7 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>231</v>
       </c>
@@ -2999,16 +2986,8 @@
       <c r="F10" s="2">
         <v>-0.34</v>
       </c>
-      <c r="H10" s="2">
-        <f>AVERAGE(E10:E12)</f>
-        <v>-1.6666666666666673E-2</v>
-      </c>
-      <c r="I10" s="2">
-        <f>AVERAGE(F10:F12)</f>
-        <v>5.3333333333333337E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>232</v>
       </c>
@@ -3028,7 +3007,7 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>233</v>
       </c>
@@ -3046,16 +3025,6 @@
       </c>
       <c r="F12" s="2">
         <v>0.16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E14" s="2">
-        <f>AVERAGE(E2:E12)</f>
-        <v>0.18263636363636368</v>
-      </c>
-      <c r="F14" s="2">
-        <f>AVERAGE(F2:F12)</f>
-        <v>0.24972727272727277</v>
       </c>
     </row>
   </sheetData>

--- a/tables/habitat/AllTables.xlsx
+++ b/tables/habitat/AllTables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\00101765\AED Dropbox\Sherry Zhai\Github\cdm-science\tables\habitat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EDFBD20-E20B-4EB3-BB08-6A58BABAC420}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E9D679B-91B6-4C0A-A322-E24CAC51FD10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15015" yWindow="7425" windowWidth="23040" windowHeight="11550" tabRatio="870" firstSheet="5" activeTab="11" xr2:uid="{C6B6A4F7-8E11-4364-B90C-81D0188035FA}"/>
+    <workbookView xWindow="15015" yWindow="7425" windowWidth="23040" windowHeight="11550" tabRatio="870" firstSheet="5" activeTab="9" xr2:uid="{C6B6A4F7-8E11-4364-B90C-81D0188035FA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1_NPMR" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="316">
   <si>
     <t>Field data</t>
   </si>
@@ -682,9 +682,6 @@
     </r>
   </si>
   <si>
-    <t>Habitat Suitability Index ($\Phi$)</t>
-  </si>
-  <si>
     <t>Generation II:&lt;br&gt;
 &lt;135 optimal&lt;br&gt;
 135 – 165 suboptimal&lt;br&gt;
@@ -1400,6 +1397,12 @@
   </si>
   <si>
     <t>Threshold</t>
+  </si>
+  <si>
+    <t>Habitat Suitability Index ($\Phi$) function</t>
+  </si>
+  <si>
+    <t>Habitat Suitability Index ($\Phi$) function figure</t>
   </si>
 </sst>
 </file>
@@ -2012,8 +2015,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E455835C-91A3-4A35-A210-9F3EF1BB69F6}">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2031,19 +2034,19 @@
   <sheetData>
     <row r="1" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>153</v>
       </c>
       <c r="C1" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="D1" s="7" t="s">
         <v>314</v>
       </c>
-      <c r="D1" s="7" t="s">
-        <v>154</v>
-      </c>
       <c r="E1" s="7" t="s">
-        <v>154</v>
+        <v>315</v>
       </c>
       <c r="F1" s="7" t="s">
         <v>32</v>
@@ -2063,13 +2066,13 @@
         <v>36</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F2" s="7" t="s">
         <v>37</v>
@@ -2083,25 +2086,25 @@
     </row>
     <row r="3" spans="1:8" ht="180" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>36</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F3" s="7" t="s">
         <v>38</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H3" s="7" t="s">
         <v>151</v>
@@ -2112,7 +2115,7 @@
         <v>41</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>151</v>
@@ -2121,10 +2124,10 @@
         <v>151</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H4" s="7" t="s">
         <v>151</v>
@@ -2135,16 +2138,16 @@
         <v>47</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>151</v>
@@ -2178,7 +2181,7 @@
     </row>
     <row r="7" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="B7" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>151</v>
@@ -2207,13 +2210,13 @@
         <v>36</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>40</v>
@@ -2230,19 +2233,19 @@
         <v>41</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>151</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F9" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>253</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>254</v>
       </c>
       <c r="H9" s="7" t="s">
         <v>151</v>
@@ -2253,16 +2256,16 @@
         <v>47</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>151</v>
@@ -2276,16 +2279,16 @@
         <v>44</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>151</v>
@@ -2296,7 +2299,7 @@
     </row>
     <row r="12" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="B12" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>151</v>
@@ -2325,19 +2328,19 @@
         <v>36</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>42</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H13" s="7" t="s">
         <v>43</v>
@@ -2348,7 +2351,7 @@
         <v>41</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D14" s="7" t="s">
         <v>151</v>
@@ -2357,13 +2360,13 @@
         <v>151</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>70</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="195" x14ac:dyDescent="0.25">
@@ -2371,22 +2374,22 @@
         <v>47</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F15" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="G15" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="G15" s="7" t="s">
+      <c r="H15" s="7" t="s">
         <v>256</v>
-      </c>
-      <c r="H15" s="7" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="135" x14ac:dyDescent="0.25">
@@ -2394,19 +2397,19 @@
         <v>44</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>45</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H16" s="7" t="s">
         <v>151</v>
@@ -2414,19 +2417,19 @@
     </row>
     <row r="17" spans="1:8" ht="150" x14ac:dyDescent="0.25">
       <c r="B17" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>49</v>
@@ -2443,19 +2446,19 @@
         <v>36</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H18" s="7" t="s">
         <v>55</v>
@@ -2466,16 +2469,16 @@
         <v>41</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D19" s="7" t="s">
         <v>151</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>66</v>
@@ -2489,16 +2492,16 @@
         <v>47</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>151</v>
@@ -2512,16 +2515,16 @@
         <v>44</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G21" s="7" t="s">
         <v>151</v>
@@ -2532,19 +2535,19 @@
     </row>
     <row r="22" spans="1:8" ht="180" x14ac:dyDescent="0.25">
       <c r="B22" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>49</v>
@@ -2561,16 +2564,16 @@
         <v>36</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>151</v>
@@ -2584,7 +2587,7 @@
         <v>41</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D24" s="7" t="s">
         <v>151</v>
@@ -2593,13 +2596,13 @@
         <v>151</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G24" s="7" t="s">
         <v>67</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="195" x14ac:dyDescent="0.25">
@@ -2607,16 +2610,16 @@
         <v>47</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>151</v>
@@ -2630,16 +2633,16 @@
         <v>44</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>151</v>
@@ -2650,7 +2653,7 @@
     </row>
     <row r="27" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="B27" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C27" s="7" t="s">
         <v>151</v>
@@ -2695,72 +2698,72 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="D1" s="9" t="s">
         <v>186</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>209</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="9" t="s">
         <v>211</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B3" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D3" s="9" t="s">
         <v>203</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B5" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="9" t="s">
         <v>206</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>207</v>
       </c>
     </row>
   </sheetData>
@@ -2772,7 +2775,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A846CDD-0CE8-45D3-B994-29CC675F3B4C}">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
@@ -2789,36 +2792,36 @@
   <sheetData>
     <row r="1" spans="1:6" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="D1" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="B1" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>187</v>
-      </c>
       <c r="E1" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>312</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E2" s="2">
         <v>0.55000000000000004</v>
@@ -2829,16 +2832,16 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="D3" s="9" t="s">
         <v>190</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>191</v>
       </c>
       <c r="E3" s="2">
         <v>0.49</v>
@@ -2849,16 +2852,16 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E4" s="2">
         <v>0.25</v>
@@ -2869,16 +2872,16 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B5" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="D5" s="9" t="s">
         <v>196</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>197</v>
       </c>
       <c r="E5" s="2">
         <v>0.31</v>
@@ -2889,16 +2892,16 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E6" s="2">
         <v>3.4000000000000002E-2</v>
@@ -2909,16 +2912,16 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B7" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>190</v>
-      </c>
       <c r="D7" s="9" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E7" s="2">
         <v>-0.13</v>
@@ -2929,16 +2932,16 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B8" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>190</v>
-      </c>
       <c r="D8" s="9" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E8" s="2">
         <v>5.5E-2</v>
@@ -2949,16 +2952,16 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E9" s="2">
         <v>0.5</v>
@@ -2969,16 +2972,16 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B10" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="D10" s="9" t="s">
         <v>222</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>223</v>
       </c>
       <c r="E10" s="2">
         <v>-0.51</v>
@@ -2989,16 +2992,16 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B11" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="D11" s="9" t="s">
         <v>224</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>225</v>
       </c>
       <c r="E11" s="2">
         <v>0.25</v>
@@ -3009,16 +3012,16 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B12" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D12" s="9" t="s">
         <v>224</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>225</v>
       </c>
       <c r="E12" s="2">
         <v>0.21</v>
@@ -3050,24 +3053,24 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C1" t="s">
         <v>243</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>244</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>245</v>
-      </c>
-      <c r="E1" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B2">
         <v>64</v>
@@ -3084,7 +3087,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B3">
         <v>73</v>
@@ -3101,7 +3104,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B4">
         <v>85</v>
@@ -3118,7 +3121,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B5">
         <v>88</v>
@@ -3135,13 +3138,13 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B6">
         <v>91</v>
       </c>
       <c r="C6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D6">
         <v>84</v>
@@ -3152,7 +3155,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B7">
         <v>100</v>
@@ -3169,7 +3172,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B8">
         <v>108</v>
@@ -3431,7 +3434,7 @@
         <v>35</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>75</v>
@@ -3443,7 +3446,7 @@
         <v>68</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="168" customHeight="1" x14ac:dyDescent="0.25">
@@ -3451,7 +3454,7 @@
         <v>53</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>59</v>
@@ -3471,7 +3474,7 @@
         <v>52</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>60</v>
@@ -3491,7 +3494,7 @@
         <v>51</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>61</v>
@@ -3508,24 +3511,24 @@
     </row>
     <row r="6" spans="1:6" ht="165" x14ac:dyDescent="0.25">
       <c r="B6" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>70</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="B7" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>62</v>
@@ -3542,13 +3545,13 @@
     </row>
     <row r="8" spans="1:6" ht="93" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C8" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>180</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>181</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>74</v>
@@ -3559,13 +3562,13 @@
     </row>
     <row r="9" spans="1:6" ht="201.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>71</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>49</v>
@@ -3579,7 +3582,7 @@
         <v>50</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>72</v>
@@ -3596,13 +3599,13 @@
     </row>
     <row r="11" spans="1:6" ht="135" x14ac:dyDescent="0.25">
       <c r="B11" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>66</v>
@@ -3613,13 +3616,13 @@
     </row>
     <row r="12" spans="1:6" ht="189" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>63</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>49</v>
@@ -3633,13 +3636,13 @@
         <v>57</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>65</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>94</v>
@@ -3650,19 +3653,19 @@
     </row>
     <row r="14" spans="1:6" ht="135" x14ac:dyDescent="0.25">
       <c r="B14" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>67</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -3869,7 +3872,7 @@
         <v>125</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>130</v>
@@ -3889,7 +3892,7 @@
         <v>126</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>130</v>
@@ -3929,7 +3932,7 @@
         <v>128</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>130</v>
@@ -4016,7 +4019,7 @@
         <v>150</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>151</v>
@@ -4033,10 +4036,10 @@
         <v>60</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>62</v>
@@ -4053,10 +4056,10 @@
         <v>61</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>62</v>
@@ -4076,7 +4079,7 @@
         <v>64</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>62</v>
@@ -4093,10 +4096,10 @@
         <v>65</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>62</v>
@@ -4163,22 +4166,22 @@
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C2" t="s">
         <v>142</v>
       </c>
       <c r="D2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G2" t="s">
         <v>143</v>
@@ -4192,7 +4195,7 @@
     </row>
     <row r="3" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B3" s="12" t="s">
         <v>148</v>
@@ -4201,13 +4204,13 @@
         <v>142</v>
       </c>
       <c r="D3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G3" t="s">
         <v>143</v>
@@ -4221,7 +4224,7 @@
     </row>
     <row r="4" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B4" s="12" t="s">
         <v>148</v>
@@ -4230,13 +4233,13 @@
         <v>142</v>
       </c>
       <c r="D4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G4" t="s">
         <v>146</v>
@@ -4250,22 +4253,22 @@
     </row>
     <row r="5" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C5" t="s">
         <v>147</v>
       </c>
       <c r="D5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F5" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G5" t="s">
         <v>146</v>

--- a/tables/habitat/AllTables.xlsx
+++ b/tables/habitat/AllTables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\00101765\AED Dropbox\Sherry Zhai\Github\cdm-science\tables\habitat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E9D679B-91B6-4C0A-A322-E24CAC51FD10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82C5C439-BE6F-4F42-8EFE-FAA70010A5CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15015" yWindow="7425" windowWidth="23040" windowHeight="11550" tabRatio="870" firstSheet="5" activeTab="9" xr2:uid="{C6B6A4F7-8E11-4364-B90C-81D0188035FA}"/>
+    <workbookView xWindow="26990" yWindow="4800" windowWidth="23040" windowHeight="11550" tabRatio="870" firstSheet="5" activeTab="9" xr2:uid="{C6B6A4F7-8E11-4364-B90C-81D0188035FA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1_NPMR" sheetId="1" r:id="rId1"/>
@@ -691,9 +691,6 @@
     <t>Life-stage ($j$)</t>
   </si>
   <si>
-    <t>&lt;img src="images/lagoon_habitat/HSI_viability_salinity.png"&gt;</t>
-  </si>
-  <si>
     <t>$\Phi^{via}_{S}$= 
   \begin{cases}
     0, S\ge 165\\ 1-\frac{S-135}{165-135}, 135 \le S \lt 165 \\
@@ -1403,6 +1400,9 @@
   </si>
   <si>
     <t>Habitat Suitability Index ($\Phi$) function figure</t>
+  </si>
+  <si>
+    <t>&lt;img src="images/lagoon_habitat/HSI_viability_salinity.png" width="20"/&gt;</t>
   </si>
 </sst>
 </file>
@@ -2016,7 +2016,7 @@
   <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2040,13 +2040,13 @@
         <v>153</v>
       </c>
       <c r="C1" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="D1" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="E1" s="7" t="s">
         <v>314</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>315</v>
       </c>
       <c r="F1" s="7" t="s">
         <v>32</v>
@@ -2069,10 +2069,10 @@
         <v>154</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>156</v>
+        <v>315</v>
       </c>
       <c r="F2" s="7" t="s">
         <v>37</v>
@@ -2086,25 +2086,25 @@
     </row>
     <row r="3" spans="1:8" ht="180" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>36</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F3" s="7" t="s">
         <v>38</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H3" s="7" t="s">
         <v>151</v>
@@ -2115,7 +2115,7 @@
         <v>41</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>151</v>
@@ -2124,10 +2124,10 @@
         <v>151</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H4" s="7" t="s">
         <v>151</v>
@@ -2138,16 +2138,16 @@
         <v>47</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>151</v>
@@ -2181,7 +2181,7 @@
     </row>
     <row r="7" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="B7" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>151</v>
@@ -2210,13 +2210,13 @@
         <v>36</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>40</v>
@@ -2233,19 +2233,19 @@
         <v>41</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>151</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F9" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>252</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>253</v>
       </c>
       <c r="H9" s="7" t="s">
         <v>151</v>
@@ -2256,16 +2256,16 @@
         <v>47</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>151</v>
@@ -2279,16 +2279,16 @@
         <v>44</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>151</v>
@@ -2299,7 +2299,7 @@
     </row>
     <row r="12" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="B12" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>151</v>
@@ -2328,19 +2328,19 @@
         <v>36</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>42</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H13" s="7" t="s">
         <v>43</v>
@@ -2351,7 +2351,7 @@
         <v>41</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D14" s="7" t="s">
         <v>151</v>
@@ -2360,13 +2360,13 @@
         <v>151</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>70</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="195" x14ac:dyDescent="0.25">
@@ -2374,22 +2374,22 @@
         <v>47</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F15" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="G15" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="G15" s="7" t="s">
+      <c r="H15" s="7" t="s">
         <v>255</v>
-      </c>
-      <c r="H15" s="7" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="135" x14ac:dyDescent="0.25">
@@ -2397,19 +2397,19 @@
         <v>44</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>45</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H16" s="7" t="s">
         <v>151</v>
@@ -2417,19 +2417,19 @@
     </row>
     <row r="17" spans="1:8" ht="150" x14ac:dyDescent="0.25">
       <c r="B17" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>49</v>
@@ -2446,19 +2446,19 @@
         <v>36</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H18" s="7" t="s">
         <v>55</v>
@@ -2469,16 +2469,16 @@
         <v>41</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D19" s="7" t="s">
         <v>151</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>66</v>
@@ -2492,16 +2492,16 @@
         <v>47</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>151</v>
@@ -2515,16 +2515,16 @@
         <v>44</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G21" s="7" t="s">
         <v>151</v>
@@ -2535,19 +2535,19 @@
     </row>
     <row r="22" spans="1:8" ht="180" x14ac:dyDescent="0.25">
       <c r="B22" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>49</v>
@@ -2564,16 +2564,16 @@
         <v>36</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>151</v>
@@ -2587,7 +2587,7 @@
         <v>41</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D24" s="7" t="s">
         <v>151</v>
@@ -2596,13 +2596,13 @@
         <v>151</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G24" s="7" t="s">
         <v>67</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="195" x14ac:dyDescent="0.25">
@@ -2610,16 +2610,16 @@
         <v>47</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>151</v>
@@ -2633,16 +2633,16 @@
         <v>44</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>151</v>
@@ -2653,7 +2653,7 @@
     </row>
     <row r="27" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="B27" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C27" s="7" t="s">
         <v>151</v>
@@ -2698,72 +2698,72 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="D1" s="9" t="s">
         <v>185</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>208</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="9" t="s">
         <v>210</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B3" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="D3" s="9" t="s">
         <v>202</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B5" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="9" t="s">
         <v>205</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>206</v>
       </c>
     </row>
   </sheetData>
@@ -2792,36 +2792,36 @@
   <sheetData>
     <row r="1" spans="1:6" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="D1" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="B1" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>186</v>
-      </c>
       <c r="E1" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>311</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E2" s="2">
         <v>0.55000000000000004</v>
@@ -2832,16 +2832,16 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="D3" s="9" t="s">
         <v>189</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>190</v>
       </c>
       <c r="E3" s="2">
         <v>0.49</v>
@@ -2852,16 +2852,16 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E4" s="2">
         <v>0.25</v>
@@ -2872,16 +2872,16 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B5" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="D5" s="9" t="s">
         <v>195</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>196</v>
       </c>
       <c r="E5" s="2">
         <v>0.31</v>
@@ -2892,16 +2892,16 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E6" s="2">
         <v>3.4000000000000002E-2</v>
@@ -2912,16 +2912,16 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B7" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>189</v>
-      </c>
       <c r="D7" s="9" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E7" s="2">
         <v>-0.13</v>
@@ -2932,16 +2932,16 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B8" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>189</v>
-      </c>
       <c r="D8" s="9" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E8" s="2">
         <v>5.5E-2</v>
@@ -2952,16 +2952,16 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E9" s="2">
         <v>0.5</v>
@@ -2972,16 +2972,16 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B10" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D10" s="9" t="s">
         <v>221</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>222</v>
       </c>
       <c r="E10" s="2">
         <v>-0.51</v>
@@ -2992,16 +2992,16 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B11" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="D11" s="9" t="s">
         <v>223</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>224</v>
       </c>
       <c r="E11" s="2">
         <v>0.25</v>
@@ -3012,16 +3012,16 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B12" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="D12" s="9" t="s">
         <v>223</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>224</v>
       </c>
       <c r="E12" s="2">
         <v>0.21</v>
@@ -3053,24 +3053,24 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C1" t="s">
         <v>242</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>243</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>244</v>
-      </c>
-      <c r="E1" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B2">
         <v>64</v>
@@ -3087,7 +3087,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B3">
         <v>73</v>
@@ -3104,7 +3104,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B4">
         <v>85</v>
@@ -3121,7 +3121,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B5">
         <v>88</v>
@@ -3138,13 +3138,13 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B6">
         <v>91</v>
       </c>
       <c r="C6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D6">
         <v>84</v>
@@ -3155,7 +3155,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B7">
         <v>100</v>
@@ -3172,7 +3172,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B8">
         <v>108</v>
@@ -3434,7 +3434,7 @@
         <v>35</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>75</v>
@@ -3446,7 +3446,7 @@
         <v>68</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="168" customHeight="1" x14ac:dyDescent="0.25">
@@ -3454,7 +3454,7 @@
         <v>53</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>59</v>
@@ -3474,7 +3474,7 @@
         <v>52</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>60</v>
@@ -3494,7 +3494,7 @@
         <v>51</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>61</v>
@@ -3511,24 +3511,24 @@
     </row>
     <row r="6" spans="1:6" ht="165" x14ac:dyDescent="0.25">
       <c r="B6" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>70</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="B7" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>62</v>
@@ -3545,13 +3545,13 @@
     </row>
     <row r="8" spans="1:6" ht="93" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C8" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>179</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>180</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>74</v>
@@ -3562,13 +3562,13 @@
     </row>
     <row r="9" spans="1:6" ht="201.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>71</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>49</v>
@@ -3582,7 +3582,7 @@
         <v>50</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>72</v>
@@ -3599,13 +3599,13 @@
     </row>
     <row r="11" spans="1:6" ht="135" x14ac:dyDescent="0.25">
       <c r="B11" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>66</v>
@@ -3616,13 +3616,13 @@
     </row>
     <row r="12" spans="1:6" ht="189" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>63</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>49</v>
@@ -3636,13 +3636,13 @@
         <v>57</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>65</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>94</v>
@@ -3653,19 +3653,19 @@
     </row>
     <row r="14" spans="1:6" ht="135" x14ac:dyDescent="0.25">
       <c r="B14" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>67</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -3872,7 +3872,7 @@
         <v>125</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>130</v>
@@ -3892,7 +3892,7 @@
         <v>126</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>130</v>
@@ -3932,7 +3932,7 @@
         <v>128</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>130</v>
@@ -4019,7 +4019,7 @@
         <v>150</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>151</v>
@@ -4036,10 +4036,10 @@
         <v>60</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>62</v>
@@ -4056,10 +4056,10 @@
         <v>61</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>62</v>
@@ -4079,7 +4079,7 @@
         <v>64</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>62</v>
@@ -4096,10 +4096,10 @@
         <v>65</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>62</v>
@@ -4166,22 +4166,22 @@
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C2" t="s">
         <v>142</v>
       </c>
       <c r="D2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G2" t="s">
         <v>143</v>
@@ -4195,7 +4195,7 @@
     </row>
     <row r="3" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B3" s="12" t="s">
         <v>148</v>
@@ -4204,13 +4204,13 @@
         <v>142</v>
       </c>
       <c r="D3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G3" t="s">
         <v>143</v>
@@ -4224,7 +4224,7 @@
     </row>
     <row r="4" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B4" s="12" t="s">
         <v>148</v>
@@ -4233,13 +4233,13 @@
         <v>142</v>
       </c>
       <c r="D4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G4" t="s">
         <v>146</v>
@@ -4253,22 +4253,22 @@
     </row>
     <row r="5" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C5" t="s">
         <v>147</v>
       </c>
       <c r="D5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G5" t="s">
         <v>146</v>

--- a/tables/habitat/AllTables.xlsx
+++ b/tables/habitat/AllTables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\00101765\AED Dropbox\Sherry Zhai\Github\cdm-science\tables\habitat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82C5C439-BE6F-4F42-8EFE-FAA70010A5CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF66ECC4-7433-45D6-921B-2E2409F02A81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="26990" yWindow="4800" windowWidth="23040" windowHeight="11550" tabRatio="870" firstSheet="5" activeTab="9" xr2:uid="{C6B6A4F7-8E11-4364-B90C-81D0188035FA}"/>
+    <workbookView xWindow="27460" yWindow="320" windowWidth="23040" windowHeight="19880" tabRatio="870" firstSheet="5" activeTab="9" xr2:uid="{C6B6A4F7-8E11-4364-B90C-81D0188035FA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1_NPMR" sheetId="1" r:id="rId1"/>
@@ -917,9 +917,6 @@
     <t>1-12/2018</t>
   </si>
   <si>
-    <t>HCHB_longterm</t>
-  </si>
-  <si>
     <t>Shoot count (HCHB)</t>
   </si>
   <si>
@@ -978,15 +975,6 @@
   </si>
   <si>
     <t>$LC^{23}_{10}$</t>
-  </si>
-  <si>
-    <t>Historical&lt;br&gt;(Appendix)</t>
-  </si>
-  <si>
-    <t>HCHB_v1&lt;br&gt;(Appendix)</t>
-  </si>
-  <si>
-    <t>HCHB_v2&lt;br&gt;(Appendix)</t>
   </si>
   <si>
     <t xml:space="preserve">Kim et al. 2013; </t>
@@ -1402,7 +1390,19 @@
     <t>Habitat Suitability Index ($\Phi$) function figure</t>
   </si>
   <si>
-    <t>&lt;img src="images/lagoon_habitat/HSI_viability_salinity.png" width="20"/&gt;</t>
+    <t>Historical&lt;br&gt;(Appendix C)</t>
+  </si>
+  <si>
+    <t>HCHB_v1&lt;br&gt;(Appendix C)</t>
+  </si>
+  <si>
+    <t>HCHB_v2&lt;br&gt;(Appendix C)</t>
+  </si>
+  <si>
+    <t>HCHB_Gen II</t>
+  </si>
+  <si>
+    <t>&lt;img src="images/lagoon_habitat/HSI_viability_salinity.png" width="5"/&gt;</t>
   </si>
 </sst>
 </file>
@@ -2016,7 +2016,7 @@
   <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2040,13 +2040,13 @@
         <v>153</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="F1" s="7" t="s">
         <v>32</v>
@@ -2092,10 +2092,10 @@
         <v>36</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>159</v>
@@ -2104,7 +2104,7 @@
         <v>38</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="H3" s="7" t="s">
         <v>151</v>
@@ -2115,7 +2115,7 @@
         <v>41</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>151</v>
@@ -2124,10 +2124,10 @@
         <v>151</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="H4" s="7" t="s">
         <v>151</v>
@@ -2138,16 +2138,16 @@
         <v>47</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>151</v>
@@ -2210,10 +2210,10 @@
         <v>36</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>160</v>
@@ -2233,7 +2233,7 @@
         <v>41</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>151</v>
@@ -2242,10 +2242,10 @@
         <v>161</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="H9" s="7" t="s">
         <v>151</v>
@@ -2256,16 +2256,16 @@
         <v>47</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>151</v>
@@ -2279,16 +2279,16 @@
         <v>44</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>151</v>
@@ -2328,19 +2328,19 @@
         <v>36</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>42</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="H13" s="7" t="s">
         <v>43</v>
@@ -2351,7 +2351,7 @@
         <v>41</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="D14" s="7" t="s">
         <v>151</v>
@@ -2360,13 +2360,13 @@
         <v>151</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>70</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="195" x14ac:dyDescent="0.25">
@@ -2374,22 +2374,22 @@
         <v>47</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="135" x14ac:dyDescent="0.25">
@@ -2397,19 +2397,19 @@
         <v>44</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>45</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="H16" s="7" t="s">
         <v>151</v>
@@ -2420,16 +2420,16 @@
         <v>157</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>49</v>
@@ -2446,19 +2446,19 @@
         <v>36</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="H18" s="7" t="s">
         <v>55</v>
@@ -2469,13 +2469,13 @@
         <v>41</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="D19" s="7" t="s">
         <v>151</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>172</v>
@@ -2492,16 +2492,16 @@
         <v>47</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>151</v>
@@ -2515,16 +2515,16 @@
         <v>44</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="G21" s="7" t="s">
         <v>151</v>
@@ -2538,13 +2538,13 @@
         <v>157</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>175</v>
@@ -2564,16 +2564,16 @@
         <v>36</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>160</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>151</v>
@@ -2587,7 +2587,7 @@
         <v>41</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="D24" s="7" t="s">
         <v>151</v>
@@ -2602,7 +2602,7 @@
         <v>67</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="195" x14ac:dyDescent="0.25">
@@ -2610,16 +2610,16 @@
         <v>47</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>151</v>
@@ -2633,16 +2633,16 @@
         <v>44</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>151</v>
@@ -2804,15 +2804,15 @@
         <v>185</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>186</v>
@@ -2832,7 +2832,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>186</v>
@@ -2852,7 +2852,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>186</v>
@@ -2872,7 +2872,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>194</v>
@@ -2892,7 +2892,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>187</v>
@@ -2912,7 +2912,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>187</v>
@@ -2932,7 +2932,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>187</v>
@@ -2952,7 +2952,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B9" s="9" t="s">
         <v>187</v>
@@ -2972,7 +2972,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B10" s="9" t="s">
         <v>220</v>
@@ -2992,7 +2992,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B11" s="9" t="s">
         <v>222</v>
@@ -3012,7 +3012,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B12" s="9" t="s">
         <v>222</v>
@@ -3053,24 +3053,24 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C1" t="s">
         <v>241</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>242</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>243</v>
-      </c>
-      <c r="E1" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B2">
         <v>64</v>
@@ -3087,7 +3087,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B3">
         <v>73</v>
@@ -3104,7 +3104,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B4">
         <v>85</v>
@@ -3121,7 +3121,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B5">
         <v>88</v>
@@ -3138,13 +3138,13 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B6">
         <v>91</v>
       </c>
       <c r="C6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D6">
         <v>84</v>
@@ -3155,7 +3155,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B7">
         <v>100</v>
@@ -3172,7 +3172,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B8">
         <v>108</v>
@@ -4119,7 +4119,7 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4166,7 +4166,7 @@
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>245</v>
+        <v>311</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>219</v>
@@ -4195,7 +4195,7 @@
     </row>
     <row r="3" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>246</v>
+        <v>312</v>
       </c>
       <c r="B3" s="12" t="s">
         <v>148</v>
@@ -4224,7 +4224,7 @@
     </row>
     <row r="4" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>247</v>
+        <v>313</v>
       </c>
       <c r="B4" s="12" t="s">
         <v>148</v>
@@ -4253,7 +4253,7 @@
     </row>
     <row r="5" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>224</v>
+        <v>314</v>
       </c>
       <c r="B5" s="12" t="s">
         <v>218</v>

--- a/tables/habitat/AllTables.xlsx
+++ b/tables/habitat/AllTables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\00101765\AED Dropbox\Sherry Zhai\Github\cdm-science\tables\habitat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF66ECC4-7433-45D6-921B-2E2409F02A81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ED7C98A-440A-4340-B99B-4872EF03892F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="27460" yWindow="320" windowWidth="23040" windowHeight="19880" tabRatio="870" firstSheet="5" activeTab="9" xr2:uid="{C6B6A4F7-8E11-4364-B90C-81D0188035FA}"/>
   </bookViews>
@@ -704,15 +704,6 @@
     <t>Seed germination (Apr 1 – Jun 30)</t>
   </si>
   <si>
-    <t>&lt;img src="images/lagoon_habitat/HSI_germination_salinity.png"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;img src="images/lagoon_habitat/HSI_turion_salinity.png"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;img src="images/lagoon_habitat/HSI_turion_depth.png"&gt;</t>
-  </si>
-  <si>
     <t>&lt; 10 % of time wet: unsuitable&lt;br&gt;
 &gt;= 10 % of time wet: suitable&lt;br&gt;</t>
   </si>
@@ -1030,42 +1021,6 @@
   </si>
   <si>
     <t>Highest densities of turions were observed in 0.1–0.4 m water depths. However this depth preference is likely the result of trade-off between light requirement (thresholds included in $\Phi^{tur}_{L}$)) for photosynthesis and preventing desiccation</t>
-  </si>
-  <si>
-    <t>&lt;img src="images/lagoon_habitat/HSI_adult_temp.png"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;img src="images/lagoon_habitat/HSI_germination_temp.png"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;img src="images/lagoon_habitat/HSI_turion_temp.png"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;img src="images/lagoon_habitat/HSI_turion_light.png"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;img src="images/lagoon_habitat/HSI_adult_salinity.png"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;img src="images/lagoon_habitat/HSI_adult_light.png"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;img src="images/lagoon_habitat/HSI_adult_algae.png"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;img src="images/lagoon_habitat/HSI_flower_salinity.png"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;img src="images/lagoon_habitat/HSI_flower_depth.png"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;img src="images/lagoon_habitat/HSI_flower_temp.png"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;img src="images/lagoon_habitat/HSI_flower_light.png"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;img src="images/lagoon_habitat/HSI_flower_algae.png"&gt;</t>
   </si>
   <si>
     <t>$\Phi^{germ}_{S}$= 
@@ -1390,6 +1345,9 @@
     <t>Habitat Suitability Index ($\Phi$) function figure</t>
   </si>
   <si>
+    <t>&lt;img src="images/lagoon_habitat/HSI_viability_salinity.png" width="20"/&gt;</t>
+  </si>
+  <si>
     <t>Historical&lt;br&gt;(Appendix C)</t>
   </si>
   <si>
@@ -1402,7 +1360,49 @@
     <t>HCHB_Gen II</t>
   </si>
   <si>
-    <t>&lt;img src="images/lagoon_habitat/HSI_viability_salinity.png" width="5"/&gt;</t>
+    <t>&lt;img src="images/lagoon_habitat/HSI_germination_salinity.png" width="20"/&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="images/lagoon_habitat/HSI_germination_temp.png" width="20"/&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="images/lagoon_habitat/HSI_turion_temp.png" width="20"/&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="images/lagoon_habitat/HSI_turion_salinity.png" width="20"/&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="images/lagoon_habitat/HSI_turion_light.png" width="20"/&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="images/lagoon_habitat/HSI_turion_depth.png" width="20"/&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="images/lagoon_habitat/HSI_adult_salinity.png" width="20"/&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="images/lagoon_habitat/HSI_adult_temp.png" width="20"/&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="images/lagoon_habitat/HSI_adult_light.png" width="20"/&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="images/lagoon_habitat/HSI_adult_algae.png" width="20"/&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="images/lagoon_habitat/HSI_flower_salinity.png" width="20"/&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="images/lagoon_habitat/HSI_flower_depth.png" width="20"/&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="images/lagoon_habitat/HSI_flower_temp.png" width="20"/&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="images/lagoon_habitat/HSI_flower_light.png" width="20"/&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="images/lagoon_habitat/HSI_flower_algae.png" width="20"/&gt;</t>
   </si>
 </sst>
 </file>
@@ -2016,7 +2016,7 @@
   <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2040,13 +2040,13 @@
         <v>153</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>308</v>
+        <v>293</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>309</v>
+        <v>294</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>310</v>
+        <v>295</v>
       </c>
       <c r="F1" s="7" t="s">
         <v>32</v>
@@ -2072,7 +2072,7 @@
         <v>156</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>315</v>
+        <v>296</v>
       </c>
       <c r="F2" s="7" t="s">
         <v>37</v>
@@ -2092,19 +2092,19 @@
         <v>36</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>287</v>
+        <v>272</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>159</v>
+        <v>301</v>
       </c>
       <c r="F3" s="7" t="s">
         <v>38</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="H3" s="7" t="s">
         <v>151</v>
@@ -2115,7 +2115,7 @@
         <v>41</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>151</v>
@@ -2124,10 +2124,10 @@
         <v>151</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="H4" s="7" t="s">
         <v>151</v>
@@ -2138,16 +2138,16 @@
         <v>47</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>289</v>
+        <v>274</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>272</v>
+        <v>257</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>260</v>
+        <v>302</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>151</v>
@@ -2210,13 +2210,13 @@
         <v>36</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>277</v>
+        <v>262</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>160</v>
+        <v>304</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>40</v>
@@ -2233,19 +2233,19 @@
         <v>41</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>291</v>
+        <v>276</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>151</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>161</v>
+        <v>306</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="H9" s="7" t="s">
         <v>151</v>
@@ -2256,16 +2256,16 @@
         <v>47</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>289</v>
+        <v>274</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>274</v>
+        <v>259</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>261</v>
+        <v>303</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>151</v>
@@ -2279,16 +2279,16 @@
         <v>44</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>292</v>
+        <v>277</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>278</v>
+        <v>263</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>262</v>
+        <v>305</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>151</v>
@@ -2320,7 +2320,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="195" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="210" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>51</v>
       </c>
@@ -2328,19 +2328,19 @@
         <v>36</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>293</v>
+        <v>278</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>263</v>
+        <v>307</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>42</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>304</v>
+        <v>289</v>
       </c>
       <c r="H13" s="7" t="s">
         <v>43</v>
@@ -2351,7 +2351,7 @@
         <v>41</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>294</v>
+        <v>279</v>
       </c>
       <c r="D14" s="7" t="s">
         <v>151</v>
@@ -2360,13 +2360,13 @@
         <v>151</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>70</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="195" x14ac:dyDescent="0.25">
@@ -2374,22 +2374,22 @@
         <v>47</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>295</v>
+        <v>280</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>273</v>
+        <v>258</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>259</v>
+        <v>308</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="135" x14ac:dyDescent="0.25">
@@ -2397,19 +2397,19 @@
         <v>44</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>292</v>
+        <v>277</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>264</v>
+        <v>309</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>45</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="H16" s="7" t="s">
         <v>151</v>
@@ -2420,16 +2420,16 @@
         <v>157</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>296</v>
+        <v>281</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>284</v>
+        <v>269</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>265</v>
+        <v>310</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>49</v>
@@ -2446,19 +2446,19 @@
         <v>36</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>297</v>
+        <v>282</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>282</v>
+        <v>267</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>266</v>
+        <v>311</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>305</v>
+        <v>290</v>
       </c>
       <c r="H18" s="7" t="s">
         <v>55</v>
@@ -2469,16 +2469,16 @@
         <v>41</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>298</v>
+        <v>283</v>
       </c>
       <c r="D19" s="7" t="s">
         <v>151</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>267</v>
+        <v>312</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>66</v>
@@ -2492,16 +2492,16 @@
         <v>47</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>299</v>
+        <v>284</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>275</v>
+        <v>260</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>268</v>
+        <v>313</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>151</v>
@@ -2515,16 +2515,16 @@
         <v>44</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>300</v>
+        <v>285</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>269</v>
+        <v>314</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="G21" s="7" t="s">
         <v>151</v>
@@ -2538,16 +2538,16 @@
         <v>157</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>301</v>
+        <v>286</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>270</v>
+        <v>315</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>49</v>
@@ -2564,16 +2564,16 @@
         <v>36</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>302</v>
+        <v>287</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>160</v>
+        <v>304</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>151</v>
@@ -2587,7 +2587,7 @@
         <v>41</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>303</v>
+        <v>288</v>
       </c>
       <c r="D24" s="7" t="s">
         <v>151</v>
@@ -2596,13 +2596,13 @@
         <v>151</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G24" s="7" t="s">
         <v>67</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="195" x14ac:dyDescent="0.25">
@@ -2610,16 +2610,16 @@
         <v>47</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>295</v>
+        <v>280</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>261</v>
+        <v>303</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>151</v>
@@ -2633,16 +2633,16 @@
         <v>44</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>300</v>
+        <v>285</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>262</v>
+        <v>305</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>151</v>
@@ -2698,72 +2698,72 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B1" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="D1" s="9" t="s">
         <v>182</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B2" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="D2" s="9" t="s">
         <v>207</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="D3" s="9" t="s">
         <v>199</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -2792,36 +2792,36 @@
   <sheetData>
     <row r="1" spans="1:6" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B1" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="D1" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>185</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>306</v>
+        <v>291</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>307</v>
+        <v>292</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E2" s="2">
         <v>0.55000000000000004</v>
@@ -2832,16 +2832,16 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B3" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="D3" s="9" t="s">
         <v>186</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>189</v>
       </c>
       <c r="E3" s="2">
         <v>0.49</v>
@@ -2852,16 +2852,16 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B4" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="D4" s="9" t="s">
         <v>186</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>189</v>
       </c>
       <c r="E4" s="2">
         <v>0.25</v>
@@ -2872,16 +2872,16 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E5" s="2">
         <v>0.31</v>
@@ -2892,16 +2892,16 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E6" s="2">
         <v>3.4000000000000002E-2</v>
@@ -2912,16 +2912,16 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E7" s="2">
         <v>-0.13</v>
@@ -2932,16 +2932,16 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E8" s="2">
         <v>5.5E-2</v>
@@ -2952,16 +2952,16 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E9" s="2">
         <v>0.5</v>
@@ -2972,16 +2972,16 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E10" s="2">
         <v>-0.51</v>
@@ -2992,16 +2992,16 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="E11" s="2">
         <v>0.25</v>
@@ -3012,16 +3012,16 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="E12" s="2">
         <v>0.21</v>
@@ -3053,24 +3053,24 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D1" t="s">
+        <v>239</v>
+      </c>
+      <c r="E1" t="s">
         <v>240</v>
-      </c>
-      <c r="C1" t="s">
-        <v>241</v>
-      </c>
-      <c r="D1" t="s">
-        <v>242</v>
-      </c>
-      <c r="E1" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B2">
         <v>64</v>
@@ -3087,7 +3087,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B3">
         <v>73</v>
@@ -3104,7 +3104,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B4">
         <v>85</v>
@@ -3121,7 +3121,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B5">
         <v>88</v>
@@ -3138,13 +3138,13 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B6">
         <v>91</v>
       </c>
       <c r="C6" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D6">
         <v>84</v>
@@ -3155,7 +3155,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B7">
         <v>100</v>
@@ -3172,7 +3172,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B8">
         <v>108</v>
@@ -3434,7 +3434,7 @@
         <v>35</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>75</v>
@@ -3446,7 +3446,7 @@
         <v>68</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="168" customHeight="1" x14ac:dyDescent="0.25">
@@ -3454,7 +3454,7 @@
         <v>53</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>59</v>
@@ -3474,7 +3474,7 @@
         <v>52</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>60</v>
@@ -3494,7 +3494,7 @@
         <v>51</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>61</v>
@@ -3511,24 +3511,24 @@
     </row>
     <row r="6" spans="1:6" ht="165" x14ac:dyDescent="0.25">
       <c r="B6" s="4" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>70</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="B7" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>62</v>
@@ -3545,13 +3545,13 @@
     </row>
     <row r="8" spans="1:6" ht="93" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="4" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>74</v>
@@ -3562,13 +3562,13 @@
     </row>
     <row r="9" spans="1:6" ht="201.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="4" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>71</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>49</v>
@@ -3582,7 +3582,7 @@
         <v>50</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>72</v>
@@ -3599,13 +3599,13 @@
     </row>
     <row r="11" spans="1:6" ht="135" x14ac:dyDescent="0.25">
       <c r="B11" s="4" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>66</v>
@@ -3616,13 +3616,13 @@
     </row>
     <row r="12" spans="1:6" ht="189" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="4" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>63</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>49</v>
@@ -3636,13 +3636,13 @@
         <v>57</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>65</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>94</v>
@@ -3653,19 +3653,19 @@
     </row>
     <row r="14" spans="1:6" ht="135" x14ac:dyDescent="0.25">
       <c r="B14" s="4" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>67</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -3872,7 +3872,7 @@
         <v>125</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>130</v>
@@ -3892,7 +3892,7 @@
         <v>126</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>130</v>
@@ -3932,7 +3932,7 @@
         <v>128</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>130</v>
@@ -4019,7 +4019,7 @@
         <v>150</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>151</v>
@@ -4036,10 +4036,10 @@
         <v>60</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>62</v>
@@ -4056,10 +4056,10 @@
         <v>61</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>62</v>
@@ -4079,7 +4079,7 @@
         <v>64</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>62</v>
@@ -4096,10 +4096,10 @@
         <v>65</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>62</v>
@@ -4166,22 +4166,22 @@
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>311</v>
+        <v>297</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C2" t="s">
         <v>142</v>
       </c>
       <c r="D2" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="E2" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F2" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="G2" t="s">
         <v>143</v>
@@ -4195,7 +4195,7 @@
     </row>
     <row r="3" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>312</v>
+        <v>298</v>
       </c>
       <c r="B3" s="12" t="s">
         <v>148</v>
@@ -4204,13 +4204,13 @@
         <v>142</v>
       </c>
       <c r="D3" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="E3" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F3" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="G3" t="s">
         <v>143</v>
@@ -4224,7 +4224,7 @@
     </row>
     <row r="4" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>313</v>
+        <v>299</v>
       </c>
       <c r="B4" s="12" t="s">
         <v>148</v>
@@ -4233,13 +4233,13 @@
         <v>142</v>
       </c>
       <c r="D4" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="E4" t="s">
+        <v>210</v>
+      </c>
+      <c r="F4" t="s">
         <v>213</v>
-      </c>
-      <c r="F4" t="s">
-        <v>216</v>
       </c>
       <c r="G4" t="s">
         <v>146</v>
@@ -4253,22 +4253,22 @@
     </row>
     <row r="5" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>314</v>
+        <v>300</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C5" t="s">
         <v>147</v>
       </c>
       <c r="D5" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="E5" t="s">
+        <v>211</v>
+      </c>
+      <c r="F5" t="s">
         <v>214</v>
-      </c>
-      <c r="F5" t="s">
-        <v>217</v>
       </c>
       <c r="G5" t="s">
         <v>146</v>

--- a/tables/habitat/AllTables.xlsx
+++ b/tables/habitat/AllTables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\00101765\AED Dropbox\Sherry Zhai\Github\cdm-science\tables\habitat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ED7C98A-440A-4340-B99B-4872EF03892F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55E148F3-6146-49B3-A074-BE2DBF20AF7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="27460" yWindow="320" windowWidth="23040" windowHeight="19880" tabRatio="870" firstSheet="5" activeTab="9" xr2:uid="{C6B6A4F7-8E11-4364-B90C-81D0188035FA}"/>
+    <workbookView xWindow="27460" yWindow="3450" windowWidth="23040" windowHeight="16750" tabRatio="870" firstSheet="5" activeTab="9" xr2:uid="{C6B6A4F7-8E11-4364-B90C-81D0188035FA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1_NPMR" sheetId="1" r:id="rId1"/>
@@ -1345,9 +1345,6 @@
     <t>Habitat Suitability Index ($\Phi$) function figure</t>
   </si>
   <si>
-    <t>&lt;img src="images/lagoon_habitat/HSI_viability_salinity.png" width="20"/&gt;</t>
-  </si>
-  <si>
     <t>Historical&lt;br&gt;(Appendix C)</t>
   </si>
   <si>
@@ -1360,49 +1357,52 @@
     <t>HCHB_Gen II</t>
   </si>
   <si>
-    <t>&lt;img src="images/lagoon_habitat/HSI_germination_salinity.png" width="20"/&gt;</t>
-  </si>
-  <si>
-    <t>&lt;img src="images/lagoon_habitat/HSI_germination_temp.png" width="20"/&gt;</t>
-  </si>
-  <si>
-    <t>&lt;img src="images/lagoon_habitat/HSI_turion_temp.png" width="20"/&gt;</t>
-  </si>
-  <si>
-    <t>&lt;img src="images/lagoon_habitat/HSI_turion_salinity.png" width="20"/&gt;</t>
-  </si>
-  <si>
-    <t>&lt;img src="images/lagoon_habitat/HSI_turion_light.png" width="20"/&gt;</t>
-  </si>
-  <si>
-    <t>&lt;img src="images/lagoon_habitat/HSI_turion_depth.png" width="20"/&gt;</t>
-  </si>
-  <si>
-    <t>&lt;img src="images/lagoon_habitat/HSI_adult_salinity.png" width="20"/&gt;</t>
-  </si>
-  <si>
-    <t>&lt;img src="images/lagoon_habitat/HSI_adult_temp.png" width="20"/&gt;</t>
-  </si>
-  <si>
-    <t>&lt;img src="images/lagoon_habitat/HSI_adult_light.png" width="20"/&gt;</t>
-  </si>
-  <si>
-    <t>&lt;img src="images/lagoon_habitat/HSI_adult_algae.png" width="20"/&gt;</t>
-  </si>
-  <si>
-    <t>&lt;img src="images/lagoon_habitat/HSI_flower_salinity.png" width="20"/&gt;</t>
-  </si>
-  <si>
-    <t>&lt;img src="images/lagoon_habitat/HSI_flower_depth.png" width="20"/&gt;</t>
-  </si>
-  <si>
-    <t>&lt;img src="images/lagoon_habitat/HSI_flower_temp.png" width="20"/&gt;</t>
-  </si>
-  <si>
-    <t>&lt;img src="images/lagoon_habitat/HSI_flower_light.png" width="20"/&gt;</t>
-  </si>
-  <si>
-    <t>&lt;img src="images/lagoon_habitat/HSI_flower_algae.png" width="20"/&gt;</t>
+    <t>&lt;img src="images/lagoon_habitat/HSI_adult_salinity.png" width="120"/&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="images/lagoon_habitat/HSI_adult_temp.png" width="120"/&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="images/lagoon_habitat/HSI_adult_light.png" width="120"/&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="images/lagoon_habitat/HSI_adult_algae.png" width="120"/&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="images/lagoon_habitat/HSI_flower_salinity.png" width="120"/&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="images/lagoon_habitat/HSI_flower_depth.png" width="120"/&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="images/lagoon_habitat/HSI_flower_temp.png" width="120"/&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="images/lagoon_habitat/HSI_flower_light.png" width="120"/&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="images/lagoon_habitat/HSI_flower_algae.png" width="120"/&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="images/lagoon_habitat/HSI_turion_salinity.png" width="120"/&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="images/lagoon_habitat/HSI_turion_temp.png" width="120"/&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="images/lagoon_habitat/HSI_turion_light.png" width="120"/&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="images/lagoon_habitat/HSI_viability_salinity.png" width="120"/&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="images/lagoon_habitat/HSI_germination_salinity.png" width="120"/&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="images/lagoon_habitat/HSI_germination_temp.png" width="120"/&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="images/lagoon_habitat/HSI_turion_depth.png" width="120"/&gt;</t>
   </si>
 </sst>
 </file>
@@ -2015,8 +2015,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E455835C-91A3-4A35-A210-9F3EF1BB69F6}">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2072,7 +2072,7 @@
         <v>156</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>296</v>
+        <v>312</v>
       </c>
       <c r="F2" s="7" t="s">
         <v>37</v>
@@ -2098,7 +2098,7 @@
         <v>256</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>301</v>
+        <v>313</v>
       </c>
       <c r="F3" s="7" t="s">
         <v>38</v>
@@ -2144,7 +2144,7 @@
         <v>257</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>302</v>
+        <v>314</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>242</v>
@@ -2216,7 +2216,7 @@
         <v>262</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>40</v>
@@ -2239,7 +2239,7 @@
         <v>151</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>306</v>
+        <v>315</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>244</v>
@@ -2262,7 +2262,7 @@
         <v>259</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>242</v>
@@ -2285,7 +2285,7 @@
         <v>263</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>242</v>
@@ -2334,7 +2334,7 @@
         <v>266</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>42</v>
@@ -2380,7 +2380,7 @@
         <v>258</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>246</v>
@@ -2403,7 +2403,7 @@
         <v>264</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>45</v>
@@ -2426,7 +2426,7 @@
         <v>269</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>252</v>
@@ -2452,7 +2452,7 @@
         <v>267</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>253</v>
@@ -2475,7 +2475,7 @@
         <v>151</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>169</v>
@@ -2498,7 +2498,7 @@
         <v>260</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>242</v>
@@ -2521,7 +2521,7 @@
         <v>265</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>242</v>
@@ -2544,7 +2544,7 @@
         <v>270</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>172</v>
@@ -2570,7 +2570,7 @@
         <v>268</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>254</v>
@@ -2616,7 +2616,7 @@
         <v>261</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>242</v>
@@ -2639,7 +2639,7 @@
         <v>271</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>242</v>
@@ -3651,7 +3651,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="135" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="165" x14ac:dyDescent="0.25">
       <c r="B14" s="4" t="s">
         <v>163</v>
       </c>
@@ -4166,7 +4166,7 @@
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>216</v>
@@ -4195,7 +4195,7 @@
     </row>
     <row r="3" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B3" s="12" t="s">
         <v>148</v>
@@ -4224,7 +4224,7 @@
     </row>
     <row r="4" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B4" s="12" t="s">
         <v>148</v>
@@ -4253,7 +4253,7 @@
     </row>
     <row r="5" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B5" s="12" t="s">
         <v>215</v>

--- a/tables/habitat/AllTables.xlsx
+++ b/tables/habitat/AllTables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\00101765\AED Dropbox\Sherry Zhai\Github\cdm-science\tables\habitat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55E148F3-6146-49B3-A074-BE2DBF20AF7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95F99604-61CC-4335-A508-C3515B2CC9E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="27460" yWindow="3450" windowWidth="23040" windowHeight="16750" tabRatio="870" firstSheet="5" activeTab="9" xr2:uid="{C6B6A4F7-8E11-4364-B90C-81D0188035FA}"/>
   </bookViews>
@@ -1357,52 +1357,52 @@
     <t>HCHB_Gen II</t>
   </si>
   <si>
-    <t>&lt;img src="images/lagoon_habitat/HSI_adult_salinity.png" width="120"/&gt;</t>
-  </si>
-  <si>
-    <t>&lt;img src="images/lagoon_habitat/HSI_adult_temp.png" width="120"/&gt;</t>
-  </si>
-  <si>
-    <t>&lt;img src="images/lagoon_habitat/HSI_adult_light.png" width="120"/&gt;</t>
-  </si>
-  <si>
-    <t>&lt;img src="images/lagoon_habitat/HSI_adult_algae.png" width="120"/&gt;</t>
-  </si>
-  <si>
-    <t>&lt;img src="images/lagoon_habitat/HSI_flower_salinity.png" width="120"/&gt;</t>
-  </si>
-  <si>
-    <t>&lt;img src="images/lagoon_habitat/HSI_flower_depth.png" width="120"/&gt;</t>
-  </si>
-  <si>
-    <t>&lt;img src="images/lagoon_habitat/HSI_flower_temp.png" width="120"/&gt;</t>
-  </si>
-  <si>
-    <t>&lt;img src="images/lagoon_habitat/HSI_flower_light.png" width="120"/&gt;</t>
-  </si>
-  <si>
-    <t>&lt;img src="images/lagoon_habitat/HSI_flower_algae.png" width="120"/&gt;</t>
-  </si>
-  <si>
-    <t>&lt;img src="images/lagoon_habitat/HSI_turion_salinity.png" width="120"/&gt;</t>
-  </si>
-  <si>
-    <t>&lt;img src="images/lagoon_habitat/HSI_turion_temp.png" width="120"/&gt;</t>
-  </si>
-  <si>
-    <t>&lt;img src="images/lagoon_habitat/HSI_turion_light.png" width="120"/&gt;</t>
-  </si>
-  <si>
-    <t>&lt;img src="images/lagoon_habitat/HSI_viability_salinity.png" width="120"/&gt;</t>
-  </si>
-  <si>
-    <t>&lt;img src="images/lagoon_habitat/HSI_germination_salinity.png" width="120"/&gt;</t>
-  </si>
-  <si>
-    <t>&lt;img src="images/lagoon_habitat/HSI_germination_temp.png" width="120"/&gt;</t>
-  </si>
-  <si>
-    <t>&lt;img src="images/lagoon_habitat/HSI_turion_depth.png" width="120"/&gt;</t>
+    <t>&lt;img src="images/lagoon_habitat/HSI_viability_salinity.png" width="160"/&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="images/lagoon_habitat/HSI_germination_salinity.png" width="160"/&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="images/lagoon_habitat/HSI_germination_temp.png" width="160"/&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="images/lagoon_habitat/HSI_turion_salinity.png" width="160"/&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="images/lagoon_habitat/HSI_turion_depth.png" width="160"/&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="images/lagoon_habitat/HSI_turion_temp.png" width="160"/&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="images/lagoon_habitat/HSI_turion_light.png" width="160"/&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="images/lagoon_habitat/HSI_adult_salinity.png" width="160"/&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="images/lagoon_habitat/HSI_adult_temp.png" width="160"/&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="images/lagoon_habitat/HSI_adult_light.png" width="160"/&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="images/lagoon_habitat/HSI_adult_algae.png" width="160"/&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="images/lagoon_habitat/HSI_flower_salinity.png" width="160"/&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="images/lagoon_habitat/HSI_flower_depth.png" width="160"/&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="images/lagoon_habitat/HSI_flower_temp.png" width="160"/&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="images/lagoon_habitat/HSI_flower_light.png" width="160"/&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="images/lagoon_habitat/HSI_flower_algae.png" width="160"/&gt;</t>
   </si>
 </sst>
 </file>
@@ -2015,8 +2015,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E455835C-91A3-4A35-A210-9F3EF1BB69F6}">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2072,7 +2072,7 @@
         <v>156</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>312</v>
+        <v>300</v>
       </c>
       <c r="F2" s="7" t="s">
         <v>37</v>
@@ -2098,7 +2098,7 @@
         <v>256</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="F3" s="7" t="s">
         <v>38</v>
@@ -2144,7 +2144,7 @@
         <v>257</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>314</v>
+        <v>302</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>242</v>
@@ -2216,7 +2216,7 @@
         <v>262</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>40</v>
@@ -2239,7 +2239,7 @@
         <v>151</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>315</v>
+        <v>304</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>244</v>
@@ -2262,7 +2262,7 @@
         <v>259</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>242</v>
@@ -2285,7 +2285,7 @@
         <v>263</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>242</v>
@@ -2334,7 +2334,7 @@
         <v>266</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>42</v>
@@ -2380,7 +2380,7 @@
         <v>258</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>246</v>
@@ -2403,7 +2403,7 @@
         <v>264</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>45</v>
@@ -2426,7 +2426,7 @@
         <v>269</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>252</v>
@@ -2452,7 +2452,7 @@
         <v>267</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>253</v>
@@ -2475,7 +2475,7 @@
         <v>151</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>169</v>
@@ -2498,7 +2498,7 @@
         <v>260</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>242</v>
@@ -2521,7 +2521,7 @@
         <v>265</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>242</v>
@@ -2544,7 +2544,7 @@
         <v>270</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>172</v>
@@ -2570,7 +2570,7 @@
         <v>268</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>254</v>
@@ -2616,7 +2616,7 @@
         <v>261</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>242</v>
@@ -2639,7 +2639,7 @@
         <v>271</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>242</v>

--- a/tables/habitat/AllTables.xlsx
+++ b/tables/habitat/AllTables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\00101765\AED Dropbox\Sherry Zhai\Github\cdm-science\tables\habitat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95F99604-61CC-4335-A508-C3515B2CC9E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22612521-6D78-4FF2-89D2-47BA3D82AB44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="27460" yWindow="3450" windowWidth="23040" windowHeight="16750" tabRatio="870" firstSheet="5" activeTab="9" xr2:uid="{C6B6A4F7-8E11-4364-B90C-81D0188035FA}"/>
+    <workbookView xWindow="25490" yWindow="-110" windowWidth="38620" windowHeight="21220" tabRatio="870" firstSheet="5" activeTab="9" xr2:uid="{C6B6A4F7-8E11-4364-B90C-81D0188035FA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1_NPMR" sheetId="1" r:id="rId1"/>
@@ -968,9 +968,6 @@
     <t>$LC^{23}_{10}$</t>
   </si>
   <si>
-    <t xml:space="preserve">Kim et al. 2013; </t>
-  </si>
-  <si>
     <t>Assumed to be the same as adult growth</t>
   </si>
   <si>
@@ -1403,6 +1400,9 @@
   </si>
   <si>
     <t>&lt;img src="images/lagoon_habitat/HSI_flower_algae.png" width="160"/&gt;</t>
+  </si>
+  <si>
+    <t>\@kim2013</t>
   </si>
 </sst>
 </file>
@@ -2016,7 +2016,7 @@
   <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2040,13 +2040,13 @@
         <v>153</v>
       </c>
       <c r="C1" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="D1" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="E1" s="7" t="s">
         <v>294</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>295</v>
       </c>
       <c r="F1" s="7" t="s">
         <v>32</v>
@@ -2072,7 +2072,7 @@
         <v>156</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F2" s="7" t="s">
         <v>37</v>
@@ -2092,19 +2092,19 @@
         <v>36</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F3" s="7" t="s">
         <v>38</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>241</v>
+        <v>315</v>
       </c>
       <c r="H3" s="7" t="s">
         <v>151</v>
@@ -2115,7 +2115,7 @@
         <v>41</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>151</v>
@@ -2124,10 +2124,10 @@
         <v>151</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H4" s="7" t="s">
         <v>151</v>
@@ -2138,16 +2138,16 @@
         <v>47</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>151</v>
@@ -2210,13 +2210,13 @@
         <v>36</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>40</v>
@@ -2233,19 +2233,19 @@
         <v>41</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>151</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F9" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>244</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>245</v>
       </c>
       <c r="H9" s="7" t="s">
         <v>151</v>
@@ -2256,16 +2256,16 @@
         <v>47</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>151</v>
@@ -2279,16 +2279,16 @@
         <v>44</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>151</v>
@@ -2320,7 +2320,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="210" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="195" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>51</v>
       </c>
@@ -2328,19 +2328,19 @@
         <v>36</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>42</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H13" s="7" t="s">
         <v>43</v>
@@ -2351,7 +2351,7 @@
         <v>41</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D14" s="7" t="s">
         <v>151</v>
@@ -2360,13 +2360,13 @@
         <v>151</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>70</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="195" x14ac:dyDescent="0.25">
@@ -2374,22 +2374,22 @@
         <v>47</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F15" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="G15" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="G15" s="7" t="s">
+      <c r="H15" s="7" t="s">
         <v>247</v>
-      </c>
-      <c r="H15" s="7" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="135" x14ac:dyDescent="0.25">
@@ -2397,19 +2397,19 @@
         <v>44</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>45</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H16" s="7" t="s">
         <v>151</v>
@@ -2420,16 +2420,16 @@
         <v>157</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>49</v>
@@ -2446,19 +2446,19 @@
         <v>36</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H18" s="7" t="s">
         <v>55</v>
@@ -2469,13 +2469,13 @@
         <v>41</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D19" s="7" t="s">
         <v>151</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>169</v>
@@ -2492,16 +2492,16 @@
         <v>47</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>151</v>
@@ -2515,16 +2515,16 @@
         <v>44</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G21" s="7" t="s">
         <v>151</v>
@@ -2538,13 +2538,13 @@
         <v>157</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>172</v>
@@ -2564,16 +2564,16 @@
         <v>36</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>151</v>
@@ -2587,7 +2587,7 @@
         <v>41</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D24" s="7" t="s">
         <v>151</v>
@@ -2602,7 +2602,7 @@
         <v>67</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="195" x14ac:dyDescent="0.25">
@@ -2610,16 +2610,16 @@
         <v>47</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>151</v>
@@ -2633,16 +2633,16 @@
         <v>44</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>151</v>
@@ -2804,10 +2804,10 @@
         <v>182</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>291</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -3651,7 +3651,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="165" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="135" x14ac:dyDescent="0.25">
       <c r="B14" s="4" t="s">
         <v>163</v>
       </c>
@@ -4166,7 +4166,7 @@
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>216</v>
@@ -4195,7 +4195,7 @@
     </row>
     <row r="3" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B3" s="12" t="s">
         <v>148</v>
@@ -4224,7 +4224,7 @@
     </row>
     <row r="4" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B4" s="12" t="s">
         <v>148</v>
@@ -4253,7 +4253,7 @@
     </row>
     <row r="5" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B5" s="12" t="s">
         <v>215</v>

--- a/tables/habitat/AllTables.xlsx
+++ b/tables/habitat/AllTables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\00101765\AED Dropbox\Sherry Zhai\Github\cdm-science\tables\habitat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22612521-6D78-4FF2-89D2-47BA3D82AB44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95931AE1-E971-44ED-9E3D-E122F27C443A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="25490" yWindow="-110" windowWidth="38620" windowHeight="21220" tabRatio="870" firstSheet="5" activeTab="9" xr2:uid="{C6B6A4F7-8E11-4364-B90C-81D0188035FA}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="757" uniqueCount="317">
   <si>
     <t>Field data</t>
   </si>
@@ -1402,7 +1402,11 @@
     <t>&lt;img src="images/lagoon_habitat/HSI_flower_algae.png" width="160"/&gt;</t>
   </si>
   <si>
-    <t>\@kim2013</t>
+    <t>\"@kim2013"</t>
+  </si>
+  <si>
+    <t>"@kim2013";&lt;br&gt;
+Kim et al. 2015</t>
   </si>
 </sst>
 </file>
@@ -2016,7 +2020,7 @@
   <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2078,7 +2082,7 @@
         <v>37</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>68</v>
+        <v>316</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>151</v>

--- a/tables/habitat/AllTables.xlsx
+++ b/tables/habitat/AllTables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\00101765\AED Dropbox\Sherry Zhai\Github\cdm-science\tables\habitat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95931AE1-E971-44ED-9E3D-E122F27C443A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12B09D94-370E-475F-8F89-267D07F9390C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25490" yWindow="-110" windowWidth="38620" windowHeight="21220" tabRatio="870" firstSheet="5" activeTab="9" xr2:uid="{C6B6A4F7-8E11-4364-B90C-81D0188035FA}"/>
+    <workbookView xWindow="44690" yWindow="-6100" windowWidth="38620" windowHeight="21220" tabRatio="870" firstSheet="5" activeTab="9" xr2:uid="{C6B6A4F7-8E11-4364-B90C-81D0188035FA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1_NPMR" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="757" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="326">
   <si>
     <t>Field data</t>
   </si>
@@ -977,21 +977,10 @@
     <t>Water depth needs to be sufficient to cover plants during growth.</t>
   </si>
   <si>
-    <t>Collier et al. 2017</t>
-  </si>
-  <si>
     <t>The optimum temperature for photosynthesis of Ruppia sp. is approximately 20 – 23°C. At temperatures that are ≥30°C biomass declines, and if sustained, there may be no reproductive output. Lower threshold source is unclear</t>
   </si>
   <si>
-    <t>Santamarı́a &amp;
-Hootsmans 1998 cited in Collier et al. 2017.</t>
-  </si>
-  <si>
     <t xml:space="preserve">The optimum is not specifically for R. tuberosa. </t>
-  </si>
-  <si>
-    <t>Collier et al. 2017 
-cited in Asanopoulos &amp; Waycott 2020</t>
   </si>
   <si>
     <t xml:space="preserve">A primary factor driving the Ruppia distribution in the southern Coorong. Water depth needs to be sufficient to cover plants during growth. </t>
@@ -1003,18 +992,6 @@
   <si>
     <t xml:space="preserve">Surface mats formed by the filamentous algae shade submerged plants and entangle flowers/fruits, causing them to break away from stems before they mature. 
 It was suggested that to maintain and improve the condition and resilience of the Ruppia community, algal mat formation should be reduced to less than 100 g/DW per m2. </t>
-  </si>
-  <si>
-    <t>Flower abundance was highest at salinities between ~47 and 62 g/L and flower abundance was lowest at &gt;70 g/L and &lt;47 g/L.
-The highest seed density was maintained at salinities of
-26–62 g/L. 
-Upper and lower thresholds were based on Collier et al. 2017 and Fig.5 in Asanopoulos &amp; Waycott 2020. Original source unclear</t>
-  </si>
-  <si>
-    <t>Thresholds were determined considering several sources: 
-1) The highest turion densities in the Coorong have been observed at salinity between ~124 g/L and 160 g/L and are most likely to occur where salinities are over 70 g/L. This study was conducted during a year with extremely high salinities in the Coorong;
-2) Analysis of 2020 – 2021 HCHB survey data indicate high turion abundance between ~70 – 120 g/L but can occur in salinity at as low as ~40g/L;
-3) Upper threshold based on Fig.5 in Asanopoulos &amp; Waycott 2020</t>
   </si>
   <si>
     <t>Highest densities of turions were observed in 0.1–0.4 m water depths. However this depth preference is likely the result of trade-off between light requirement (thresholds included in $\Phi^{tur}_{L}$)) for photosynthesis and preventing desiccation</t>
@@ -1317,16 +1294,6 @@
 &gt;= 10 % of time wet: suitable</t>
   </si>
   <si>
-    <t>Brock 1982; &lt;br&gt;Kim et al. 2015;&lt;br&gt;
-Collier et al. 2017; &lt;br&gt;
-Asanopoulos &amp; Waycott 2020</t>
-  </si>
-  <si>
-    <t>Kim et al. 2015; &lt;br&gt;
-Collier et al. 2017; &lt;br&gt;
-Asanopoulos &amp; Waycott 2020</t>
-  </si>
-  <si>
     <t>R&lt;br&gt;(Whole lagoon)</t>
   </si>
   <si>
@@ -1402,11 +1369,80 @@
     <t>&lt;img src="images/lagoon_habitat/HSI_flower_algae.png" width="160"/&gt;</t>
   </si>
   <si>
-    <t>\"@kim2013"</t>
-  </si>
-  <si>
-    <t>"@kim2013";&lt;br&gt;
-Kim et al. 2015</t>
+    <t>\@kim2013</t>
+  </si>
+  <si>
+    <t>\@collier2017</t>
+  </si>
+  <si>
+    <t>\@kim2013;&lt;br&gt;
+\@asano2020 Fig.5</t>
+  </si>
+  <si>
+    <t>\@kim2015;&lt;br&gt;
+\@collier2017</t>
+  </si>
+  <si>
+    <t>Santamarı́a &amp;
+Hootsmans 1998 cited in \@collier2017.</t>
+  </si>
+  <si>
+    <t>\@collier2017 
+cited in \@asano2020</t>
+  </si>
+  <si>
+    <t>\@kim2015; &lt;br&gt;
+\@collier2017; &lt;br&gt;
+\@asano2020</t>
+  </si>
+  <si>
+    <t>\@kim2015;&lt;br&gt;
+\@collier2017;</t>
+  </si>
+  <si>
+    <t>\@kim2015;&lt;br&gt;
+\@collier2017;&lt;br&gt;
+\@asano2020</t>
+  </si>
+  <si>
+    <t>\@kim2013;&lt;br&gt;
+\@kim2015</t>
+  </si>
+  <si>
+    <t>\@lewis2022</t>
+  </si>
+  <si>
+    <t>The model relating shoot density to physicochemical
+conditions explained 73% of variation \[@kim2015]</t>
+  </si>
+  <si>
+    <t>A primary factor driving the distribution and abundance of Ruppia in the southern Coorong. The highest abundance of R. tuberosa found at salinities from 19 to 70 g/L and declined sharply
+in response to increasing salinity from 70 to 109 g/L, but increased again between 116 and 124 g/L.
+Table 2 in \@collier2017 indicated R. tuberosa occurred at up to 230 g/L in other Lakes but source of data is not clear. Lower threshold source based on Fig.5 in \@asano2020</t>
+  </si>
+  <si>
+    <t>The model relating flower density to physicochemical
+conditions explained 76% of variation but only 27% of the seed abundance variance was explained (\@kim2015).</t>
+  </si>
+  <si>
+    <t>R. tuberosa flowers need to reach the water surface for pollination. The highest density of flowering has been observed in water depths from 0.1 to 0.4 m and seed density of mature plants declines at depths greater than 0.4 m. Upper thresholds based on Fig.4 in \@kim2015.</t>
+  </si>
+  <si>
+    <t>Flower abundance was highest at salinities between ~47 and 62 g/L and flower abundance was lowest at &gt;70 g/L and &lt;47 g/L.
+The highest seed density was maintained at salinities of
+26–62 g/L. 
+Upper and lower thresholds were based on \@collier2017 and Fig.5 in \@asano2020. Original source unclear</t>
+  </si>
+  <si>
+    <t>Thresholds were determined considering several sources: 
+1) The highest turion densities in the Coorong have been observed at salinity between ~124 g/L and 160 g/L and are most likely to occur where salinities are over 70 g/L. This study was conducted during a year with extremely high salinities in the Coorong;
+2) Analysis of 2020 – 2021 HCHB survey data indicate high turion abundance between ~70 – 120 g/L but can occur in salinity at as low as ~40g/L;
+3) Upper threshold based on Fig.5 in \@asano2020</t>
+  </si>
+  <si>
+    <t>\@brock1982; &lt;br&gt;\@kim2015;&lt;br&gt;
+\@collier2017; &lt;br&gt;
+\@asano2020</t>
   </si>
 </sst>
 </file>
@@ -2019,8 +2055,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E455835C-91A3-4A35-A210-9F3EF1BB69F6}">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2044,13 +2080,13 @@
         <v>153</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="F1" s="7" t="s">
         <v>32</v>
@@ -2076,13 +2112,13 @@
         <v>156</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="F2" s="7" t="s">
         <v>37</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>151</v>
@@ -2096,19 +2132,19 @@
         <v>36</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="F3" s="7" t="s">
         <v>38</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="H3" s="7" t="s">
         <v>151</v>
@@ -2119,7 +2155,7 @@
         <v>41</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>151</v>
@@ -2142,13 +2178,13 @@
         <v>47</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>241</v>
@@ -2214,19 +2250,19 @@
         <v>36</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>40</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>69</v>
+        <v>310</v>
       </c>
       <c r="H8" s="7" t="s">
         <v>151</v>
@@ -2237,19 +2273,19 @@
         <v>41</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>151</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>243</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>244</v>
+        <v>309</v>
       </c>
       <c r="H9" s="7" t="s">
         <v>151</v>
@@ -2260,13 +2296,13 @@
         <v>47</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>241</v>
@@ -2283,13 +2319,13 @@
         <v>44</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>241</v>
@@ -2324,7 +2360,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="195" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="210" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>51</v>
       </c>
@@ -2332,22 +2368,22 @@
         <v>36</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>42</v>
+        <v>320</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>288</v>
+        <v>325</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>43</v>
+        <v>319</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="240" x14ac:dyDescent="0.25">
@@ -2355,7 +2391,7 @@
         <v>41</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="D14" s="7" t="s">
         <v>151</v>
@@ -2364,13 +2400,13 @@
         <v>151</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>70</v>
+        <v>311</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="195" x14ac:dyDescent="0.25">
@@ -2378,22 +2414,22 @@
         <v>47</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="F15" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="H15" s="7" t="s">
         <v>245</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="H15" s="7" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="135" x14ac:dyDescent="0.25">
@@ -2401,19 +2437,19 @@
         <v>44</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>45</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>248</v>
+        <v>313</v>
       </c>
       <c r="H16" s="7" t="s">
         <v>151</v>
@@ -2424,19 +2460,19 @@
         <v>157</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>49</v>
+        <v>318</v>
       </c>
       <c r="H17" s="7" t="s">
         <v>151</v>
@@ -2450,22 +2486,22 @@
         <v>36</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>252</v>
+        <v>323</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>289</v>
+        <v>314</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>55</v>
+        <v>321</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="180" x14ac:dyDescent="0.25">
@@ -2473,19 +2509,19 @@
         <v>41</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="D19" s="7" t="s">
         <v>151</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>169</v>
+        <v>322</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>66</v>
+        <v>315</v>
       </c>
       <c r="H19" s="7" t="s">
         <v>56</v>
@@ -2496,13 +2532,13 @@
         <v>47</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>241</v>
@@ -2519,13 +2555,13 @@
         <v>44</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>241</v>
@@ -2542,19 +2578,19 @@
         <v>157</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>172</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>49</v>
+        <v>318</v>
       </c>
       <c r="H22" s="7" t="s">
         <v>151</v>
@@ -2568,16 +2604,16 @@
         <v>36</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>253</v>
+        <v>324</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>151</v>
@@ -2591,7 +2627,7 @@
         <v>41</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="D24" s="7" t="s">
         <v>151</v>
@@ -2603,10 +2639,10 @@
         <v>171</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>67</v>
+        <v>316</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="195" x14ac:dyDescent="0.25">
@@ -2614,13 +2650,13 @@
         <v>47</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>241</v>
@@ -2637,13 +2673,13 @@
         <v>44</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>241</v>
@@ -2808,10 +2844,10 @@
         <v>182</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -4170,7 +4206,7 @@
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>216</v>
@@ -4199,7 +4235,7 @@
     </row>
     <row r="3" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="B3" s="12" t="s">
         <v>148</v>
@@ -4228,7 +4264,7 @@
     </row>
     <row r="4" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="B4" s="12" t="s">
         <v>148</v>
@@ -4257,7 +4293,7 @@
     </row>
     <row r="5" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="B5" s="12" t="s">
         <v>215</v>

--- a/tables/habitat/AllTables.xlsx
+++ b/tables/habitat/AllTables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\00101765\AED Dropbox\Sherry Zhai\Github\cdm-science\tables\habitat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12B09D94-370E-475F-8F89-267D07F9390C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DD22302-80B4-4107-B92B-5C6103160C16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="44690" yWindow="-6100" windowWidth="38620" windowHeight="21220" tabRatio="870" firstSheet="5" activeTab="9" xr2:uid="{C6B6A4F7-8E11-4364-B90C-81D0188035FA}"/>
+    <workbookView xWindow="25490" yWindow="-110" windowWidth="38620" windowHeight="21220" tabRatio="870" firstSheet="3" activeTab="9" xr2:uid="{C6B6A4F7-8E11-4364-B90C-81D0188035FA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1_NPMR" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="321">
   <si>
     <t>Field data</t>
   </si>
@@ -167,18 +167,10 @@
 In salinity below 40g/L a germination probability of &gt;50% would be expected for seeds of R. tuberosa, but at salinities between 40 and 90 g/L germination would be&lt;50%</t>
   </si>
   <si>
-    <t>Kim et al. 2013</t>
-  </si>
-  <si>
     <t>Turions of R. tuberosa germinated at salinities of 0 to 125g/L, with 14 - 74% germination, but no germination occurred above 125 g/L. Suboptimal thresholds based on Fig.2 in Kim et al. 2013</t>
   </si>
   <si>
     <t>D: Water depth (m)</t>
-  </si>
-  <si>
-    <t>A primary factor driving the distribution and abundance of Ruppia in the southern Coorong. The highest abundance of R. tuberosa found at salinities from 19 to 70 g/L and declined sharply
-in response to increasing salinity from 70 to 109 g/L, but increased again between 116 and 124 g/L.
-Table 2 in Collier et al. 2017 indicated R. tuberosa occurred at up to 230 g/L in other Lakes but source of data is not clear. Lower threshold source based on Fig.5 in Asanopoulos &amp; Waycott 2020</t>
   </si>
   <si>
     <t>The model relating shoot density to physicochemical
@@ -192,19 +184,12 @@
 weeks of shading. Biomass was significantly reduced in the 5% light treatment compared to the 36, 63, 86 and 100% light treatment.</t>
   </si>
   <si>
-    <t>Collier et al. 2017
-cited in Asanopoulos &amp; Waycott 2020</t>
-  </si>
-  <si>
     <t>T: Temperature (°C)</t>
   </si>
   <si>
     <t>The optimum is not specifically for R. tuberosa.</t>
   </si>
   <si>
-    <t>Lewis et al. 2022</t>
-  </si>
-  <si>
     <t>Flowering and seed set (Sep 1 – Dec 31)</t>
   </si>
   <si>
@@ -215,12 +200,6 @@
   </si>
   <si>
     <t>Seed germination  (Apr 1 – Jun 30)</t>
-  </si>
-  <si>
-    <t>Flower abundance was highest at salinities between ~47 and 62 g/L and flower abundance was lowest at &gt;70 g/L and &lt;47 g/L.
-The highest seed density was maintained at salinities of
-26–62 g/L.
-Upper and lower thresholds were based on Collier et al. 2017 and Fig.5 in Asanopoulos &amp; Waycott 2020. Original source unclear</t>
   </si>
   <si>
     <t>The model relating flower density to physicochemical
@@ -279,27 +258,6 @@
 &gt;230 unsuitable</t>
   </si>
   <si>
-    <t>Kim et al. 2015;&lt;br&gt;
-Collier et al. 2017;</t>
-  </si>
-  <si>
-    <t>Kim et al. 2015;&lt;br&gt;
-Collier et al. 2017;&lt;br&gt;
-Asanopoulos &amp; Waycott 2020</t>
-  </si>
-  <si>
-    <t>Kim et al. 2013;&lt;br&gt;
-Kim et al. 2015</t>
-  </si>
-  <si>
-    <t>Kim et al. 2013;&lt;br&gt;
-Asanopoulos &amp; Waycott 2020 Fig.5</t>
-  </si>
-  <si>
-    <t>Kim et al. 2015;&lt;br&gt;
-Collier et al. 2017</t>
-  </si>
-  <si>
     <t>&lt;=100 optimal&lt;br&gt;
 100-368 suboptimal&lt;br&gt;
 &gt;368 unsuitable</t>
@@ -310,15 +268,6 @@
 47-62 optimal&lt;br&gt;
 62-100 suboptimal&lt;br&gt;
 &gt;100 unsuitable</t>
-  </si>
-  <si>
-    <t>Brock 1982;&lt;br&gt; Kim et al. 2015;&lt;br&gt;
-Collier et al. 2017;&lt;br&gt;
-Asanopoulos &amp; Waycott 2020</t>
-  </si>
-  <si>
-    <t>Santamaria &amp;
-Hootsmans 1998 cited in Collier et al. 2017.</t>
   </si>
   <si>
     <t>&lt;135 optimal&lt;br&gt;
@@ -437,10 +386,6 @@
 salinity,&lt;br&gt;
 elevation,&lt;br&gt;
 distance from Murray Mouth</t>
-  </si>
-  <si>
-    <t>1. Kim et al. 2015;&lt;br&gt;
-3. Asanopoulos &amp; Waycott 2020</t>
   </si>
   <si>
     <t>Seed count&lt;br&gt; (R. tuberosa)</t>
@@ -736,9 +681,6 @@
     <t xml:space="preserve">Highest densities of turions were observed in 0.1–0.4 m water depths. However this depth preference is likely the result of trade-off between light requirement (thresholds included in f(l)) for photosynthesis and preventing desiccation. </t>
   </si>
   <si>
-    <t>R. tuberosa flowers need to reach the water surface for pollination. The highest density of flowering has been observed in water depths from 0.1 to 0.4 m and seed density of mature plants declines at depths greater than 0.4 m. Upper thresholds based on Fig.4 in Kim et al. 2015.</t>
-  </si>
-  <si>
     <t>&lt;0.01 unsuitable&lt;br&gt;
 0.01-0.1 suboptimal&lt;br&gt;
 0.1-0.4 optimal&lt;br&gt;
@@ -752,12 +694,6 @@
     <t>Surface mats formed
 by the filamentous algae shade submerged plants and entangle flowers/fruits, causing them to break away from stems before they mature. 
 It was suggested that to maintain and improve the condition and resilience of the Ruppia community, algal mat formation should be reduced to less than 100 g/DW per m2. Upper thresholds derived from analysis of HCHB survey data (Figure 8.9)</t>
-  </si>
-  <si>
-    <t>Thresholds were determined considering several sources:
-1) The highest turion densities in the Coorong have been observed at salinity between ~124 g/L and 160 g/L and are most likely to occur where salinities are over 70 g/L. This study was conducted during a year with extremely high salinities in the Coorong;
-2) Analysis of 2020 – 2021 HCHB survey data indicates high turion abundance between ~70 – 120 g/L but can occur in salinity at as low as ~40g/L (Figure 8.6);
-3) Upper threshold based on Fig.5 in Asanopoulos &amp; Waycott 2020</t>
   </si>
   <si>
     <t>Surface mats formed
@@ -1383,10 +1319,6 @@
 \@collier2017</t>
   </si>
   <si>
-    <t>Santamarı́a &amp;
-Hootsmans 1998 cited in \@collier2017.</t>
-  </si>
-  <si>
     <t>\@collier2017 
 cited in \@asano2020</t>
   </si>
@@ -1414,6 +1346,11 @@
   <si>
     <t>The model relating shoot density to physicochemical
 conditions explained 73% of variation \[@kim2015]</t>
+  </si>
+  <si>
+    <t>A primary factor driving the distribution and abundance of Ruppia in the southern Coorong. The highest abundance of R. tuberosa found at salinities from 19 to 70 g/L and declined sharply
+in response to increasing salinity from 70 to 109 g/L, but increased again between 116 and 124 g/L.
+Table 2 in Collier et al. 2017 indicated R. tuberosa occurred at up to 230 g/L in other Lakes but source of data is not clear. Lower threshold source based on Fig.5 in \@asano2020</t>
   </si>
   <si>
     <t>A primary factor driving the distribution and abundance of Ruppia in the southern Coorong. The highest abundance of R. tuberosa found at salinities from 19 to 70 g/L and declined sharply
@@ -1443,6 +1380,46 @@
     <t>\@brock1982; &lt;br&gt;\@kim2015;&lt;br&gt;
 \@collier2017; &lt;br&gt;
 \@asano2020</t>
+  </si>
+  <si>
+    <t>1. \@kim2015;&lt;br&gt;
+3. \@asano2020</t>
+  </si>
+  <si>
+    <t>Thresholds were determined considering several sources:
+1) The highest turion densities in the Coorong have been observed at salinity between ~124 g/L and 160 g/L and are most likely to occur where salinities are over 70 g/L. This study was conducted during a year with extremely high salinities in the Coorong;
+2) Analysis of 2020 – 2021 HCHB survey data indicates high turion abundance between ~70 – 120 g/L but can occur in salinity at as low as ~40g/L (Figure 8.6);
+3) Upper threshold based on Fig.5 in \@asano2020</t>
+  </si>
+  <si>
+    <t>R. tuberosa flowers need to reach the water surface for pollination. The highest density of flowering has been observed in water depths from 0.1 to 0.4 m and seed density of mature plants declines at depths greater than 0.4 m. Upper thresholds based on Fig.4 in\@kim2015.</t>
+  </si>
+  <si>
+    <t>Flower abundance was highest at salinities between ~47 and 62 g/L and flower abundance was lowest at &gt;70 g/L and &lt;47 g/L.
+The highest seed density was maintained at salinities of
+26–62 g/L.
+Upper and lower thresholds were based on Collier et al. 2017 and Fig.5 in \@asano2020. Original source unclear</t>
+  </si>
+  <si>
+    <t>\@kim2015;&lt;br&gt;
+\@asano2020</t>
+  </si>
+  <si>
+    <t>Turions of R. tuberosa germinated at salinities of 0 to 125g/L, with 14 - 74% germination, but no germination occurred above 125 g/L. Suboptimal thresholds based on Fig.2 in\@kim2013</t>
+  </si>
+  <si>
+    <t>\@santa1998 cited in \@collier2017.</t>
+  </si>
+  <si>
+    <t>\"@kim2013";&lt;br&gt;
+"\@kim2015"</t>
+  </si>
+  <si>
+    <t>"@kim2013"</t>
+  </si>
+  <si>
+    <t>&lt;@kim2013&gt;;&lt;br&gt;
+\@asano2020 Fig.5</t>
   </si>
 </sst>
 </file>
@@ -1868,7 +1845,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>2</v>
@@ -1885,10 +1862,10 @@
     </row>
     <row r="2" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="C2" s="2">
         <v>0.72199999999999998</v>
@@ -1908,10 +1885,10 @@
     </row>
     <row r="3" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="C3" s="2">
         <v>0.25</v>
@@ -1931,10 +1908,10 @@
     </row>
     <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="C4" s="2">
         <v>0.95399999999999996</v>
@@ -1954,10 +1931,10 @@
     </row>
     <row r="5" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="C5" s="2">
         <v>0.27500000000000002</v>
@@ -1977,10 +1954,10 @@
     </row>
     <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="C6" s="2">
         <v>0.26400000000000001</v>
@@ -2003,7 +1980,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="C7" s="2">
         <v>0.44</v>
@@ -2026,7 +2003,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="C8" s="2">
         <v>0.54900000000000004</v>
@@ -2055,8 +2032,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E455835C-91A3-4A35-A210-9F3EF1BB69F6}">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2074,19 +2051,19 @@
   <sheetData>
     <row r="1" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>287</v>
+        <v>272</v>
       </c>
       <c r="F1" s="7" t="s">
         <v>32</v>
@@ -2106,612 +2083,612 @@
         <v>36</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>292</v>
+        <v>277</v>
       </c>
       <c r="F2" s="7" t="s">
         <v>37</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="180" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>36</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>266</v>
+        <v>251</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>293</v>
+        <v>278</v>
       </c>
       <c r="F3" s="7" t="s">
         <v>38</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>308</v>
+        <v>319</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="135" x14ac:dyDescent="0.25">
       <c r="B4" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>267</v>
+        <v>252</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>242</v>
+        <v>227</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>242</v>
+        <v>227</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="195" x14ac:dyDescent="0.25">
       <c r="B5" s="7" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>294</v>
+        <v>279</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>241</v>
+        <v>226</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B6" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="B7" s="7" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="195" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>36</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>295</v>
+        <v>280</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="B9" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>296</v>
+        <v>281</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>309</v>
+        <v>294</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="195" x14ac:dyDescent="0.25">
       <c r="B10" s="7" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>297</v>
+        <v>282</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>241</v>
+        <v>226</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="135" x14ac:dyDescent="0.25">
       <c r="B11" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>298</v>
+        <v>283</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>241</v>
+        <v>226</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="B12" s="7" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="210" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>36</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>272</v>
+        <v>257</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>260</v>
+        <v>245</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>299</v>
+        <v>284</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>320</v>
+        <v>305</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>325</v>
+        <v>310</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>319</v>
+        <v>303</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="240" x14ac:dyDescent="0.25">
       <c r="B14" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>273</v>
+        <v>258</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>311</v>
+        <v>296</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="195" x14ac:dyDescent="0.25">
       <c r="B15" s="7" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>274</v>
+        <v>259</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>300</v>
+        <v>285</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="135" x14ac:dyDescent="0.25">
       <c r="B16" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>258</v>
+        <v>243</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>301</v>
+        <v>286</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>313</v>
+        <v>297</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="150" x14ac:dyDescent="0.25">
       <c r="B17" s="7" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>275</v>
+        <v>260</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>263</v>
+        <v>248</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>302</v>
       </c>
-      <c r="F17" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>318</v>
-      </c>
       <c r="H17" s="7" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="195" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>36</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>261</v>
+        <v>246</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>303</v>
+        <v>288</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>323</v>
+        <v>308</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>314</v>
+        <v>298</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>321</v>
+        <v>306</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="180" x14ac:dyDescent="0.25">
       <c r="B19" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>277</v>
+        <v>262</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>304</v>
+        <v>289</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>322</v>
+        <v>307</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>315</v>
+        <v>299</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="195" x14ac:dyDescent="0.25">
       <c r="B20" s="7" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>278</v>
+        <v>263</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>254</v>
+        <v>239</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>305</v>
+        <v>290</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>241</v>
+        <v>226</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="B21" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>259</v>
+        <v>244</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>306</v>
+        <v>291</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>241</v>
+        <v>226</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="180" x14ac:dyDescent="0.25">
       <c r="B22" s="7" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>307</v>
+        <v>292</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>318</v>
+        <v>302</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="225" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B23" s="7" t="s">
         <v>36</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>295</v>
+        <v>280</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>151</v>
+        <v>309</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>315</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="210" x14ac:dyDescent="0.25">
       <c r="B24" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>282</v>
+        <v>267</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>316</v>
+        <v>300</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>249</v>
+        <v>234</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="195" x14ac:dyDescent="0.25">
       <c r="B25" s="7" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>274</v>
+        <v>259</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>255</v>
+        <v>240</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>297</v>
+        <v>282</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>241</v>
+        <v>226</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="B26" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>265</v>
+        <v>250</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>298</v>
+        <v>283</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>241</v>
+        <v>226</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="H26" s="7" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="B27" s="7" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -2738,72 +2715,72 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>204</v>
+        <v>189</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
     </row>
   </sheetData>
@@ -2832,36 +2809,36 @@
   <sheetData>
     <row r="1" spans="1:6" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>284</v>
+        <v>269</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>221</v>
+        <v>206</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="E2" s="2">
         <v>0.55000000000000004</v>
@@ -2872,16 +2849,16 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>222</v>
+        <v>207</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c r="E3" s="2">
         <v>0.49</v>
@@ -2892,16 +2869,16 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>194</v>
+        <v>179</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c r="E4" s="2">
         <v>0.25</v>
@@ -2912,16 +2889,16 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>223</v>
+        <v>208</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="E5" s="2">
         <v>0.31</v>
@@ -2932,16 +2909,16 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>221</v>
+        <v>206</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>184</v>
+        <v>169</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>188</v>
+        <v>173</v>
       </c>
       <c r="E6" s="2">
         <v>3.4000000000000002E-2</v>
@@ -2952,16 +2929,16 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>222</v>
+        <v>207</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>184</v>
+        <v>169</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
       <c r="E7" s="2">
         <v>-0.13</v>
@@ -2972,16 +2949,16 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>223</v>
+        <v>208</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>184</v>
+        <v>169</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
       <c r="E8" s="2">
         <v>5.5E-2</v>
@@ -2992,16 +2969,16 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>184</v>
+        <v>169</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>194</v>
+        <v>179</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
       <c r="E9" s="2">
         <v>0.5</v>
@@ -3012,16 +2989,16 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>225</v>
+        <v>210</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>218</v>
+        <v>203</v>
       </c>
       <c r="E10" s="2">
         <v>-0.51</v>
@@ -3032,16 +3009,16 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>219</v>
+        <v>204</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>220</v>
+        <v>205</v>
       </c>
       <c r="E11" s="2">
         <v>0.25</v>
@@ -3052,16 +3029,16 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>227</v>
+        <v>212</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>219</v>
+        <v>204</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>194</v>
+        <v>179</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>220</v>
+        <v>205</v>
       </c>
       <c r="E12" s="2">
         <v>0.21</v>
@@ -3093,24 +3070,24 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
       <c r="B1" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
       <c r="C1" t="s">
-        <v>238</v>
+        <v>223</v>
       </c>
       <c r="D1" t="s">
-        <v>239</v>
+        <v>224</v>
       </c>
       <c r="E1" t="s">
-        <v>240</v>
+        <v>225</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>229</v>
+        <v>214</v>
       </c>
       <c r="B2">
         <v>64</v>
@@ -3127,7 +3104,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>230</v>
+        <v>215</v>
       </c>
       <c r="B3">
         <v>73</v>
@@ -3144,7 +3121,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>231</v>
+        <v>216</v>
       </c>
       <c r="B4">
         <v>85</v>
@@ -3161,7 +3138,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="B5">
         <v>88</v>
@@ -3178,13 +3155,13 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>233</v>
+        <v>218</v>
       </c>
       <c r="B6">
         <v>91</v>
       </c>
       <c r="C6" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="D6">
         <v>84</v>
@@ -3195,7 +3172,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
       <c r="B7">
         <v>100</v>
@@ -3212,7 +3189,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>236</v>
+        <v>221</v>
       </c>
       <c r="B8">
         <v>108</v>
@@ -3268,7 +3245,7 @@
         <v>12</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>13</v>
@@ -3282,7 +3259,7 @@
         <v>14</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>23</v>
@@ -3310,7 +3287,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>19</v>
@@ -3324,13 +3301,13 @@
         <v>20</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -3338,7 +3315,7 @@
         <v>21</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>22</v>
@@ -3388,13 +3365,13 @@
         <v>24</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="165" x14ac:dyDescent="0.25">
@@ -3402,7 +3379,7 @@
         <v>25</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>27</v>
@@ -3416,7 +3393,7 @@
         <v>26</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>28</v>
@@ -3434,8 +3411,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24A7A0F3-CFE1-4E54-A6CA-9E246D862933}">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3474,238 +3451,238 @@
         <v>35</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>68</v>
+      <c r="E2" s="7" t="s">
+        <v>301</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="168" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>39</v>
+      <c r="E3" s="7" t="s">
+        <v>293</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="97.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>69</v>
+        <v>316</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>295</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="224.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="180" x14ac:dyDescent="0.25">
+      <c r="B6" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="165" x14ac:dyDescent="0.25">
-      <c r="B6" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>177</v>
-      </c>
       <c r="D6" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>70</v>
+        <v>148</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>296</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="B7" s="4" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>297</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="93" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="4" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>175</v>
+        <v>160</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>74</v>
+        <v>161</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>317</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="201.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="4" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>49</v>
+        <v>159</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>302</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="135" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="F10" s="4" t="s">
         <v>50</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="135" x14ac:dyDescent="0.25">
       <c r="B11" s="4" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>66</v>
+        <v>313</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>299</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="189" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="4" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>49</v>
+        <v>158</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>302</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="225" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="165" x14ac:dyDescent="0.25">
+      <c r="B14" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="135" x14ac:dyDescent="0.25">
-      <c r="B14" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>177</v>
-      </c>
       <c r="D14" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>67</v>
+        <v>157</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>300</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -3730,44 +3707,44 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="B1" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="C1" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="D1" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -3791,53 +3768,53 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="B1" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="C1" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="D1" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="E1" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -3869,119 +3846,119 @@
         <v>29</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -4013,139 +3990,139 @@
         <v>29</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>175</v>
+        <v>160</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>175</v>
+        <v>160</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>175</v>
+        <v>160</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>175</v>
+        <v>160</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -4177,147 +4154,147 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="B1" s="12" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="D1" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="E1" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="F1" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="G1" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="H1" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="I1" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
       <c r="C2" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="D2" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
       <c r="E2" t="s">
-        <v>210</v>
+        <v>195</v>
       </c>
       <c r="F2" t="s">
-        <v>212</v>
+        <v>197</v>
       </c>
       <c r="G2" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="H2">
         <v>600</v>
       </c>
       <c r="I2" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>289</v>
+        <v>274</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="C3" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="D3" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
       <c r="E3" t="s">
-        <v>210</v>
+        <v>195</v>
       </c>
       <c r="F3" t="s">
-        <v>212</v>
+        <v>197</v>
       </c>
       <c r="G3" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="H3" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="I3" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="C4" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="D4" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
       <c r="E4" t="s">
-        <v>210</v>
+        <v>195</v>
       </c>
       <c r="F4" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
       <c r="G4" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="H4">
         <v>100</v>
       </c>
       <c r="I4" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>291</v>
+        <v>276</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>215</v>
+        <v>200</v>
       </c>
       <c r="C5" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="D5" t="s">
-        <v>209</v>
+        <v>194</v>
       </c>
       <c r="E5" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
       <c r="F5" t="s">
-        <v>214</v>
+        <v>199</v>
       </c>
       <c r="G5" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="H5">
         <v>100</v>
       </c>
       <c r="I5" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>

--- a/tables/habitat/AllTables.xlsx
+++ b/tables/habitat/AllTables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\00101765\AED Dropbox\Sherry Zhai\Github\cdm-science\tables\habitat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DD22302-80B4-4107-B92B-5C6103160C16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1319070B-27A4-4A34-AE2E-D646116AAC36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25490" yWindow="-110" windowWidth="38620" windowHeight="21220" tabRatio="870" firstSheet="3" activeTab="9" xr2:uid="{C6B6A4F7-8E11-4364-B90C-81D0188035FA}"/>
+    <workbookView xWindow="27460" yWindow="320" windowWidth="23040" windowHeight="19880" tabRatio="870" firstSheet="3" activeTab="9" xr2:uid="{C6B6A4F7-8E11-4364-B90C-81D0188035FA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1_NPMR" sheetId="1" r:id="rId1"/>
@@ -1415,11 +1415,11 @@
 "\@kim2015"</t>
   </si>
   <si>
-    <t>"@kim2013"</t>
-  </si>
-  <si>
-    <t>&lt;@kim2013&gt;;&lt;br&gt;
-\@asano2020 Fig.5</t>
+    <t>@kim2013;&lt;br&gt;
+@asano2020 Fig.5</t>
+  </si>
+  <si>
+    <t>@kim2013</t>
   </si>
 </sst>
 </file>
@@ -1469,7 +1469,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1504,6 +1504,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2032,8 +2038,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E455835C-91A3-4A35-A210-9F3EF1BB69F6}">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2044,7 +2050,7 @@
     <col min="4" max="4" width="33.5703125" style="7" customWidth="1"/>
     <col min="5" max="5" width="25.42578125" style="7" customWidth="1"/>
     <col min="6" max="6" width="38.42578125" style="7" customWidth="1"/>
-    <col min="7" max="7" width="20.42578125" style="7" customWidth="1"/>
+    <col min="7" max="7" width="20.42578125" style="13" customWidth="1"/>
     <col min="8" max="8" width="20.7109375" style="7" customWidth="1"/>
     <col min="9" max="16384" width="9.140625" style="7"/>
   </cols>
@@ -2068,7 +2074,7 @@
       <c r="F1" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="13" t="s">
         <v>33</v>
       </c>
       <c r="H1" s="7" t="s">
@@ -2094,7 +2100,7 @@
       <c r="F2" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="13" t="s">
         <v>318</v>
       </c>
       <c r="H2" s="7" t="s">
@@ -2120,8 +2126,8 @@
       <c r="F3" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="G3" s="7" t="s">
-        <v>319</v>
+      <c r="G3" s="13" t="s">
+        <v>320</v>
       </c>
       <c r="H3" s="7" t="s">
         <v>138</v>
@@ -2143,7 +2149,7 @@
       <c r="F4" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="13" t="s">
         <v>227</v>
       </c>
       <c r="H4" s="7" t="s">
@@ -2166,7 +2172,7 @@
       <c r="F5" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G5" s="13" t="s">
         <v>138</v>
       </c>
       <c r="H5" s="7" t="s">
@@ -2189,7 +2195,7 @@
       <c r="F6" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="G6" s="13" t="s">
         <v>138</v>
       </c>
       <c r="H6" s="7" t="s">
@@ -2212,7 +2218,7 @@
       <c r="F7" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="G7" s="13" t="s">
         <v>138</v>
       </c>
       <c r="H7" s="7" t="s">
@@ -2238,8 +2244,8 @@
       <c r="F8" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="G8" s="7" t="s">
-        <v>320</v>
+      <c r="G8" s="13" t="s">
+        <v>319</v>
       </c>
       <c r="H8" s="7" t="s">
         <v>138</v>
@@ -2261,7 +2267,7 @@
       <c r="F9" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="G9" s="13" t="s">
         <v>294</v>
       </c>
       <c r="H9" s="7" t="s">
@@ -2284,7 +2290,7 @@
       <c r="F10" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="G10" s="13" t="s">
         <v>138</v>
       </c>
       <c r="H10" s="7" t="s">
@@ -2307,7 +2313,7 @@
       <c r="F11" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="G11" s="13" t="s">
         <v>138</v>
       </c>
       <c r="H11" s="7" t="s">
@@ -2330,14 +2336,14 @@
       <c r="F12" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="G12" s="13" t="s">
         <v>138</v>
       </c>
       <c r="H12" s="7" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="210" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="195" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>47</v>
       </c>
@@ -2356,7 +2362,7 @@
       <c r="F13" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="G13" s="13" t="s">
         <v>310</v>
       </c>
       <c r="H13" s="7" t="s">
@@ -2379,7 +2385,7 @@
       <c r="F14" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="G14" s="13" t="s">
         <v>296</v>
       </c>
       <c r="H14" s="7" t="s">
@@ -2402,7 +2408,7 @@
       <c r="F15" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="G15" s="7" t="s">
+      <c r="G15" s="13" t="s">
         <v>317</v>
       </c>
       <c r="H15" s="7" t="s">
@@ -2425,7 +2431,7 @@
       <c r="F16" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="G16" s="13" t="s">
         <v>297</v>
       </c>
       <c r="H16" s="7" t="s">
@@ -2448,7 +2454,7 @@
       <c r="F17" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="G17" s="13" t="s">
         <v>302</v>
       </c>
       <c r="H17" s="7" t="s">
@@ -2474,7 +2480,7 @@
       <c r="F18" s="7" t="s">
         <v>308</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="G18" s="13" t="s">
         <v>298</v>
       </c>
       <c r="H18" s="7" t="s">
@@ -2497,7 +2503,7 @@
       <c r="F19" s="7" t="s">
         <v>307</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="G19" s="13" t="s">
         <v>299</v>
       </c>
       <c r="H19" s="7" t="s">
@@ -2520,7 +2526,7 @@
       <c r="F20" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="G20" s="13" t="s">
         <v>138</v>
       </c>
       <c r="H20" s="7" t="s">
@@ -2543,7 +2549,7 @@
       <c r="F21" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="G21" s="7" t="s">
+      <c r="G21" s="13" t="s">
         <v>138</v>
       </c>
       <c r="H21" s="7" t="s">
@@ -2566,7 +2572,7 @@
       <c r="F22" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="G22" s="13" t="s">
         <v>302</v>
       </c>
       <c r="H22" s="7" t="s">
@@ -2592,7 +2598,7 @@
       <c r="F23" s="7" t="s">
         <v>309</v>
       </c>
-      <c r="G23" s="4" t="s">
+      <c r="G23" s="14" t="s">
         <v>315</v>
       </c>
       <c r="H23" s="7" t="s">
@@ -2615,7 +2621,7 @@
       <c r="F24" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="G24" s="13" t="s">
         <v>300</v>
       </c>
       <c r="H24" s="7" t="s">
@@ -2638,7 +2644,7 @@
       <c r="F25" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="G25" s="7" t="s">
+      <c r="G25" s="13" t="s">
         <v>138</v>
       </c>
       <c r="H25" s="7" t="s">
@@ -2661,7 +2667,7 @@
       <c r="F26" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="G26" s="7" t="s">
+      <c r="G26" s="13" t="s">
         <v>138</v>
       </c>
       <c r="H26" s="7" t="s">
@@ -2684,7 +2690,7 @@
       <c r="F27" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="G27" s="7" t="s">
+      <c r="G27" s="13" t="s">
         <v>138</v>
       </c>
       <c r="H27" s="7" t="s">
@@ -3412,7 +3418,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3668,7 +3674,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="165" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="135" x14ac:dyDescent="0.25">
       <c r="B14" s="4" t="s">
         <v>150</v>
       </c>

--- a/tables/habitat/AllTables.xlsx
+++ b/tables/habitat/AllTables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\00101765\AED Dropbox\Sherry Zhai\Github\cdm-science\tables\habitat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1319070B-27A4-4A34-AE2E-D646116AAC36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ECCC085-90AF-47B4-B3BD-4303DC2B36FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="27460" yWindow="320" windowWidth="23040" windowHeight="19880" tabRatio="870" firstSheet="3" activeTab="9" xr2:uid="{C6B6A4F7-8E11-4364-B90C-81D0188035FA}"/>
+    <workbookView xWindow="27460" yWindow="320" windowWidth="23040" windowHeight="19880" tabRatio="870" firstSheet="3" activeTab="3" xr2:uid="{C6B6A4F7-8E11-4364-B90C-81D0188035FA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1_NPMR" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="318">
   <si>
     <t>Field data</t>
   </si>
@@ -165,9 +165,6 @@
   <si>
     <t>R. tuberosa seeds with sediment germinated in salinities of 0 to 85g/L with 14-64% germination, but no germination occurred above 85g/L. R. tuberosa seeds without sediment germinated in 0 - 90g/L.
 In salinity below 40g/L a germination probability of &gt;50% would be expected for seeds of R. tuberosa, but at salinities between 40 and 90 g/L germination would be&lt;50%</t>
-  </si>
-  <si>
-    <t>Turions of R. tuberosa germinated at salinities of 0 to 125g/L, with 14 - 74% germination, but no germination occurred above 125 g/L. Suboptimal thresholds based on Fig.2 in Kim et al. 2013</t>
   </si>
   <si>
     <t>D: Water depth (m)</t>
@@ -1305,121 +1302,113 @@
     <t>&lt;img src="images/lagoon_habitat/HSI_flower_algae.png" width="160"/&gt;</t>
   </si>
   <si>
-    <t>\@kim2013</t>
-  </si>
-  <si>
     <t>\@collier2017</t>
-  </si>
-  <si>
-    <t>\@kim2013;&lt;br&gt;
-\@asano2020 Fig.5</t>
-  </si>
-  <si>
-    <t>\@kim2015;&lt;br&gt;
-\@collier2017</t>
-  </si>
-  <si>
-    <t>\@collier2017 
-cited in \@asano2020</t>
-  </si>
-  <si>
-    <t>\@kim2015; &lt;br&gt;
-\@collier2017; &lt;br&gt;
-\@asano2020</t>
-  </si>
-  <si>
-    <t>\@kim2015;&lt;br&gt;
-\@collier2017;</t>
-  </si>
-  <si>
-    <t>\@kim2015;&lt;br&gt;
-\@collier2017;&lt;br&gt;
-\@asano2020</t>
-  </si>
-  <si>
-    <t>\@kim2013;&lt;br&gt;
-\@kim2015</t>
-  </si>
-  <si>
-    <t>\@lewis2022</t>
   </si>
   <si>
     <t>The model relating shoot density to physicochemical
 conditions explained 73% of variation \[@kim2015]</t>
   </si>
   <si>
+    <t>The model relating flower density to physicochemical
+conditions explained 76% of variation but only 27% of the seed abundance variance was explained (\@kim2015).</t>
+  </si>
+  <si>
+    <t>@kim2013;&lt;br&gt;
+@asano2020 Fig.5</t>
+  </si>
+  <si>
+    <t>@kim2013</t>
+  </si>
+  <si>
+    <t>@kim2013;&lt;br&gt;
+@kim2015</t>
+  </si>
+  <si>
+    <t>@brock1982; &lt;br&gt;@kim2015;&lt;br&gt;
+@collier2017; &lt;br&gt;
+@asano2020</t>
+  </si>
+  <si>
+    <t>@kim2015;&lt;br&gt;
+@collier2017</t>
+  </si>
+  <si>
+    <t>@santa1998 cited in @collier2017.</t>
+  </si>
+  <si>
+    <t>@collier2017 
+cited in @asano2020</t>
+  </si>
+  <si>
+    <t>@lewis2022</t>
+  </si>
+  <si>
+    <t>@kim2015; &lt;br&gt;
+@collier2017; &lt;br&gt;
+@asano2020</t>
+  </si>
+  <si>
+    <t>@kim2015;&lt;br&gt;
+@collier2017;</t>
+  </si>
+  <si>
+    <t>@kim2015;&lt;br&gt;
+@asano2020</t>
+  </si>
+  <si>
+    <t>@kim2015;&lt;br&gt;
+@collier2017;&lt;br&gt;
+@asano2020</t>
+  </si>
+  <si>
+    <t>Turions of R. tuberosa germinated at salinities of 0 to 125g/L, with 14 - 74% germination, but no germination occurred above 125 g/L. Suboptimal thresholds based on Fig.2 in @kim2013</t>
+  </si>
+  <si>
     <t>A primary factor driving the distribution and abundance of Ruppia in the southern Coorong. The highest abundance of R. tuberosa found at salinities from 19 to 70 g/L and declined sharply
 in response to increasing salinity from 70 to 109 g/L, but increased again between 116 and 124 g/L.
-Table 2 in Collier et al. 2017 indicated R. tuberosa occurred at up to 230 g/L in other Lakes but source of data is not clear. Lower threshold source based on Fig.5 in \@asano2020</t>
-  </si>
-  <si>
-    <t>A primary factor driving the distribution and abundance of Ruppia in the southern Coorong. The highest abundance of R. tuberosa found at salinities from 19 to 70 g/L and declined sharply
-in response to increasing salinity from 70 to 109 g/L, but increased again between 116 and 124 g/L.
-Table 2 in \@collier2017 indicated R. tuberosa occurred at up to 230 g/L in other Lakes but source of data is not clear. Lower threshold source based on Fig.5 in \@asano2020</t>
-  </si>
-  <si>
-    <t>The model relating flower density to physicochemical
-conditions explained 76% of variation but only 27% of the seed abundance variance was explained (\@kim2015).</t>
-  </si>
-  <si>
-    <t>R. tuberosa flowers need to reach the water surface for pollination. The highest density of flowering has been observed in water depths from 0.1 to 0.4 m and seed density of mature plants declines at depths greater than 0.4 m. Upper thresholds based on Fig.4 in \@kim2015.</t>
+Table 2 in @collier2017 indicated R. tuberosa occurred at up to 230 g/L in other Lakes but source of data is not clear. Lower threshold source based on Fig.5 in @asano2020</t>
   </si>
   <si>
     <t>Flower abundance was highest at salinities between ~47 and 62 g/L and flower abundance was lowest at &gt;70 g/L and &lt;47 g/L.
 The highest seed density was maintained at salinities of
 26–62 g/L. 
-Upper and lower thresholds were based on \@collier2017 and Fig.5 in \@asano2020. Original source unclear</t>
+Upper and lower thresholds were based on @collier2017 and Fig.5 in @asano2020. Original source unclear</t>
+  </si>
+  <si>
+    <t>R. tuberosa flowers need to reach the water surface for pollination. The highest density of flowering has been observed in water depths from 0.1 to 0.4 m and seed density of mature plants declines at depths greater than 0.4 m. Upper thresholds based on Fig.4 in @kim2015.</t>
   </si>
   <si>
     <t>Thresholds were determined considering several sources: 
 1) The highest turion densities in the Coorong have been observed at salinity between ~124 g/L and 160 g/L and are most likely to occur where salinities are over 70 g/L. This study was conducted during a year with extremely high salinities in the Coorong;
 2) Analysis of 2020 – 2021 HCHB survey data indicate high turion abundance between ~70 – 120 g/L but can occur in salinity at as low as ~40g/L;
-3) Upper threshold based on Fig.5 in \@asano2020</t>
-  </si>
-  <si>
-    <t>\@brock1982; &lt;br&gt;\@kim2015;&lt;br&gt;
-\@collier2017; &lt;br&gt;
-\@asano2020</t>
-  </si>
-  <si>
-    <t>1. \@kim2015;&lt;br&gt;
-3. \@asano2020</t>
+3) Upper threshold based on Fig.5 in @asano2020</t>
+  </si>
+  <si>
+    <t>Turions of R. tuberosa germinated at salinities of 0 to 125g/L, with 14 - 74% germination, but no germination occurred above 125 g/L. Suboptimal thresholds based on Fig.2 in@kim2013</t>
+  </si>
+  <si>
+    <t>A primary factor driving the distribution and abundance of Ruppia in the southern Coorong. The highest abundance of R. tuberosa found at salinities from 19 to 70 g/L and declined sharply
+in response to increasing salinity from 70 to 109 g/L, but increased again between 116 and 124 g/L.
+Table 2 in Collier et al. 2017 indicated R. tuberosa occurred at up to 230 g/L in other Lakes but source of data is not clear. Lower threshold source based on Fig.5 in @asano2020</t>
+  </si>
+  <si>
+    <t>Flower abundance was highest at salinities between ~47 and 62 g/L and flower abundance was lowest at &gt;70 g/L and &lt;47 g/L.
+The highest seed density was maintained at salinities of
+26–62 g/L.
+Upper and lower thresholds were based on Collier et al. 2017 and Fig.5 in @asano2020. Original source unclear</t>
+  </si>
+  <si>
+    <t>R. tuberosa flowers need to reach the water surface for pollination. The highest density of flowering has been observed in water depths from 0.1 to 0.4 m and seed density of mature plants declines at depths greater than 0.4 m. Upper thresholds based on Fig.4 in@kim2015.</t>
+  </si>
+  <si>
+    <t>1. @kim2015;&lt;br&gt;
+3. @asano2020</t>
   </si>
   <si>
     <t>Thresholds were determined considering several sources:
 1) The highest turion densities in the Coorong have been observed at salinity between ~124 g/L and 160 g/L and are most likely to occur where salinities are over 70 g/L. This study was conducted during a year with extremely high salinities in the Coorong;
 2) Analysis of 2020 – 2021 HCHB survey data indicates high turion abundance between ~70 – 120 g/L but can occur in salinity at as low as ~40g/L (Figure 8.6);
-3) Upper threshold based on Fig.5 in \@asano2020</t>
-  </si>
-  <si>
-    <t>R. tuberosa flowers need to reach the water surface for pollination. The highest density of flowering has been observed in water depths from 0.1 to 0.4 m and seed density of mature plants declines at depths greater than 0.4 m. Upper thresholds based on Fig.4 in\@kim2015.</t>
-  </si>
-  <si>
-    <t>Flower abundance was highest at salinities between ~47 and 62 g/L and flower abundance was lowest at &gt;70 g/L and &lt;47 g/L.
-The highest seed density was maintained at salinities of
-26–62 g/L.
-Upper and lower thresholds were based on Collier et al. 2017 and Fig.5 in \@asano2020. Original source unclear</t>
-  </si>
-  <si>
-    <t>\@kim2015;&lt;br&gt;
-\@asano2020</t>
-  </si>
-  <si>
-    <t>Turions of R. tuberosa germinated at salinities of 0 to 125g/L, with 14 - 74% germination, but no germination occurred above 125 g/L. Suboptimal thresholds based on Fig.2 in\@kim2013</t>
-  </si>
-  <si>
-    <t>\@santa1998 cited in \@collier2017.</t>
-  </si>
-  <si>
-    <t>\"@kim2013";&lt;br&gt;
-"\@kim2015"</t>
-  </si>
-  <si>
-    <t>@kim2013;&lt;br&gt;
-@asano2020 Fig.5</t>
-  </si>
-  <si>
-    <t>@kim2013</t>
+3) Upper threshold based on Fig.5 in @asano2020</t>
   </si>
 </sst>
 </file>
@@ -1851,7 +1840,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>2</v>
@@ -1868,10 +1857,10 @@
     </row>
     <row r="2" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C2" s="2">
         <v>0.72199999999999998</v>
@@ -1891,10 +1880,10 @@
     </row>
     <row r="3" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C3" s="2">
         <v>0.25</v>
@@ -1914,10 +1903,10 @@
     </row>
     <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C4" s="2">
         <v>0.95399999999999996</v>
@@ -1937,10 +1926,10 @@
     </row>
     <row r="5" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C5" s="2">
         <v>0.27500000000000002</v>
@@ -1960,10 +1949,10 @@
     </row>
     <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C6" s="2">
         <v>0.26400000000000001</v>
@@ -1986,7 +1975,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C7" s="2">
         <v>0.44</v>
@@ -2009,7 +1998,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C8" s="2">
         <v>0.54900000000000004</v>
@@ -2038,8 +2027,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E455835C-91A3-4A35-A210-9F3EF1BB69F6}">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView topLeftCell="A23" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2057,19 +2046,19 @@
   <sheetData>
     <row r="1" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C1" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="D1" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="E1" s="7" t="s">
         <v>271</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>272</v>
       </c>
       <c r="F1" s="7" t="s">
         <v>32</v>
@@ -2089,612 +2078,612 @@
         <v>36</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F2" s="7" t="s">
         <v>37</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>318</v>
+        <v>297</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="180" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>36</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F3" s="7" t="s">
         <v>38</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>320</v>
+        <v>296</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="135" x14ac:dyDescent="0.25">
       <c r="B4" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="195" x14ac:dyDescent="0.25">
       <c r="B5" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B6" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G6" s="13" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="B7" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="195" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>36</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>39</v>
+        <v>307</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>319</v>
+        <v>295</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="B9" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="195" x14ac:dyDescent="0.25">
       <c r="B10" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="135" x14ac:dyDescent="0.25">
       <c r="B11" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="B12" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G12" s="13" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="195" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>36</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="G13" s="13" t="s">
-        <v>310</v>
+        <v>298</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="240" x14ac:dyDescent="0.25">
       <c r="B14" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F14" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="G14" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="H14" s="7" t="s">
         <v>231</v>
-      </c>
-      <c r="G14" s="13" t="s">
-        <v>296</v>
-      </c>
-      <c r="H14" s="7" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="195" x14ac:dyDescent="0.25">
       <c r="B15" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F15" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="G15" s="13" t="s">
+        <v>300</v>
+      </c>
+      <c r="H15" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="G15" s="13" t="s">
-        <v>317</v>
-      </c>
-      <c r="H15" s="7" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="135" x14ac:dyDescent="0.25">
       <c r="B16" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C16" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>43</v>
-      </c>
       <c r="G16" s="13" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="150" x14ac:dyDescent="0.25">
       <c r="B17" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G17" s="13" t="s">
         <v>302</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="195" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>36</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="G18" s="13" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>306</v>
+        <v>294</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="180" x14ac:dyDescent="0.25">
       <c r="B19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="G19" s="13" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="195" x14ac:dyDescent="0.25">
       <c r="B20" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G20" s="13" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="B21" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G21" s="13" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="180" x14ac:dyDescent="0.25">
       <c r="B22" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G22" s="13" t="s">
         <v>302</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="225" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B23" s="7" t="s">
         <v>36</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="G23" s="14" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="210" x14ac:dyDescent="0.25">
       <c r="B24" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G24" s="13" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="195" x14ac:dyDescent="0.25">
       <c r="B25" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G25" s="13" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="B26" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G26" s="13" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H26" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="B27" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G27" s="13" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -2721,72 +2710,72 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="D1" s="9" t="s">
         <v>166</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>189</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="9" t="s">
         <v>191</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B3" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="D3" s="9" t="s">
         <v>183</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B5" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="9" t="s">
         <v>186</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>187</v>
       </c>
     </row>
   </sheetData>
@@ -2815,36 +2804,36 @@
   <sheetData>
     <row r="1" spans="1:6" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="D1" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="B1" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>167</v>
-      </c>
       <c r="E1" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>268</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E2" s="2">
         <v>0.55000000000000004</v>
@@ -2855,16 +2844,16 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D3" s="9" t="s">
         <v>170</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>171</v>
       </c>
       <c r="E3" s="2">
         <v>0.49</v>
@@ -2875,16 +2864,16 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E4" s="2">
         <v>0.25</v>
@@ -2895,16 +2884,16 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B5" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D5" s="9" t="s">
         <v>176</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>177</v>
       </c>
       <c r="E5" s="2">
         <v>0.31</v>
@@ -2915,16 +2904,16 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E6" s="2">
         <v>3.4000000000000002E-2</v>
@@ -2935,16 +2924,16 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B7" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>170</v>
-      </c>
       <c r="D7" s="9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E7" s="2">
         <v>-0.13</v>
@@ -2955,16 +2944,16 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B8" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>170</v>
-      </c>
       <c r="D8" s="9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E8" s="2">
         <v>5.5E-2</v>
@@ -2975,16 +2964,16 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E9" s="2">
         <v>0.5</v>
@@ -2995,16 +2984,16 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B10" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="D10" s="9" t="s">
         <v>202</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>203</v>
       </c>
       <c r="E10" s="2">
         <v>-0.51</v>
@@ -3015,16 +3004,16 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B11" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D11" s="9" t="s">
         <v>204</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>205</v>
       </c>
       <c r="E11" s="2">
         <v>0.25</v>
@@ -3035,16 +3024,16 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B12" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="D12" s="9" t="s">
         <v>204</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>205</v>
       </c>
       <c r="E12" s="2">
         <v>0.21</v>
@@ -3076,24 +3065,24 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C1" t="s">
         <v>222</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>223</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>224</v>
-      </c>
-      <c r="E1" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B2">
         <v>64</v>
@@ -3110,7 +3099,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B3">
         <v>73</v>
@@ -3127,7 +3116,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B4">
         <v>85</v>
@@ -3144,7 +3133,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B5">
         <v>88</v>
@@ -3161,13 +3150,13 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B6">
         <v>91</v>
       </c>
       <c r="C6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D6">
         <v>84</v>
@@ -3178,7 +3167,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B7">
         <v>100</v>
@@ -3195,7 +3184,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B8">
         <v>108</v>
@@ -3251,7 +3240,7 @@
         <v>12</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>13</v>
@@ -3265,7 +3254,7 @@
         <v>14</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>23</v>
@@ -3293,7 +3282,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>19</v>
@@ -3307,13 +3296,13 @@
         <v>20</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -3321,7 +3310,7 @@
         <v>21</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>22</v>
@@ -3371,13 +3360,13 @@
         <v>24</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="165" x14ac:dyDescent="0.25">
@@ -3385,7 +3374,7 @@
         <v>25</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>27</v>
@@ -3399,7 +3388,7 @@
         <v>26</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>28</v>
@@ -3417,8 +3406,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24A7A0F3-CFE1-4E54-A6CA-9E246D862933}">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3427,7 +3416,7 @@
     <col min="2" max="2" width="17.28515625" style="4" customWidth="1"/>
     <col min="3" max="3" width="34.7109375" style="4" customWidth="1"/>
     <col min="4" max="4" width="41.85546875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" style="14" customWidth="1"/>
     <col min="6" max="6" width="26" style="4" customWidth="1"/>
     <col min="7" max="16384" width="9.140625" style="4"/>
   </cols>
@@ -3445,7 +3434,7 @@
       <c r="D1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="14" t="s">
         <v>33</v>
       </c>
       <c r="F1" s="4" t="s">
@@ -3457,238 +3446,238 @@
         <v>35</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="7" t="s">
-        <v>301</v>
+      <c r="E2" s="13" t="s">
+        <v>297</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="168" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="7" t="s">
-        <v>293</v>
+      <c r="E3" s="13" t="s">
+        <v>296</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="97.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>316</v>
-      </c>
-      <c r="E4" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="E4" s="13" t="s">
         <v>295</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="224.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>298</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="165" x14ac:dyDescent="0.25">
+      <c r="B6" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="180" x14ac:dyDescent="0.25">
-      <c r="B6" s="4" t="s">
-        <v>150</v>
-      </c>
       <c r="C6" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>296</v>
+        <v>147</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>299</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="B7" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>297</v>
+        <v>42</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>301</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="93" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C8" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>317</v>
+      <c r="E8" s="13" t="s">
+        <v>300</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="201.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="E9" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="E9" s="13" t="s">
         <v>302</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="135" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>314</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>298</v>
+      <c r="E10" s="13" t="s">
+        <v>303</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="135" x14ac:dyDescent="0.25">
       <c r="B11" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>313</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>299</v>
+        <v>315</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>304</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="189" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="E12" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="E12" s="13" t="s">
         <v>302</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="225" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="F13" s="4" t="s">
         <v>52</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>312</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>311</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="135" x14ac:dyDescent="0.25">
       <c r="B14" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>300</v>
+        <v>156</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>306</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -3713,44 +3702,44 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1" t="s">
         <v>84</v>
-      </c>
-      <c r="D1" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C2" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>89</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -3774,53 +3763,53 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" t="s">
         <v>93</v>
       </c>
-      <c r="B1" t="s">
-        <v>94</v>
-      </c>
       <c r="C1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1" t="s">
         <v>84</v>
-      </c>
-      <c r="E1" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -3852,119 +3841,119 @@
         <v>29</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>104</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>118</v>
-      </c>
       <c r="F3" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>118</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>117</v>
-      </c>
       <c r="E5" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -3996,139 +3985,139 @@
         <v>29</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>104</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="F5" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E6" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -4160,147 +4149,147 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B1" s="12" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E1" t="s">
         <v>123</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>124</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>125</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>126</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>127</v>
-      </c>
-      <c r="I1" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D2" t="s">
+        <v>192</v>
+      </c>
+      <c r="E2" t="s">
+        <v>194</v>
+      </c>
+      <c r="F2" t="s">
+        <v>196</v>
+      </c>
+      <c r="G2" t="s">
         <v>129</v>
-      </c>
-      <c r="D2" t="s">
-        <v>193</v>
-      </c>
-      <c r="E2" t="s">
-        <v>195</v>
-      </c>
-      <c r="F2" t="s">
-        <v>197</v>
-      </c>
-      <c r="G2" t="s">
-        <v>130</v>
       </c>
       <c r="H2">
         <v>600</v>
       </c>
       <c r="I2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D3" t="s">
+        <v>192</v>
+      </c>
+      <c r="E3" t="s">
+        <v>194</v>
+      </c>
+      <c r="F3" t="s">
+        <v>196</v>
+      </c>
+      <c r="G3" t="s">
         <v>129</v>
       </c>
-      <c r="D3" t="s">
-        <v>193</v>
-      </c>
-      <c r="E3" t="s">
-        <v>195</v>
-      </c>
-      <c r="F3" t="s">
-        <v>197</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
+        <v>131</v>
+      </c>
+      <c r="I3" t="s">
         <v>130</v>
-      </c>
-      <c r="H3" t="s">
-        <v>132</v>
-      </c>
-      <c r="I3" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H4">
         <v>100</v>
       </c>
       <c r="I4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H5">
         <v>100</v>
       </c>
       <c r="I5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>

--- a/tables/habitat/AllTables.xlsx
+++ b/tables/habitat/AllTables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\00101765\AED Dropbox\Sherry Zhai\Github\cdm-science\tables\habitat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ECCC085-90AF-47B4-B3BD-4303DC2B36FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48421F59-99E5-4D50-B157-B86039E4C291}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="27460" yWindow="320" windowWidth="23040" windowHeight="19880" tabRatio="870" firstSheet="3" activeTab="3" xr2:uid="{C6B6A4F7-8E11-4364-B90C-81D0188035FA}"/>
+    <workbookView xWindow="27460" yWindow="320" windowWidth="23040" windowHeight="19880" tabRatio="870" firstSheet="5" activeTab="9" xr2:uid="{C6B6A4F7-8E11-4364-B90C-81D0188035FA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1_NPMR" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="319">
   <si>
     <t>Field data</t>
   </si>
@@ -1302,13 +1302,6 @@
     <t>&lt;img src="images/lagoon_habitat/HSI_flower_algae.png" width="160"/&gt;</t>
   </si>
   <si>
-    <t>\@collier2017</t>
-  </si>
-  <si>
-    <t>The model relating shoot density to physicochemical
-conditions explained 73% of variation \[@kim2015]</t>
-  </si>
-  <si>
     <t>The model relating flower density to physicochemical
 conditions explained 76% of variation but only 27% of the seed abundance variance was explained (\@kim2015).</t>
   </si>
@@ -1409,6 +1402,16 @@
 1) The highest turion densities in the Coorong have been observed at salinity between ~124 g/L and 160 g/L and are most likely to occur where salinities are over 70 g/L. This study was conducted during a year with extremely high salinities in the Coorong;
 2) Analysis of 2020 – 2021 HCHB survey data indicates high turion abundance between ~70 – 120 g/L but can occur in salinity at as low as ~40g/L (Figure 8.6);
 3) Upper threshold based on Fig.5 in @asano2020</t>
+  </si>
+  <si>
+    <t>The model relating shoot density to physicochemical
+conditions explained 73% of variation @kim2015</t>
+  </si>
+  <si>
+    <t>@santa1998 cited in @collier2017</t>
+  </si>
+  <si>
+    <t>@collier2017</t>
   </si>
 </sst>
 </file>
@@ -2027,8 +2030,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E455835C-91A3-4A35-A210-9F3EF1BB69F6}">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2090,7 +2093,7 @@
         <v>37</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>137</v>
@@ -2116,7 +2119,7 @@
         <v>38</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="H3" s="7" t="s">
         <v>137</v>
@@ -2231,10 +2234,10 @@
         <v>279</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="H8" s="7" t="s">
         <v>137</v>
@@ -2257,7 +2260,7 @@
         <v>227</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>292</v>
+        <v>318</v>
       </c>
       <c r="H9" s="7" t="s">
         <v>137</v>
@@ -2349,13 +2352,13 @@
         <v>283</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="G13" s="13" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>293</v>
+        <v>316</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="240" x14ac:dyDescent="0.25">
@@ -2375,7 +2378,7 @@
         <v>230</v>
       </c>
       <c r="G14" s="13" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="H14" s="7" t="s">
         <v>231</v>
@@ -2398,7 +2401,7 @@
         <v>228</v>
       </c>
       <c r="G15" s="13" t="s">
-        <v>300</v>
+        <v>317</v>
       </c>
       <c r="H15" s="7" t="s">
         <v>229</v>
@@ -2421,7 +2424,7 @@
         <v>42</v>
       </c>
       <c r="G16" s="13" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="H16" s="7" t="s">
         <v>137</v>
@@ -2444,7 +2447,7 @@
         <v>232</v>
       </c>
       <c r="G17" s="13" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="H17" s="7" t="s">
         <v>137</v>
@@ -2467,13 +2470,13 @@
         <v>287</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="G18" s="13" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="180" x14ac:dyDescent="0.25">
@@ -2490,10 +2493,10 @@
         <v>288</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="G19" s="13" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="H19" s="7" t="s">
         <v>50</v>
@@ -2562,7 +2565,7 @@
         <v>157</v>
       </c>
       <c r="G22" s="13" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="H22" s="7" t="s">
         <v>137</v>
@@ -2585,10 +2588,10 @@
         <v>279</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="G23" s="14" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="H23" s="7" t="s">
         <v>137</v>
@@ -2611,7 +2614,7 @@
         <v>156</v>
       </c>
       <c r="G24" s="13" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="H24" s="7" t="s">
         <v>233</v>
@@ -3406,7 +3409,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24A7A0F3-CFE1-4E54-A6CA-9E246D862933}">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
@@ -3455,7 +3458,7 @@
         <v>37</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>146</v>
@@ -3475,7 +3478,7 @@
         <v>38</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>137</v>
@@ -3492,10 +3495,10 @@
         <v>54</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>137</v>
@@ -3512,10 +3515,10 @@
         <v>55</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>40</v>
@@ -3532,7 +3535,7 @@
         <v>147</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>153</v>
@@ -3549,7 +3552,7 @@
         <v>42</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>137</v>
@@ -3566,7 +3569,7 @@
         <v>160</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>44</v>
@@ -3583,7 +3586,7 @@
         <v>158</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>137</v>
@@ -3600,10 +3603,10 @@
         <v>61</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>49</v>
@@ -3617,10 +3620,10 @@
         <v>155</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>50</v>
@@ -3637,7 +3640,7 @@
         <v>157</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="F12" s="6" t="s">
         <v>137</v>
@@ -3654,10 +3657,10 @@
         <v>59</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>52</v>
@@ -3674,7 +3677,7 @@
         <v>156</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>154</v>

--- a/tables/habitat/AllTables.xlsx
+++ b/tables/habitat/AllTables.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\00101765\AED Dropbox\Sherry Zhai\Github\cdm-science\tables\habitat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48421F59-99E5-4D50-B157-B86039E4C291}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70D73E59-3D22-4333-A175-D0B5D1E1CC52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="27460" yWindow="320" windowWidth="23040" windowHeight="19880" tabRatio="870" firstSheet="5" activeTab="9" xr2:uid="{C6B6A4F7-8E11-4364-B90C-81D0188035FA}"/>
+    <workbookView xWindow="3420" yWindow="2715" windowWidth="32175" windowHeight="15435" tabRatio="870" activeTab="8" xr2:uid="{C6B6A4F7-8E11-4364-B90C-81D0188035FA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1_NPMR" sheetId="1" r:id="rId1"/>
@@ -26,6 +26,7 @@
     <sheet name="Sheet11_valid_hist" sheetId="12" r:id="rId11"/>
     <sheet name="Sheet12_valid_hchb" sheetId="11" r:id="rId12"/>
     <sheet name="Sheet13_fishtolerance" sheetId="13" r:id="rId13"/>
+    <sheet name="Sheet14_valid_hchbv2.1" sheetId="14" r:id="rId14"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -46,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="328">
   <si>
     <t>Field data</t>
   </si>
@@ -575,9 +576,6 @@
   </si>
   <si>
     <t>tailored</t>
-  </si>
-  <si>
-    <t>Gen II</t>
   </si>
   <si>
     <t>HCHB&lt;br&gt;(Sep 2020 – Apr 2021)</t>
@@ -805,22 +803,10 @@
     <t>Gen 0&lt;br&gt; (Table 8.6)</t>
   </si>
   <si>
-    <t>Gen II&lt;br&gt; (Table 8.8)</t>
-  </si>
-  <si>
     <t>Gen 0&lt;br&gt; (Table 8.5)</t>
   </si>
   <si>
-    <t>Gen II&lt;br&gt; (Table 8.7)</t>
-  </si>
-  <si>
     <t>Gen 0&lt;br&gt; (Eq.8.5 - 8.6)</t>
-  </si>
-  <si>
-    <t>Gen II&lt;br&gt; (Eq.8.7 - 8.8)*</t>
-  </si>
-  <si>
-    <t>Gen II&lt;br&gt; (Eq.8.7 - 8.8)</t>
   </si>
   <si>
     <t xml:space="preserve">HCHB&lt;br&gt;(Sep 2020 – Dec 2021);&lt;br&gt; MDBA (2018 - 2019) </t>
@@ -1227,12 +1213,6 @@
 &gt;= 10 % of time wet: suitable</t>
   </si>
   <si>
-    <t>R&lt;br&gt;(Whole lagoon)</t>
-  </si>
-  <si>
-    <t>R&lt;br&gt;(South lagoon)</t>
-  </si>
-  <si>
     <t>Threshold</t>
   </si>
   <si>
@@ -1249,9 +1229,6 @@
   </si>
   <si>
     <t>HCHB_v2&lt;br&gt;(Appendix C)</t>
-  </si>
-  <si>
-    <t>HCHB_Gen II</t>
   </si>
   <si>
     <t>&lt;img src="images/lagoon_habitat/HSI_viability_salinity.png" width="160"/&gt;</t>
@@ -1412,6 +1389,57 @@
   </si>
   <si>
     <t>@collier2017</t>
+  </si>
+  <si>
+    <t>rs&lt;br&gt;(Whole lagoon)</t>
+  </si>
+  <si>
+    <t>rs&lt;br&gt;(South lagoon)</t>
+  </si>
+  <si>
+    <t>fit&lt;br&gt;(Whole lagoon)</t>
+  </si>
+  <si>
+    <t>fit&lt;br&gt;(South lagoon)</t>
+  </si>
+  <si>
+    <t>score&lt;br&gt;(Whole lagoon)</t>
+  </si>
+  <si>
+    <t>score&lt;br&gt;(South lagoon)</t>
+  </si>
+  <si>
+    <t>HCHB_Gen 2.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HCHB&lt;br&gt;(Sep 2020 – Dec 2021) </t>
+  </si>
+  <si>
+    <t>Gen 2.1</t>
+  </si>
+  <si>
+    <t>r&lt;br&gt;(Whole lagoon)</t>
+  </si>
+  <si>
+    <t>r&lt;br&gt;(South lagoon)</t>
+  </si>
+  <si>
+    <t>HCHB_Gen 2.0&lt;br&gt;(Appendix C)</t>
+  </si>
+  <si>
+    <t>Gen 2.0</t>
+  </si>
+  <si>
+    <t>Gen 2.0&lt;br&gt; (Table 8.8)</t>
+  </si>
+  <si>
+    <t>Gen 2.0&lt;br&gt; (Table 8.7)</t>
+  </si>
+  <si>
+    <t>Gen 2.0&lt;br&gt; (Eq.8.7 - 8.8)*</t>
+  </si>
+  <si>
+    <t>Gen 2.0&lt;br&gt; (Eq.8.7 - 8.8)</t>
   </si>
 </sst>
 </file>
@@ -2030,7 +2058,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E455835C-91A3-4A35-A210-9F3EF1BB69F6}">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
@@ -2049,19 +2077,19 @@
   <sheetData>
     <row r="1" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="F1" s="7" t="s">
         <v>32</v>
@@ -2081,48 +2109,48 @@
         <v>36</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="F2" s="7" t="s">
         <v>37</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="180" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>36</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="F3" s="7" t="s">
         <v>38</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="135" x14ac:dyDescent="0.25">
@@ -2130,22 +2158,22 @@
         <v>39</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="195" x14ac:dyDescent="0.25">
@@ -2153,22 +2181,22 @@
         <v>43</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -2176,45 +2204,45 @@
         <v>41</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G6" s="13" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="B7" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="195" x14ac:dyDescent="0.25">
@@ -2225,22 +2253,22 @@
         <v>36</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="60" x14ac:dyDescent="0.25">
@@ -2248,22 +2276,22 @@
         <v>39</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="195" x14ac:dyDescent="0.25">
@@ -2271,22 +2299,22 @@
         <v>43</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="135" x14ac:dyDescent="0.25">
@@ -2294,45 +2322,45 @@
         <v>41</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="B12" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G12" s="13" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="195" x14ac:dyDescent="0.25">
@@ -2343,22 +2371,22 @@
         <v>36</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="G13" s="13" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="240" x14ac:dyDescent="0.25">
@@ -2366,22 +2394,22 @@
         <v>39</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="G14" s="13" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="195" x14ac:dyDescent="0.25">
@@ -2389,22 +2417,22 @@
         <v>43</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="G15" s="13" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="135" x14ac:dyDescent="0.25">
@@ -2412,45 +2440,45 @@
         <v>41</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>42</v>
       </c>
       <c r="G16" s="13" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="150" x14ac:dyDescent="0.25">
       <c r="B17" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="G17" s="13" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="195" x14ac:dyDescent="0.25">
@@ -2461,22 +2489,22 @@
         <v>36</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="G18" s="13" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="180" x14ac:dyDescent="0.25">
@@ -2484,19 +2512,19 @@
         <v>39</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="G19" s="13" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="H19" s="7" t="s">
         <v>50</v>
@@ -2507,22 +2535,22 @@
         <v>43</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="G20" s="13" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="105" x14ac:dyDescent="0.25">
@@ -2530,45 +2558,45 @@
         <v>41</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="G21" s="13" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="180" x14ac:dyDescent="0.25">
       <c r="B22" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G22" s="13" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="225" x14ac:dyDescent="0.25">
@@ -2579,22 +2607,22 @@
         <v>36</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="G23" s="14" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="210" x14ac:dyDescent="0.25">
@@ -2602,22 +2630,22 @@
         <v>39</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G24" s="13" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="195" x14ac:dyDescent="0.25">
@@ -2625,22 +2653,22 @@
         <v>43</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="G25" s="13" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="105" x14ac:dyDescent="0.25">
@@ -2648,45 +2676,45 @@
         <v>41</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="G26" s="13" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H26" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="B27" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G27" s="13" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -2713,72 +2741,72 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D1" s="9" t="s">
         <v>165</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>188</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="9" t="s">
         <v>190</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B3" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="D3" s="9" t="s">
         <v>182</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B5" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="9" t="s">
         <v>185</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>186</v>
       </c>
     </row>
   </sheetData>
@@ -2791,7 +2819,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2807,36 +2835,36 @@
   <sheetData>
     <row r="1" spans="1:6" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D1" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="B1" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>166</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>267</v>
+        <v>320</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>268</v>
+        <v>321</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E2" s="2">
         <v>0.55000000000000004</v>
@@ -2847,16 +2875,16 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="D3" s="9" t="s">
         <v>169</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>170</v>
       </c>
       <c r="E3" s="2">
         <v>0.49</v>
@@ -2867,16 +2895,16 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E4" s="2">
         <v>0.25</v>
@@ -2887,16 +2915,16 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="B5" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="D5" s="9" t="s">
         <v>175</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>176</v>
       </c>
       <c r="E5" s="2">
         <v>0.31</v>
@@ -2907,16 +2935,16 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E6" s="2">
         <v>3.4000000000000002E-2</v>
@@ -2927,16 +2955,16 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="B7" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>169</v>
-      </c>
       <c r="D7" s="9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E7" s="2">
         <v>-0.13</v>
@@ -2947,16 +2975,16 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="B8" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>169</v>
-      </c>
       <c r="D8" s="9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E8" s="2">
         <v>5.5E-2</v>
@@ -2967,16 +2995,16 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E9" s="2">
         <v>0.5</v>
@@ -2987,16 +3015,16 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="E10" s="2">
         <v>-0.51</v>
@@ -3007,16 +3035,16 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="E11" s="2">
         <v>0.25</v>
@@ -3027,16 +3055,16 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="E12" s="2">
         <v>0.21</v>
@@ -3068,24 +3096,24 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="B1" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C1" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="D1" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="E1" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="B2">
         <v>64</v>
@@ -3102,7 +3130,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="B3">
         <v>73</v>
@@ -3119,7 +3147,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="B4">
         <v>85</v>
@@ -3136,7 +3164,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="B5">
         <v>88</v>
@@ -3153,13 +3181,13 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="B6">
         <v>91</v>
       </c>
       <c r="C6" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="D6">
         <v>84</v>
@@ -3170,7 +3198,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="B7">
         <v>100</v>
@@ -3187,7 +3215,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="B8">
         <v>108</v>
@@ -3205,6 +3233,350 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6839B937-9303-4D91-AA10-917C5E77A1BA}">
+  <dimension ref="A1:J10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="65.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0.51</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0.48</v>
+      </c>
+      <c r="G2">
+        <v>0.66</v>
+      </c>
+      <c r="H2">
+        <v>0.69</v>
+      </c>
+      <c r="I2">
+        <v>1.41</v>
+      </c>
+      <c r="J2">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0.47</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0.36</v>
+      </c>
+      <c r="G3">
+        <v>0.82</v>
+      </c>
+      <c r="H3">
+        <v>0.86</v>
+      </c>
+      <c r="I3">
+        <v>2.69</v>
+      </c>
+      <c r="J3">
+        <v>3.54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0.36</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0.43</v>
+      </c>
+      <c r="G4">
+        <v>0.61</v>
+      </c>
+      <c r="H4">
+        <v>0.67</v>
+      </c>
+      <c r="I4">
+        <v>1.37</v>
+      </c>
+      <c r="J4">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0.44</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0.44</v>
+      </c>
+      <c r="G5">
+        <v>0.61</v>
+      </c>
+      <c r="H5">
+        <v>0.6</v>
+      </c>
+      <c r="I5">
+        <v>1.38</v>
+      </c>
+      <c r="J5">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0.45</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0.52</v>
+      </c>
+      <c r="G6">
+        <v>0.67</v>
+      </c>
+      <c r="H6">
+        <v>0.66</v>
+      </c>
+      <c r="I6">
+        <v>1.62</v>
+      </c>
+      <c r="J6">
+        <v>1.85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0.38</v>
+      </c>
+      <c r="G7">
+        <v>0.47</v>
+      </c>
+      <c r="H7">
+        <v>0.39</v>
+      </c>
+      <c r="I7">
+        <v>0.89</v>
+      </c>
+      <c r="J7">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="E8" s="2">
+        <v>-6.2E-2</v>
+      </c>
+      <c r="F8" s="2">
+        <v>-4.2000000000000003E-2</v>
+      </c>
+      <c r="G8">
+        <v>0.74</v>
+      </c>
+      <c r="H8">
+        <v>0.76</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0.13</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0.16</v>
+      </c>
+      <c r="G9">
+        <v>0.72</v>
+      </c>
+      <c r="H9">
+        <v>0.77</v>
+      </c>
+      <c r="I9">
+        <v>0.89</v>
+      </c>
+      <c r="J9">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="G10">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="H10">
+        <v>0.48</v>
+      </c>
+      <c r="I10">
+        <v>1.52</v>
+      </c>
+      <c r="J10">
+        <v>1.01</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -3449,7 +3821,7 @@
         <v>35</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>62</v>
@@ -3458,10 +3830,10 @@
         <v>37</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="168" customHeight="1" x14ac:dyDescent="0.25">
@@ -3469,7 +3841,7 @@
         <v>48</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>53</v>
@@ -3478,10 +3850,10 @@
         <v>38</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="97.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3489,19 +3861,19 @@
         <v>47</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>54</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="224.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3509,16 +3881,16 @@
         <v>46</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>55</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>40</v>
@@ -3526,24 +3898,24 @@
     </row>
     <row r="6" spans="1:6" ht="165" x14ac:dyDescent="0.25">
       <c r="B6" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="B7" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>56</v>
@@ -3552,24 +3924,24 @@
         <v>42</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="93" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C8" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>160</v>
-      </c>
       <c r="E8" s="13" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>44</v>
@@ -3577,19 +3949,19 @@
     </row>
     <row r="9" spans="1:6" ht="201.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>60</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="135" x14ac:dyDescent="0.25">
@@ -3597,16 +3969,16 @@
         <v>45</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>61</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>49</v>
@@ -3614,16 +3986,16 @@
     </row>
     <row r="11" spans="1:6" ht="135" x14ac:dyDescent="0.25">
       <c r="B11" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>50</v>
@@ -3631,19 +4003,19 @@
     </row>
     <row r="12" spans="1:6" ht="189" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>57</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="225" x14ac:dyDescent="0.25">
@@ -3651,16 +4023,16 @@
         <v>51</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>59</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>52</v>
@@ -3668,19 +4040,19 @@
     </row>
     <row r="14" spans="1:6" ht="135" x14ac:dyDescent="0.25">
       <c r="B14" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -3867,16 +4239,16 @@
         <v>110</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>116</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="75" x14ac:dyDescent="0.25">
@@ -3887,7 +4259,7 @@
         <v>111</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>116</v>
@@ -3896,7 +4268,7 @@
         <v>117</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="75" x14ac:dyDescent="0.25">
@@ -3907,7 +4279,7 @@
         <v>112</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>116</v>
@@ -3933,7 +4305,7 @@
         <v>116</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>118</v>
@@ -3947,16 +4319,16 @@
         <v>114</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>116</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -4011,16 +4383,16 @@
         <v>62</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="105" x14ac:dyDescent="0.25">
@@ -4031,16 +4403,16 @@
         <v>120</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="75" x14ac:dyDescent="0.25">
@@ -4051,16 +4423,16 @@
         <v>54</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>56</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="75" x14ac:dyDescent="0.25">
@@ -4071,10 +4443,10 @@
         <v>55</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>56</v>
@@ -4094,7 +4466,7 @@
         <v>58</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>56</v>
@@ -4111,16 +4483,16 @@
         <v>59</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>56</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -4131,15 +4503,15 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62E1DF35-3470-4741-B035-2FAF41BF3870}">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.7109375" customWidth="1"/>
     <col min="2" max="2" width="27.140625" style="12" customWidth="1"/>
     <col min="3" max="3" width="21" customWidth="1"/>
     <col min="4" max="4" width="24.28515625" bestFit="1" customWidth="1"/>
@@ -4158,7 +4530,7 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D1" t="s">
         <v>122</v>
@@ -4181,22 +4553,22 @@
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="C2" t="s">
         <v>128</v>
       </c>
       <c r="D2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E2" t="s">
         <v>192</v>
       </c>
-      <c r="E2" t="s">
-        <v>194</v>
-      </c>
       <c r="F2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="G2" t="s">
         <v>129</v>
@@ -4210,22 +4582,22 @@
     </row>
     <row r="3" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C3" t="s">
         <v>128</v>
       </c>
       <c r="D3" t="s">
+        <v>191</v>
+      </c>
+      <c r="E3" t="s">
         <v>192</v>
       </c>
-      <c r="E3" t="s">
-        <v>194</v>
-      </c>
       <c r="F3" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="G3" t="s">
         <v>129</v>
@@ -4239,22 +4611,22 @@
     </row>
     <row r="4" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C4" t="s">
         <v>128</v>
       </c>
       <c r="D4" t="s">
+        <v>191</v>
+      </c>
+      <c r="E4" t="s">
         <v>192</v>
       </c>
-      <c r="E4" t="s">
-        <v>194</v>
-      </c>
       <c r="F4" t="s">
-        <v>197</v>
+        <v>326</v>
       </c>
       <c r="G4" t="s">
         <v>132</v>
@@ -4263,27 +4635,27 @@
         <v>100</v>
       </c>
       <c r="I4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>275</v>
+        <v>322</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="C5" t="s">
-        <v>133</v>
+        <v>323</v>
       </c>
       <c r="D5" t="s">
-        <v>193</v>
+        <v>324</v>
       </c>
       <c r="E5" t="s">
-        <v>195</v>
+        <v>325</v>
       </c>
       <c r="F5" t="s">
-        <v>198</v>
+        <v>327</v>
       </c>
       <c r="G5" t="s">
         <v>132</v>
@@ -4292,7 +4664,36 @@
         <v>100</v>
       </c>
       <c r="I5" t="s">
-        <v>135</v>
+        <v>134</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>317</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>318</v>
+      </c>
+      <c r="C6" t="s">
+        <v>319</v>
+      </c>
+      <c r="D6" t="s">
+        <v>324</v>
+      </c>
+      <c r="E6" t="s">
+        <v>325</v>
+      </c>
+      <c r="F6" t="s">
+        <v>327</v>
+      </c>
+      <c r="G6" t="s">
+        <v>132</v>
+      </c>
+      <c r="H6">
+        <v>101</v>
+      </c>
+      <c r="I6" t="s">
+        <v>134</v>
       </c>
     </row>
   </sheetData>

--- a/tables/habitat/AllTables.xlsx
+++ b/tables/habitat/AllTables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\00101765\AED Dropbox\Sherry Zhai\Github\cdm-science\tables\habitat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70D73E59-3D22-4333-A175-D0B5D1E1CC52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A104FF7-F3F5-45FF-B177-8E1ADCC377EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3420" yWindow="2715" windowWidth="32175" windowHeight="15435" tabRatio="870" activeTab="8" xr2:uid="{C6B6A4F7-8E11-4364-B90C-81D0188035FA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="870" activeTab="13" xr2:uid="{C6B6A4F7-8E11-4364-B90C-81D0188035FA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1_NPMR" sheetId="1" r:id="rId1"/>
@@ -1397,12 +1397,6 @@
     <t>rs&lt;br&gt;(South lagoon)</t>
   </si>
   <si>
-    <t>fit&lt;br&gt;(Whole lagoon)</t>
-  </si>
-  <si>
-    <t>fit&lt;br&gt;(South lagoon)</t>
-  </si>
-  <si>
     <t>score&lt;br&gt;(Whole lagoon)</t>
   </si>
   <si>
@@ -1440,6 +1434,12 @@
   </si>
   <si>
     <t>Gen 2.0&lt;br&gt; (Eq.8.7 - 8.8)</t>
+  </si>
+  <si>
+    <t>fit&lt;br&gt;(%, Whole lagoon)</t>
+  </si>
+  <si>
+    <t>fit&lt;br&gt;(%, South lagoon)</t>
   </si>
 </sst>
 </file>
@@ -1489,7 +1489,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1531,6 +1531,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2847,10 +2848,10 @@
         <v>165</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -3240,8 +3241,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6839B937-9303-4D91-AA10-917C5E77A1BA}">
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3274,16 +3275,16 @@
         <v>312</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>314</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -3299,23 +3300,23 @@
       <c r="D2" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="E2" s="2">
-        <v>0.51</v>
-      </c>
-      <c r="F2" s="2">
-        <v>0.48</v>
-      </c>
-      <c r="G2">
-        <v>0.66</v>
-      </c>
-      <c r="H2">
-        <v>0.69</v>
+      <c r="E2">
+        <v>0.53</v>
+      </c>
+      <c r="F2">
+        <v>0.4</v>
+      </c>
+      <c r="G2" s="15">
+        <v>68</v>
+      </c>
+      <c r="H2" s="15">
+        <v>69</v>
       </c>
       <c r="I2">
-        <v>1.41</v>
+        <v>1.37</v>
       </c>
       <c r="J2">
-        <v>1.5</v>
+        <v>1.39</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -3331,23 +3332,23 @@
       <c r="D3" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="E3" s="2">
-        <v>0.47</v>
-      </c>
-      <c r="F3" s="2">
-        <v>0.36</v>
-      </c>
-      <c r="G3">
-        <v>0.82</v>
-      </c>
-      <c r="H3">
-        <v>0.86</v>
+      <c r="E3">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="F3">
+        <v>0.38</v>
+      </c>
+      <c r="G3" s="15">
+        <v>80</v>
+      </c>
+      <c r="H3" s="15">
+        <v>81</v>
       </c>
       <c r="I3">
-        <v>2.69</v>
+        <v>2.48</v>
       </c>
       <c r="J3">
-        <v>3.54</v>
+        <v>2.95</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -3363,23 +3364,23 @@
       <c r="D4" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="E4" s="2">
-        <v>0.36</v>
-      </c>
-      <c r="F4" s="2">
-        <v>0.43</v>
-      </c>
-      <c r="G4">
-        <v>0.61</v>
-      </c>
-      <c r="H4">
-        <v>0.67</v>
+      <c r="E4">
+        <v>0.31</v>
+      </c>
+      <c r="F4">
+        <v>0.4</v>
+      </c>
+      <c r="G4" s="15">
+        <v>61</v>
+      </c>
+      <c r="H4" s="15">
+        <v>69</v>
       </c>
       <c r="I4">
-        <v>1.37</v>
+        <v>1.3</v>
       </c>
       <c r="J4">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -3395,23 +3396,23 @@
       <c r="D5" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="E5" s="2">
-        <v>0.44</v>
-      </c>
-      <c r="F5" s="2">
-        <v>0.44</v>
-      </c>
-      <c r="G5">
-        <v>0.61</v>
-      </c>
-      <c r="H5">
-        <v>0.6</v>
+      <c r="E5">
+        <v>0.41</v>
+      </c>
+      <c r="F5">
+        <v>0.37</v>
+      </c>
+      <c r="G5" s="15">
+        <v>57.999999999999993</v>
+      </c>
+      <c r="H5" s="15">
+        <v>56.999999999999993</v>
       </c>
       <c r="I5">
-        <v>1.38</v>
+        <v>1.24</v>
       </c>
       <c r="J5">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -3427,23 +3428,23 @@
       <c r="D6" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6">
+        <v>0.37</v>
+      </c>
+      <c r="F6">
         <v>0.45</v>
       </c>
-      <c r="F6" s="2">
-        <v>0.52</v>
-      </c>
-      <c r="G6">
-        <v>0.67</v>
-      </c>
-      <c r="H6">
-        <v>0.66</v>
+      <c r="G6" s="15">
+        <v>66</v>
+      </c>
+      <c r="H6" s="15">
+        <v>66</v>
       </c>
       <c r="I6">
-        <v>1.62</v>
+        <v>1.43</v>
       </c>
       <c r="J6">
-        <v>1.85</v>
+        <v>1.58</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -3459,23 +3460,23 @@
       <c r="D7" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="E7" s="2">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="F7" s="2">
-        <v>0.38</v>
-      </c>
-      <c r="G7">
-        <v>0.47</v>
-      </c>
-      <c r="H7">
-        <v>0.39</v>
+      <c r="E7">
+        <v>0.22</v>
+      </c>
+      <c r="F7">
+        <v>0.34</v>
+      </c>
+      <c r="G7" s="15">
+        <v>48</v>
+      </c>
+      <c r="H7" s="15">
+        <v>42</v>
       </c>
       <c r="I7">
-        <v>0.89</v>
+        <v>0.94</v>
       </c>
       <c r="J7">
-        <v>0.72</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -3491,17 +3492,17 @@
       <c r="D8" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="E8" s="2">
-        <v>-6.2E-2</v>
-      </c>
-      <c r="F8" s="2">
-        <v>-4.2000000000000003E-2</v>
-      </c>
-      <c r="G8">
-        <v>0.74</v>
-      </c>
-      <c r="H8">
-        <v>0.76</v>
+      <c r="E8">
+        <v>-0.13</v>
+      </c>
+      <c r="F8">
+        <v>-0.11</v>
+      </c>
+      <c r="G8" s="15">
+        <v>72</v>
+      </c>
+      <c r="H8" s="15">
+        <v>76</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -3523,20 +3524,20 @@
       <c r="D9" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="E9" s="2">
-        <v>0.13</v>
-      </c>
-      <c r="F9" s="2">
-        <v>0.16</v>
-      </c>
-      <c r="G9">
-        <v>0.72</v>
-      </c>
-      <c r="H9">
-        <v>0.77</v>
+      <c r="E9">
+        <v>0.2</v>
+      </c>
+      <c r="F9">
+        <v>0.11</v>
+      </c>
+      <c r="G9" s="15">
+        <v>74</v>
+      </c>
+      <c r="H9" s="15">
+        <v>77</v>
       </c>
       <c r="I9">
-        <v>0.89</v>
+        <v>1.24</v>
       </c>
       <c r="J9">
         <v>0.89</v>
@@ -3555,20 +3556,20 @@
       <c r="D10" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="E10" s="2">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="F10" s="2">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="G10">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="H10">
-        <v>0.48</v>
+      <c r="E10">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="F10">
+        <v>0.51</v>
+      </c>
+      <c r="G10" s="15">
+        <v>56.999999999999993</v>
+      </c>
+      <c r="H10" s="15">
+        <v>49</v>
       </c>
       <c r="I10">
-        <v>1.52</v>
+        <v>1.62</v>
       </c>
       <c r="J10">
         <v>1.01</v>
@@ -4505,8 +4506,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62E1DF35-3470-4741-B035-2FAF41BF3870}">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4626,7 +4627,7 @@
         <v>192</v>
       </c>
       <c r="F4" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G4" t="s">
         <v>132</v>
@@ -4640,22 +4641,22 @@
     </row>
     <row r="5" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B5" s="12" t="s">
         <v>194</v>
       </c>
       <c r="C5" t="s">
+        <v>321</v>
+      </c>
+      <c r="D5" t="s">
+        <v>322</v>
+      </c>
+      <c r="E5" t="s">
         <v>323</v>
       </c>
-      <c r="D5" t="s">
-        <v>324</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>325</v>
-      </c>
-      <c r="F5" t="s">
-        <v>327</v>
       </c>
       <c r="G5" t="s">
         <v>132</v>
@@ -4669,28 +4670,28 @@
     </row>
     <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>315</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>316</v>
+      </c>
+      <c r="C6" t="s">
         <v>317</v>
       </c>
-      <c r="B6" s="12" t="s">
-        <v>318</v>
-      </c>
-      <c r="C6" t="s">
-        <v>319</v>
-      </c>
       <c r="D6" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="E6" t="s">
+        <v>323</v>
+      </c>
+      <c r="F6" t="s">
         <v>325</v>
-      </c>
-      <c r="F6" t="s">
-        <v>327</v>
       </c>
       <c r="G6" t="s">
         <v>132</v>
       </c>
       <c r="H6">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I6" t="s">
         <v>134</v>
